--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_22044B5FA057F00BA6091174A092F5A8ED57414C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85C205F4-6C85-47B7-B50F-283FBFAEA524}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_22044B5FA057F00BA6091174A092F5A8ED57414C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0EA6724-0139-4A82-A2EF-7819BFF258F3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="35">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -498,11 +498,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_22044B5FA057F00BA6091174A092F5A8ED57414C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0EA6724-0139-4A82-A2EF-7819BFF258F3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="35">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -125,7 +119,7 @@
     <t>Chance of making playoffs</t>
   </si>
   <si>
-    <t>Louie Power Index</t>
+    <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
@@ -134,8 +128,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,21 +192,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,7 +236,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -284,7 +270,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -319,10 +304,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -495,17 +479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -625,7 +606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -666,7 +647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -707,7 +688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -748,7 +729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,7 +770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,7 +811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -871,7 +852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -912,7 +893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -953,7 +934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -994,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1041,14 +1022,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,7 +1040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1067,13 +1048,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>8.3333333333333329E-2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1081,13 +1062,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.16666666666666671</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1095,13 +1076,13 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.16666666666666671</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1109,13 +1090,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1123,13 +1104,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1143,7 +1124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1151,13 +1132,13 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.58333333333333337</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1165,13 +1146,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0.58333333333333337</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1185,7 +1166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1199,7 +1180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1207,13 +1188,13 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1221,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.91666666666666663</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1233,14 +1214,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1254,7 +1235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1271,7 +1252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1279,16 +1260,16 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.91666666666666663</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D3">
-        <v>-8.333333333333337E-2</v>
+        <v>-0.08333333333333337</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1305,7 +1286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1322,7 +1303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1330,16 +1311,16 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>0.58333333333333337</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D6">
-        <v>-0.41666666666666657</v>
+        <v>-0.4166666666666666</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1347,16 +1328,16 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.58333333333333337</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D7">
-        <v>0.58333333333333337</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1373,7 +1354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1381,16 +1362,16 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>-0.66666666666666674</v>
+        <v>-0.6666666666666667</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1398,16 +1379,16 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1415,16 +1396,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.16666666666666671</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D11">
-        <v>0.16666666666666671</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1432,16 +1413,16 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>8.3333333333333329E-2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D12">
-        <v>8.3333333333333329E-2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1464,17 +1445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1518,7 +1496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1562,7 +1540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1606,7 +1584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +1672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1738,7 +1716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1782,7 +1760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1826,7 +1804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1870,169 +1848,169 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>100</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>100</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
@@ -2040,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2052,14 +2030,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2073,7 +2051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2090,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2107,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2124,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2141,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2158,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2175,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2192,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2209,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2226,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2243,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2260,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -1850,7 +1850,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1877,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2009,16 +2009,16 @@
         <v>0</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>100</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -1454,7 +1454,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="44">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -56,10 +56,13 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>0-1-0</t>
-  </si>
-  <si>
-    <t>1-0-0</t>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>2-0-0</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -123,6 +126,30 @@
   </si>
   <si>
     <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
 </sst>
 </file>
@@ -591,16 +618,16 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
         <v>12</v>
@@ -632,19 +659,19 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -652,19 +679,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -673,19 +700,19 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -693,19 +720,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -714,19 +741,19 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -734,40 +761,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -805,7 +832,7 @@
         <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
         <v>12</v>
@@ -828,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -837,19 +864,19 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -857,40 +884,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -922,13 +949,13 @@
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
         <v>13</v>
@@ -939,10 +966,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -951,7 +978,7 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -960,19 +987,19 @@
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -983,7 +1010,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -992,7 +1019,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -1001,19 +1028,19 @@
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1031,13 +1058,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1045,13 +1072,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>0.08333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1059,10 +1086,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1073,13 +1100,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>0.1666666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1090,10 +1117,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1101,13 +1128,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1115,10 +1142,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1129,13 +1156,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0.5833333333333334</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1143,13 +1170,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>0.5833333333333334</v>
+        <v>1.25</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1157,13 +1184,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1171,13 +1198,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.75</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1185,10 +1212,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.8333333333333334</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1199,13 +1226,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>0.9166666666666666</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1223,16 +1250,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1240,13 +1267,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1257,16 +1284,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.9166666666666666</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.08333333333333337</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1274,13 +1301,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D4">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1291,16 +1318,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D5">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1308,16 +1335,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.5833333333333334</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.4166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1325,13 +1352,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0.5833333333333334</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.5833333333333334</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1342,16 +1369,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>-0.08333333333333337</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1362,13 +1389,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D9">
-        <v>-0.6666666666666667</v>
+        <v>-0.1666666666666666</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1376,16 +1403,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="D10">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1393,16 +1420,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D11">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1410,16 +1437,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>0.08333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D12">
-        <v>0.08333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1427,13 +1454,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-0.6666666666666667</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1454,51 +1481,51 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1542,7 +1569,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1586,7 +1613,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1674,7 +1701,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1762,7 +1789,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1850,7 +1877,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1877,16 +1904,16 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>100</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1894,7 +1921,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1938,7 +1965,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1982,7 +2009,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2009,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2018,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2039,16 +2066,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2059,13 +2086,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2073,16 +2100,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2093,13 +2120,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2110,13 +2137,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2124,16 +2151,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2149,8 +2176,8 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2158,16 +2185,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2175,16 +2202,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2192,16 +2219,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2212,13 +2239,13 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2226,16 +2253,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2243,16 +2270,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="E13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="45">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -56,13 +56,16 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>2-0-0</t>
-  </si>
-  <si>
-    <t>0-2-0</t>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
+  </si>
+  <si>
+    <t>1-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -128,28 +131,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
 </sst>
 </file>
@@ -606,22 +609,22 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -650,7 +653,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -662,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -671,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -688,16 +691,16 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -720,40 +723,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -761,37 +764,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -808,19 +811,19 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -843,28 +846,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -899,16 +902,16 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -917,7 +920,7 @@
         <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -937,13 +940,13 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -955,7 +958,7 @@
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
         <v>13</v>
@@ -972,19 +975,19 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -999,7 +1002,7 @@
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1013,31 +1016,31 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M13" t="s">
         <v>12</v>
@@ -1058,13 +1061,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1072,13 +1075,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1086,13 +1089,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1100,13 +1103,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>0.5833333333333334</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1114,10 +1117,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1131,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.9166666666666666</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1142,13 +1145,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1156,13 +1159,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>1.083333333333333</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1173,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>1.25</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1184,13 +1187,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>1.25</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1201,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1212,10 +1215,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>1.416666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1226,13 +1229,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1.416666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1250,16 +1253,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1270,10 +1273,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1284,16 +1287,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1.416666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D3">
-        <v>0.4166666666666667</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1301,16 +1304,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.25</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D4">
-        <v>-0.75</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1318,13 +1321,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1.25</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D5">
-        <v>-0.75</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1335,13 +1338,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>1.166666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D6">
-        <v>0.1666666666666667</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1352,16 +1355,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1372,13 +1375,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9166666666666666</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D8">
-        <v>-0.08333333333333337</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1386,16 +1389,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0.8333333333333334</v>
+        <v>1.25</v>
       </c>
       <c r="D9">
-        <v>-0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1403,13 +1406,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>0.75</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D10">
-        <v>0.75</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1420,16 +1423,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1437,13 +1440,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D12">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1457,13 +1460,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D13">
-        <v>-0.6666666666666667</v>
+        <v>-0.5833333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1481,46 +1484,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1569,7 +1572,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1613,7 +1616,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1657,7 +1660,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1745,7 +1748,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1789,7 +1792,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1833,7 +1836,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1951,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>100</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1995,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2009,7 +2012,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2066,16 +2069,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2086,13 +2089,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2100,7 +2103,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -2109,7 +2112,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2117,16 +2120,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2134,16 +2137,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2151,16 +2154,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2168,16 +2171,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2188,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2202,16 +2205,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2219,13 +2222,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>42</v>
@@ -2236,16 +2239,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2253,16 +2256,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2273,13 +2276,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -1484,7 +1484,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -1531,34 +1531,34 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>47.29</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>24.63</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>13.31</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8.110000000000001</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1567,95 +1567,95 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>99.96000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>17.18</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>19.43</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>17.81</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>16.16</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>12.43</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>13.84</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>17.21</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>18.4</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>17.49</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>13.66</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>9.67</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5.47</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>98.42999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1663,43 +1663,43 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>14.58</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>15.86</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>15.56</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>14.56</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.57</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5.09</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="N5">
-        <v>100</v>
+        <v>96.12</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1707,43 +1707,43 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>15.14</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>15.52</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>14.62</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>13.22</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>6.16</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>3.59</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>94.38</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1751,43 +1751,43 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>11.46</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>12.91</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>15.44</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>14.34</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.96</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.98</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="N7">
-        <v>100</v>
+        <v>88.19</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1795,43 +1795,43 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>8.68</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>11.86</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>15.72</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>17.64</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>16.57</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.26</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>4.99</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="N8">
-        <v>100</v>
+        <v>64.66</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1839,180 +1839,180 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>4.23</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>7.539999999999999</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>11.66</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>15.52</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <v>17.03</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>17.04</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.37</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.31</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="N9">
-        <v>100</v>
+        <v>59.97</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>15.79</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>19.22</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>18.11</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.69</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.24</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>3.03</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>57.93000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>5.06</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>14.55</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>19.93</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>14.7</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.290000000000001</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>33.88</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.43</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>15.77</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>29.44</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>41.73</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2024,34 +2024,34 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>5.31</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.48</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>35.82</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>42.87</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2.52</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -1484,7 +1484,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -1531,43 +1531,43 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>47.29</v>
+        <v>46.8</v>
       </c>
       <c r="C2">
-        <v>24.63</v>
+        <v>24.71</v>
       </c>
       <c r="D2">
-        <v>13.31</v>
+        <v>13.92</v>
       </c>
       <c r="E2">
-        <v>8.110000000000001</v>
+        <v>7.68</v>
       </c>
       <c r="F2">
-        <v>3.9</v>
+        <v>4.27</v>
       </c>
       <c r="G2">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="H2">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="I2">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="J2">
         <v>0.02</v>
       </c>
       <c r="K2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.96000000000001</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1575,43 +1575,43 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>17.18</v>
+        <v>17.13</v>
       </c>
       <c r="C3">
-        <v>19.43</v>
+        <v>19.01</v>
       </c>
       <c r="D3">
-        <v>17.81</v>
+        <v>18.52</v>
       </c>
       <c r="E3">
-        <v>16.16</v>
+        <v>15.18</v>
       </c>
       <c r="F3">
-        <v>12.43</v>
+        <v>12.22</v>
       </c>
       <c r="G3">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="H3">
-        <v>4.850000000000001</v>
+        <v>5.08</v>
       </c>
       <c r="I3">
-        <v>2.24</v>
+        <v>2.45</v>
       </c>
       <c r="J3">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="K3">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="L3">
-        <v>0.05</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="M3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N3">
-        <v>98.5</v>
+        <v>98.59</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1619,43 +1619,43 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>13.84</v>
+        <v>14.25</v>
       </c>
       <c r="C4">
-        <v>17.21</v>
+        <v>16.86</v>
       </c>
       <c r="D4">
-        <v>18.4</v>
+        <v>18.12</v>
       </c>
       <c r="E4">
-        <v>17.49</v>
+        <v>16.71</v>
       </c>
       <c r="F4">
-        <v>13.66</v>
+        <v>14.8</v>
       </c>
       <c r="G4">
-        <v>9.67</v>
+        <v>9.66</v>
       </c>
       <c r="H4">
-        <v>5.47</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="I4">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="J4">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="K4">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="L4">
-        <v>0.06999999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="M4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>98.42999999999999</v>
+        <v>98.43000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1663,43 +1663,43 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>9.4</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="C5">
-        <v>14.58</v>
+        <v>14.04</v>
       </c>
       <c r="D5">
-        <v>15.86</v>
+        <v>15.59</v>
       </c>
       <c r="E5">
-        <v>15.56</v>
+        <v>16.27</v>
       </c>
       <c r="F5">
-        <v>14.56</v>
+        <v>14.22</v>
       </c>
       <c r="G5">
-        <v>12.5</v>
+        <v>11.79</v>
       </c>
       <c r="H5">
-        <v>8.57</v>
+        <v>8.58</v>
       </c>
       <c r="I5">
-        <v>5.09</v>
+        <v>5.48</v>
       </c>
       <c r="J5">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="K5">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="L5">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="M5">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="N5">
-        <v>96.12</v>
+        <v>95.93000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1707,43 +1707,43 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>7.7</v>
+        <v>7.61</v>
       </c>
       <c r="C6">
-        <v>12.8</v>
+        <v>13.71</v>
       </c>
       <c r="D6">
-        <v>15.14</v>
+        <v>14.96</v>
       </c>
       <c r="E6">
-        <v>15.52</v>
+        <v>15.16</v>
       </c>
       <c r="F6">
-        <v>14.62</v>
+        <v>14.32</v>
       </c>
       <c r="G6">
-        <v>13.22</v>
+        <v>13.02</v>
       </c>
       <c r="H6">
-        <v>9.220000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="I6">
-        <v>6.16</v>
+        <v>6.23</v>
       </c>
       <c r="J6">
-        <v>3.59</v>
+        <v>3.51</v>
       </c>
       <c r="K6">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="L6">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="M6">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N6">
-        <v>94.38</v>
+        <v>94.42000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1751,43 +1751,43 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3.48</v>
+        <v>3.36</v>
       </c>
       <c r="C7">
-        <v>7.6</v>
+        <v>7.48</v>
       </c>
       <c r="D7">
-        <v>11.46</v>
+        <v>10.77</v>
       </c>
       <c r="E7">
-        <v>12.91</v>
+        <v>13.11</v>
       </c>
       <c r="F7">
-        <v>15.44</v>
+        <v>14.8</v>
       </c>
       <c r="G7">
-        <v>14.34</v>
+        <v>14.74</v>
       </c>
       <c r="H7">
-        <v>12.96</v>
+        <v>13.47</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>10.13</v>
       </c>
       <c r="J7">
-        <v>6.98</v>
+        <v>7.39</v>
       </c>
       <c r="K7">
-        <v>3.81</v>
+        <v>3.57</v>
       </c>
       <c r="L7">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
       <c r="M7">
         <v>0.16</v>
       </c>
       <c r="N7">
-        <v>88.19</v>
+        <v>87.86</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1795,43 +1795,43 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="C8">
-        <v>1.77</v>
+        <v>1.97</v>
       </c>
       <c r="D8">
-        <v>3.16</v>
+        <v>3.22</v>
       </c>
       <c r="E8">
-        <v>5.2</v>
+        <v>6.27</v>
       </c>
       <c r="F8">
-        <v>8.68</v>
+        <v>8.74</v>
       </c>
       <c r="G8">
-        <v>11.86</v>
+        <v>11.77</v>
       </c>
       <c r="H8">
-        <v>15.72</v>
+        <v>14.58</v>
       </c>
       <c r="I8">
-        <v>17.64</v>
+        <v>17.62</v>
       </c>
       <c r="J8">
-        <v>16.57</v>
+        <v>16.03</v>
       </c>
       <c r="K8">
-        <v>12.26</v>
+        <v>12.77</v>
       </c>
       <c r="L8">
-        <v>4.99</v>
+        <v>4.94</v>
       </c>
       <c r="M8">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="N8">
-        <v>64.66</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1839,43 +1839,43 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="D9">
-        <v>2.59</v>
+        <v>2.27</v>
       </c>
       <c r="E9">
-        <v>4.23</v>
+        <v>4.72</v>
       </c>
       <c r="F9">
-        <v>7.539999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="G9">
-        <v>11.66</v>
+        <v>11.78</v>
       </c>
       <c r="H9">
-        <v>15.52</v>
+        <v>15.36</v>
       </c>
       <c r="I9">
-        <v>17.03</v>
+        <v>16.73</v>
       </c>
       <c r="J9">
-        <v>17.04</v>
+        <v>17.3</v>
       </c>
       <c r="K9">
-        <v>14.37</v>
+        <v>13.85</v>
       </c>
       <c r="L9">
-        <v>6.31</v>
+        <v>6.43</v>
       </c>
       <c r="M9">
-        <v>2.31</v>
+        <v>2.43</v>
       </c>
       <c r="N9">
-        <v>59.97</v>
+        <v>59.99000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1883,43 +1883,43 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="C10">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="D10">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="E10">
-        <v>3.57</v>
+        <v>3.46</v>
       </c>
       <c r="F10">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="G10">
-        <v>10.6</v>
+        <v>10.34</v>
       </c>
       <c r="H10">
-        <v>15.79</v>
+        <v>15.63</v>
       </c>
       <c r="I10">
-        <v>19.22</v>
+        <v>19.29</v>
       </c>
       <c r="J10">
-        <v>18.11</v>
+        <v>18.33</v>
       </c>
       <c r="K10">
-        <v>13.69</v>
+        <v>13.36</v>
       </c>
       <c r="L10">
-        <v>7.24</v>
+        <v>7.12</v>
       </c>
       <c r="M10">
-        <v>3.03</v>
+        <v>3.55</v>
       </c>
       <c r="N10">
-        <v>57.93000000000001</v>
+        <v>57.64</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1927,43 +1927,43 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C11">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="D11">
-        <v>0.61</v>
+        <v>0.76</v>
       </c>
       <c r="E11">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="F11">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="G11">
-        <v>5.06</v>
+        <v>5.67</v>
       </c>
       <c r="H11">
-        <v>9.529999999999999</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="I11">
-        <v>14.55</v>
+        <v>14.07</v>
       </c>
       <c r="J11">
-        <v>19.93</v>
+        <v>20.05</v>
       </c>
       <c r="K11">
-        <v>23.2</v>
+        <v>22.61</v>
       </c>
       <c r="L11">
-        <v>14.7</v>
+        <v>14.63</v>
       </c>
       <c r="M11">
-        <v>8.290000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="N11">
-        <v>33.88</v>
+        <v>34.61</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1974,40 +1974,40 @@
         <v>0</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0.01</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
       </c>
       <c r="E12">
         <v>0.03</v>
       </c>
       <c r="F12">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G12">
-        <v>0.53</v>
+        <v>0.3</v>
       </c>
       <c r="H12">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="I12">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="J12">
-        <v>7.6</v>
+        <v>7.57</v>
       </c>
       <c r="K12">
-        <v>15.77</v>
+        <v>16.36</v>
       </c>
       <c r="L12">
-        <v>29.44</v>
+        <v>29.76</v>
       </c>
       <c r="M12">
-        <v>41.73</v>
+        <v>41.02</v>
       </c>
       <c r="N12">
-        <v>5.46</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2024,34 +2024,34 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F13">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G13">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="H13">
-        <v>0.5700000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="I13">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="J13">
-        <v>5.31</v>
+        <v>4.95</v>
       </c>
       <c r="K13">
-        <v>13.48</v>
+        <v>14.07</v>
       </c>
       <c r="L13">
-        <v>35.82</v>
+        <v>35.32</v>
       </c>
       <c r="M13">
-        <v>42.87</v>
+        <v>43.09</v>
       </c>
       <c r="N13">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
+    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="53">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -56,16 +57,19 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>3-0-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
-  </si>
-  <si>
-    <t>1-2-0</t>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -131,28 +135,49 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑6</t>
+    <t>↓6</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑2</t>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
 </sst>
 </file>
@@ -568,31 +593,31 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -609,10 +634,10 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -624,13 +649,13 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
         <v>12</v>
@@ -641,40 +666,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -682,40 +707,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -723,40 +748,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -764,40 +789,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -811,31 +836,31 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" t="s">
-        <v>14</v>
       </c>
       <c r="M8" t="s">
         <v>12</v>
@@ -852,34 +877,34 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
         <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -899,28 +924,28 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -928,40 +953,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -975,34 +1000,34 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1016,34 +1041,34 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1061,13 +1086,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1078,10 +1103,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.8333333333333334</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1089,13 +1114,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.8333333333333334</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1103,13 +1128,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1117,13 +1142,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>1.25</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1131,13 +1156,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>1.333333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1145,13 +1170,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1.416666666666667</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1159,13 +1184,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1.583333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1173,13 +1198,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.666666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1190,10 +1215,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>1.666666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1201,13 +1226,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1215,10 +1240,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>2.083333333333333</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1229,13 +1254,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>2.333333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1253,16 +1278,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1273,13 +1298,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D2">
         <v>-0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1290,13 +1315,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2.166666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.8333333333333335</v>
+        <v>-0.9166666666666665</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1307,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.166666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D4">
-        <v>0.1666666666666665</v>
+        <v>0.8333333333333335</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1321,13 +1346,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>1.916666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D5">
-        <v>-1.083333333333333</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1338,16 +1363,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1.833333333333333</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>-0.1666666666666667</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1355,16 +1380,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1372,16 +1397,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>1.416666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D8">
-        <v>0.4166666666666667</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1389,16 +1414,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>1.25</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D9">
-        <v>0.25</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1406,16 +1431,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>1.083333333333333</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D10">
-        <v>1.083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1423,16 +1448,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1443,13 +1468,13 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0.75</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D12">
-        <v>0.75</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1460,13 +1485,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>-0.5833333333333333</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1484,46 +1509,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1531,43 +1556,43 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>46.8</v>
+        <v>51.06</v>
       </c>
       <c r="C2">
-        <v>24.71</v>
+        <v>27.13</v>
       </c>
       <c r="D2">
-        <v>13.92</v>
+        <v>13.65</v>
       </c>
       <c r="E2">
-        <v>7.68</v>
+        <v>6.3</v>
       </c>
       <c r="F2">
-        <v>4.27</v>
+        <v>1.39</v>
       </c>
       <c r="G2">
-        <v>1.77</v>
+        <v>0.35</v>
       </c>
       <c r="H2">
-        <v>0.65</v>
+        <v>0.09</v>
       </c>
       <c r="I2">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="J2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1575,395 +1600,395 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>17.13</v>
+        <v>22.71</v>
       </c>
       <c r="C3">
-        <v>19.01</v>
+        <v>29.47</v>
       </c>
       <c r="D3">
-        <v>18.52</v>
+        <v>21.55</v>
       </c>
       <c r="E3">
-        <v>15.18</v>
+        <v>13.64</v>
       </c>
       <c r="F3">
-        <v>12.22</v>
+        <v>6.61</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>3.45</v>
       </c>
       <c r="H3">
-        <v>5.08</v>
+        <v>1.67</v>
       </c>
       <c r="I3">
-        <v>2.45</v>
+        <v>0.53</v>
       </c>
       <c r="J3">
-        <v>0.97</v>
+        <v>0.22</v>
       </c>
       <c r="K3">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
-        <v>0.06999999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="M3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>98.59</v>
+        <v>99.63000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>14.25</v>
+        <v>15.49</v>
       </c>
       <c r="C4">
-        <v>16.86</v>
+        <v>22.12</v>
       </c>
       <c r="D4">
-        <v>18.12</v>
+        <v>27.1</v>
       </c>
       <c r="E4">
-        <v>16.71</v>
+        <v>18.62</v>
       </c>
       <c r="F4">
-        <v>14.8</v>
+        <v>8.450000000000001</v>
       </c>
       <c r="G4">
-        <v>9.66</v>
+        <v>4.43</v>
       </c>
       <c r="H4">
-        <v>5.390000000000001</v>
+        <v>2.36</v>
       </c>
       <c r="I4">
-        <v>2.64</v>
+        <v>0.77</v>
       </c>
       <c r="J4">
-        <v>1.13</v>
+        <v>0.42</v>
       </c>
       <c r="K4">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="L4">
-        <v>0.09</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>98.43000000000001</v>
+        <v>99.34</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>9.959999999999999</v>
+        <v>9.34</v>
       </c>
       <c r="C5">
-        <v>14.04</v>
+        <v>15.37</v>
       </c>
       <c r="D5">
-        <v>15.59</v>
+        <v>21.57</v>
       </c>
       <c r="E5">
-        <v>16.27</v>
+        <v>26.73</v>
       </c>
       <c r="F5">
-        <v>14.22</v>
+        <v>13.83</v>
       </c>
       <c r="G5">
-        <v>11.79</v>
+        <v>6.9</v>
       </c>
       <c r="H5">
-        <v>8.58</v>
+        <v>3.14</v>
       </c>
       <c r="I5">
-        <v>5.48</v>
+        <v>1.79</v>
       </c>
       <c r="J5">
-        <v>2.75</v>
+        <v>0.72</v>
       </c>
       <c r="K5">
-        <v>1.07</v>
+        <v>0.41</v>
       </c>
       <c r="L5">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="M5">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="N5">
-        <v>95.93000000000001</v>
+        <v>98.66999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>7.61</v>
+        <v>0.73</v>
       </c>
       <c r="C6">
-        <v>13.71</v>
+        <v>2.47</v>
       </c>
       <c r="D6">
-        <v>14.96</v>
+        <v>5.52</v>
       </c>
       <c r="E6">
-        <v>15.16</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F6">
-        <v>14.32</v>
+        <v>15.49</v>
       </c>
       <c r="G6">
-        <v>13.02</v>
+        <v>15.42</v>
       </c>
       <c r="H6">
-        <v>9.41</v>
+        <v>14.39</v>
       </c>
       <c r="I6">
-        <v>6.23</v>
+        <v>11.94</v>
       </c>
       <c r="J6">
-        <v>3.51</v>
+        <v>9.610000000000001</v>
       </c>
       <c r="K6">
-        <v>1.64</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="L6">
-        <v>0.37</v>
+        <v>4.64</v>
       </c>
       <c r="M6">
-        <v>0.06</v>
+        <v>2.95</v>
       </c>
       <c r="N6">
-        <v>94.42000000000002</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>3.36</v>
+        <v>0.41</v>
       </c>
       <c r="C7">
-        <v>7.48</v>
+        <v>1.35</v>
       </c>
       <c r="D7">
-        <v>10.77</v>
+        <v>3.87</v>
       </c>
       <c r="E7">
-        <v>13.11</v>
+        <v>7.829999999999999</v>
       </c>
       <c r="F7">
-        <v>14.8</v>
+        <v>13.16</v>
       </c>
       <c r="G7">
-        <v>14.74</v>
+        <v>15.28</v>
       </c>
       <c r="H7">
-        <v>13.47</v>
+        <v>14.53</v>
       </c>
       <c r="I7">
-        <v>10.13</v>
+        <v>13.19</v>
       </c>
       <c r="J7">
-        <v>7.39</v>
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>3.57</v>
+        <v>8.9</v>
       </c>
       <c r="L7">
-        <v>1.02</v>
+        <v>6.419999999999999</v>
       </c>
       <c r="M7">
-        <v>0.16</v>
+        <v>4.06</v>
       </c>
       <c r="N7">
-        <v>87.86</v>
+        <v>69.61999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>0.53</v>
+        <v>0.13</v>
       </c>
       <c r="C8">
-        <v>1.97</v>
+        <v>1.07</v>
       </c>
       <c r="D8">
-        <v>3.22</v>
+        <v>2.9</v>
       </c>
       <c r="E8">
-        <v>6.27</v>
+        <v>6.38</v>
       </c>
       <c r="F8">
-        <v>8.74</v>
+        <v>12.86</v>
       </c>
       <c r="G8">
-        <v>11.77</v>
+        <v>13.46</v>
       </c>
       <c r="H8">
-        <v>14.58</v>
+        <v>14.41</v>
       </c>
       <c r="I8">
-        <v>17.62</v>
+        <v>12.79</v>
       </c>
       <c r="J8">
-        <v>16.03</v>
+        <v>11.66</v>
       </c>
       <c r="K8">
-        <v>12.77</v>
+        <v>10.4</v>
       </c>
       <c r="L8">
-        <v>4.94</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="M8">
-        <v>1.56</v>
+        <v>5.82</v>
       </c>
       <c r="N8">
-        <v>64.7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="C9">
-        <v>1.23</v>
+        <v>0.26</v>
       </c>
       <c r="D9">
-        <v>2.27</v>
+        <v>1.21</v>
       </c>
       <c r="E9">
-        <v>4.72</v>
+        <v>3.18</v>
       </c>
       <c r="F9">
-        <v>7.7</v>
+        <v>8.83</v>
       </c>
       <c r="G9">
-        <v>11.78</v>
+        <v>11.63</v>
       </c>
       <c r="H9">
-        <v>15.36</v>
+        <v>12.26</v>
       </c>
       <c r="I9">
-        <v>16.73</v>
+        <v>13.19</v>
       </c>
       <c r="J9">
-        <v>17.3</v>
+        <v>13.55</v>
       </c>
       <c r="K9">
-        <v>13.85</v>
+        <v>12.86</v>
       </c>
       <c r="L9">
-        <v>6.43</v>
+        <v>12.2</v>
       </c>
       <c r="M9">
-        <v>2.43</v>
+        <v>10.77</v>
       </c>
       <c r="N9">
-        <v>59.99000000000001</v>
+        <v>50.62</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="C10">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
       <c r="D10">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="E10">
-        <v>3.46</v>
+        <v>4.98</v>
       </c>
       <c r="F10">
-        <v>6.17</v>
+        <v>10.07</v>
       </c>
       <c r="G10">
-        <v>10.34</v>
+        <v>12.47</v>
       </c>
       <c r="H10">
-        <v>15.63</v>
+        <v>13.28</v>
       </c>
       <c r="I10">
-        <v>19.29</v>
+        <v>13.56</v>
       </c>
       <c r="J10">
-        <v>18.33</v>
+        <v>12.65</v>
       </c>
       <c r="K10">
-        <v>13.36</v>
+        <v>11.4</v>
       </c>
       <c r="L10">
-        <v>7.12</v>
+        <v>10.89</v>
       </c>
       <c r="M10">
-        <v>3.55</v>
+        <v>8.18</v>
       </c>
       <c r="N10">
-        <v>57.64</v>
+        <v>56.88</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="F11">
-        <v>2.6</v>
+        <v>4.42</v>
       </c>
       <c r="G11">
-        <v>5.67</v>
+        <v>7.720000000000001</v>
       </c>
       <c r="H11">
-        <v>9.859999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="I11">
-        <v>14.07</v>
+        <v>12.38</v>
       </c>
       <c r="J11">
-        <v>20.05</v>
+        <v>14.84</v>
       </c>
       <c r="K11">
-        <v>22.61</v>
+        <v>15.93</v>
       </c>
       <c r="L11">
-        <v>14.63</v>
+        <v>16.86</v>
       </c>
       <c r="M11">
-        <v>8.1</v>
+        <v>16.2</v>
       </c>
       <c r="N11">
-        <v>34.61</v>
+        <v>36.17</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1971,43 +1996,43 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D12">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="E12">
-        <v>0.03</v>
+        <v>0.95</v>
       </c>
       <c r="F12">
-        <v>0.14</v>
+        <v>3.28</v>
       </c>
       <c r="G12">
-        <v>0.3</v>
+        <v>5.42</v>
       </c>
       <c r="H12">
-        <v>1.37</v>
+        <v>8.02</v>
       </c>
       <c r="I12">
-        <v>3.44</v>
+        <v>10.42</v>
       </c>
       <c r="J12">
-        <v>7.57</v>
+        <v>12.6</v>
       </c>
       <c r="K12">
-        <v>16.36</v>
+        <v>15.81</v>
       </c>
       <c r="L12">
-        <v>29.76</v>
+        <v>18.83</v>
       </c>
       <c r="M12">
-        <v>41.02</v>
+        <v>24.44</v>
       </c>
       <c r="N12">
-        <v>5.29</v>
+        <v>28.32</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2018,40 +2043,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E13">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="F13">
-        <v>0.02</v>
+        <v>1.61</v>
       </c>
       <c r="G13">
-        <v>0.16</v>
+        <v>3.47</v>
       </c>
       <c r="H13">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="I13">
-        <v>1.75</v>
+        <v>9.41</v>
       </c>
       <c r="J13">
-        <v>4.95</v>
+        <v>12.73</v>
       </c>
       <c r="K13">
-        <v>14.07</v>
+        <v>16.82</v>
       </c>
       <c r="L13">
-        <v>35.32</v>
+        <v>21.76</v>
       </c>
       <c r="M13">
-        <v>43.09</v>
+        <v>27.54</v>
       </c>
       <c r="N13">
-        <v>2.57</v>
+        <v>21.15</v>
       </c>
     </row>
   </sheetData>
@@ -2069,16 +2094,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2086,16 +2111,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2103,16 +2128,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2120,13 +2145,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
@@ -2137,13 +2162,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
@@ -2154,13 +2179,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>41</v>
@@ -2171,16 +2196,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2188,16 +2213,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2205,16 +2230,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2231,7 +2256,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2239,16 +2264,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2256,16 +2281,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2276,13 +2301,283 @@
         <v>3</v>
       </c>
       <c r="C13">
+        <v>-11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>-7</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>-2</v>
+      </c>
+      <c r="D8">
+        <v>-7</v>
+      </c>
+      <c r="E8">
+        <v>-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>-4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>-5</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>-5</v>
+      </c>
+      <c r="E10">
+        <v>-5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>-5</v>
+      </c>
+      <c r="C11">
+        <v>-2</v>
+      </c>
+      <c r="D11">
+        <v>-8</v>
+      </c>
+      <c r="E11">
+        <v>-9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>-7</v>
+      </c>
+      <c r="C12">
+        <v>-6</v>
+      </c>
+      <c r="D12">
+        <v>-2</v>
+      </c>
+      <c r="E12">
+        <v>-11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-9</v>
+      </c>
+      <c r="D13">
         <v>-12</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
+      <c r="E13">
+        <v>-11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="69">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -57,19 +57,43 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>13-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -135,39 +159,33 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑8</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -178,6 +196,36 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
 </sst>
 </file>
@@ -587,37 +635,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -634,31 +682,31 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -669,37 +717,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -710,37 +758,37 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
         <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -751,7 +799,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -760,28 +808,28 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -789,40 +837,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -830,40 +878,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -871,40 +919,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -912,40 +960,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -953,40 +1001,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
         <v>12</v>
-      </c>
-      <c r="M11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -994,40 +1042,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1035,40 +1083,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1086,13 +1134,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1100,13 +1148,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>1.583333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1114,13 +1162,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>1.583333333333333</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1128,13 +1176,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>1.583333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1142,13 +1190,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1.666666666666667</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1156,13 +1204,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1.75</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1170,13 +1218,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>1.916666666666667</v>
+        <v>7.25</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1184,10 +1232,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.916666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1198,13 +1246,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>2.166666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1212,13 +1260,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>2.166666666666667</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1226,10 +1274,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>2.333333333333333</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1243,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>2.416666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1254,13 +1302,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>2.916666666666667</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1278,16 +1326,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1295,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>11.08333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-0.9166666666666661</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1312,16 +1360,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>3.083333333333333</v>
+        <v>9.25</v>
       </c>
       <c r="D3">
-        <v>-0.9166666666666665</v>
+        <v>-0.75</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1329,16 +1377,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.833333333333333</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D4">
-        <v>0.8333333333333335</v>
+        <v>-0.3333333333333339</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1346,13 +1394,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>2.666666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="D5">
-        <v>-0.3333333333333335</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1363,16 +1411,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1380,16 +1428,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1.666666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.3333333333333333</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1397,16 +1445,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1.666666666666667</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D8">
-        <v>0.6666666666666667</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1414,16 +1462,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>1.416666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="D9">
-        <v>0.4166666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1434,13 +1482,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>1.416666666666667</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>0.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1448,16 +1496,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>1.416666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D11">
-        <v>0.4166666666666667</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1465,16 +1513,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.333333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D12">
-        <v>1.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1485,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3.75</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1509,72 +1557,72 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>51.06</v>
+        <v>65.61</v>
       </c>
       <c r="C2">
-        <v>27.13</v>
+        <v>20.62</v>
       </c>
       <c r="D2">
-        <v>13.65</v>
+        <v>8.34</v>
       </c>
       <c r="E2">
-        <v>6.3</v>
+        <v>3.41</v>
       </c>
       <c r="F2">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="G2">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="H2">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="I2">
         <v>0.03</v>
@@ -1597,178 +1645,178 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>22.71</v>
+        <v>13.43</v>
       </c>
       <c r="C3">
-        <v>29.47</v>
+        <v>23.6</v>
       </c>
       <c r="D3">
-        <v>21.55</v>
+        <v>19.34</v>
       </c>
       <c r="E3">
-        <v>13.64</v>
+        <v>15.45</v>
       </c>
       <c r="F3">
-        <v>6.61</v>
+        <v>10.83</v>
       </c>
       <c r="G3">
-        <v>3.45</v>
+        <v>7.91</v>
       </c>
       <c r="H3">
-        <v>1.67</v>
+        <v>5.21</v>
       </c>
       <c r="I3">
-        <v>0.53</v>
+        <v>3.13</v>
       </c>
       <c r="J3">
-        <v>0.22</v>
+        <v>0.98</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="L3">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>99.63000000000001</v>
+        <v>98.89999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>15.49</v>
+        <v>10.1</v>
       </c>
       <c r="C4">
-        <v>22.12</v>
+        <v>19.21</v>
       </c>
       <c r="D4">
-        <v>27.1</v>
+        <v>19.88</v>
       </c>
       <c r="E4">
-        <v>18.62</v>
+        <v>16.94</v>
       </c>
       <c r="F4">
-        <v>8.450000000000001</v>
+        <v>12.87</v>
       </c>
       <c r="G4">
-        <v>4.43</v>
+        <v>9.68</v>
       </c>
       <c r="H4">
-        <v>2.36</v>
+        <v>6.529999999999999</v>
       </c>
       <c r="I4">
-        <v>0.77</v>
+        <v>3.43</v>
       </c>
       <c r="J4">
-        <v>0.42</v>
+        <v>1.2</v>
       </c>
       <c r="K4">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="L4">
-        <v>0.06999999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N4">
-        <v>99.34</v>
+        <v>98.63999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>9.34</v>
+        <v>2.92</v>
       </c>
       <c r="C5">
-        <v>15.37</v>
+        <v>8.27</v>
       </c>
       <c r="D5">
-        <v>21.57</v>
+        <v>11.49</v>
       </c>
       <c r="E5">
-        <v>26.73</v>
+        <v>13.23</v>
       </c>
       <c r="F5">
-        <v>13.83</v>
+        <v>14.87</v>
       </c>
       <c r="G5">
-        <v>6.9</v>
+        <v>14.15</v>
       </c>
       <c r="H5">
-        <v>3.14</v>
+        <v>14.96</v>
       </c>
       <c r="I5">
-        <v>1.79</v>
+        <v>12.43</v>
       </c>
       <c r="J5">
-        <v>0.72</v>
+        <v>5.779999999999999</v>
       </c>
       <c r="K5">
-        <v>0.41</v>
+        <v>1.53</v>
       </c>
       <c r="L5">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="M5">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N5">
-        <v>98.66999999999999</v>
+        <v>92.31999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.73</v>
+        <v>2.61</v>
       </c>
       <c r="C6">
-        <v>2.47</v>
+        <v>8.48</v>
       </c>
       <c r="D6">
-        <v>5.52</v>
+        <v>11.07</v>
       </c>
       <c r="E6">
-        <v>9.640000000000001</v>
+        <v>13.54</v>
       </c>
       <c r="F6">
-        <v>15.49</v>
+        <v>14.97</v>
       </c>
       <c r="G6">
-        <v>15.42</v>
+        <v>14.78</v>
       </c>
       <c r="H6">
-        <v>14.39</v>
+        <v>13.9</v>
       </c>
       <c r="I6">
-        <v>11.94</v>
+        <v>11.7</v>
       </c>
       <c r="J6">
-        <v>9.610000000000001</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="K6">
-        <v>7.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="L6">
-        <v>4.64</v>
+        <v>0.35</v>
       </c>
       <c r="M6">
-        <v>2.95</v>
+        <v>0.11</v>
       </c>
       <c r="N6">
-        <v>75.59999999999999</v>
+        <v>91.05000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1776,43 +1824,43 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0.41</v>
+        <v>2.56</v>
       </c>
       <c r="C7">
-        <v>1.35</v>
+        <v>8.08</v>
       </c>
       <c r="D7">
-        <v>3.87</v>
+        <v>11.13</v>
       </c>
       <c r="E7">
-        <v>7.829999999999999</v>
+        <v>13.06</v>
       </c>
       <c r="F7">
-        <v>13.16</v>
+        <v>13.72</v>
       </c>
       <c r="G7">
-        <v>15.28</v>
+        <v>15.68</v>
       </c>
       <c r="H7">
-        <v>14.53</v>
+        <v>15.05</v>
       </c>
       <c r="I7">
-        <v>13.19</v>
+        <v>12.52</v>
       </c>
       <c r="J7">
-        <v>11</v>
+        <v>6.11</v>
       </c>
       <c r="K7">
-        <v>8.9</v>
+        <v>1.66</v>
       </c>
       <c r="L7">
-        <v>6.419999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="M7">
-        <v>4.06</v>
+        <v>0.06</v>
       </c>
       <c r="N7">
-        <v>69.61999999999999</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1820,263 +1868,263 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0.13</v>
+        <v>1.86</v>
       </c>
       <c r="C8">
-        <v>1.07</v>
+        <v>6.77</v>
       </c>
       <c r="D8">
-        <v>2.9</v>
+        <v>10.18</v>
       </c>
       <c r="E8">
-        <v>6.38</v>
+        <v>12.37</v>
       </c>
       <c r="F8">
-        <v>12.86</v>
+        <v>13.83</v>
       </c>
       <c r="G8">
-        <v>13.46</v>
+        <v>15.51</v>
       </c>
       <c r="H8">
-        <v>14.41</v>
+        <v>14.94</v>
       </c>
       <c r="I8">
-        <v>12.79</v>
+        <v>13.24</v>
       </c>
       <c r="J8">
-        <v>11.66</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="K8">
-        <v>10.4</v>
+        <v>2.45</v>
       </c>
       <c r="L8">
-        <v>8.119999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="M8">
-        <v>5.82</v>
+        <v>0.11</v>
       </c>
       <c r="N8">
-        <v>64</v>
+        <v>88.69999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.06</v>
+        <v>0.86</v>
       </c>
       <c r="C9">
-        <v>0.26</v>
+        <v>4.49</v>
       </c>
       <c r="D9">
-        <v>1.21</v>
+        <v>7.649999999999999</v>
       </c>
       <c r="E9">
-        <v>3.18</v>
+        <v>9.92</v>
       </c>
       <c r="F9">
-        <v>8.83</v>
+        <v>13.75</v>
       </c>
       <c r="G9">
-        <v>11.63</v>
+        <v>14.74</v>
       </c>
       <c r="H9">
-        <v>12.26</v>
+        <v>16</v>
       </c>
       <c r="I9">
-        <v>13.19</v>
+        <v>16.45</v>
       </c>
       <c r="J9">
-        <v>13.55</v>
+        <v>10.77</v>
       </c>
       <c r="K9">
-        <v>12.86</v>
+        <v>3.94</v>
       </c>
       <c r="L9">
-        <v>12.2</v>
+        <v>1.14</v>
       </c>
       <c r="M9">
-        <v>10.77</v>
+        <v>0.29</v>
       </c>
       <c r="N9">
-        <v>50.62</v>
+        <v>83.86000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="C10">
-        <v>0.62</v>
+        <v>0.47</v>
       </c>
       <c r="D10">
-        <v>1.85</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="E10">
-        <v>4.98</v>
+        <v>1.91</v>
       </c>
       <c r="F10">
-        <v>10.07</v>
+        <v>3.42</v>
       </c>
       <c r="G10">
-        <v>12.47</v>
+        <v>6.15</v>
       </c>
       <c r="H10">
-        <v>13.28</v>
+        <v>10.32</v>
       </c>
       <c r="I10">
-        <v>13.56</v>
+        <v>18.09</v>
       </c>
       <c r="J10">
-        <v>12.65</v>
+        <v>28.46</v>
       </c>
       <c r="K10">
-        <v>11.4</v>
+        <v>17.75</v>
       </c>
       <c r="L10">
-        <v>10.89</v>
+        <v>8.649999999999999</v>
       </c>
       <c r="M10">
-        <v>8.18</v>
+        <v>3.87</v>
       </c>
       <c r="N10">
-        <v>56.88</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0.01</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.04</v>
       </c>
       <c r="E11">
-        <v>1.35</v>
+        <v>0.17</v>
       </c>
       <c r="F11">
-        <v>4.42</v>
+        <v>0.4</v>
       </c>
       <c r="G11">
-        <v>7.720000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="H11">
-        <v>9.69</v>
+        <v>1.83</v>
       </c>
       <c r="I11">
-        <v>12.38</v>
+        <v>5.56</v>
       </c>
       <c r="J11">
-        <v>14.84</v>
+        <v>16.23</v>
       </c>
       <c r="K11">
-        <v>15.93</v>
+        <v>27.48</v>
       </c>
       <c r="L11">
-        <v>16.86</v>
+        <v>25.34</v>
       </c>
       <c r="M11">
-        <v>16.2</v>
+        <v>22.19</v>
       </c>
       <c r="N11">
-        <v>36.17</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0.01</v>
       </c>
-      <c r="C12">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>0.02</v>
       </c>
-      <c r="D12">
-        <v>0.2</v>
-      </c>
-      <c r="E12">
-        <v>0.95</v>
-      </c>
-      <c r="F12">
-        <v>3.28</v>
-      </c>
       <c r="G12">
-        <v>5.42</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="H12">
-        <v>8.02</v>
+        <v>0.44</v>
       </c>
       <c r="I12">
-        <v>10.42</v>
+        <v>1.8</v>
       </c>
       <c r="J12">
-        <v>12.6</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="K12">
-        <v>15.81</v>
+        <v>18.91</v>
       </c>
       <c r="L12">
-        <v>18.83</v>
+        <v>29.49</v>
       </c>
       <c r="M12">
-        <v>24.44</v>
+        <v>42.37</v>
       </c>
       <c r="N12">
-        <v>28.32</v>
+        <v>2.339999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.61</v>
+        <v>0.06</v>
       </c>
       <c r="G13">
-        <v>3.47</v>
+        <v>0.12</v>
       </c>
       <c r="H13">
-        <v>6.16</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="I13">
-        <v>9.41</v>
+        <v>1.62</v>
       </c>
       <c r="J13">
-        <v>12.73</v>
+        <v>8.49</v>
       </c>
       <c r="K13">
-        <v>16.82</v>
+        <v>24.44</v>
       </c>
       <c r="L13">
-        <v>21.76</v>
+        <v>33.78</v>
       </c>
       <c r="M13">
-        <v>27.54</v>
+        <v>30.93</v>
       </c>
       <c r="N13">
-        <v>21.15</v>
+        <v>2.36</v>
       </c>
     </row>
   </sheetData>
@@ -2094,16 +2142,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2111,16 +2159,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2128,16 +2176,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2145,16 +2193,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2162,16 +2210,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2182,13 +2230,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2199,13 +2247,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2213,16 +2261,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2230,16 +2278,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2247,16 +2295,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2267,13 +2315,13 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>-9</v>
+        <v>-16</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2281,16 +2329,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>-11</v>
+        <v>-37</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2301,13 +2349,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>-11</v>
+        <v>-49</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2317,267 +2365,696 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>-2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="M2">
+        <v>37</v>
+      </c>
+      <c r="N2">
+        <v>39</v>
+      </c>
+      <c r="O2">
+        <v>41</v>
+      </c>
+      <c r="P2">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>27</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>31</v>
+      </c>
+      <c r="N3">
+        <v>31</v>
+      </c>
+      <c r="O3">
+        <v>36</v>
+      </c>
+      <c r="P3">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>-7</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4">
         <v>-2</v>
       </c>
       <c r="D4">
+        <v>-3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <v>35</v>
+      </c>
+      <c r="M4">
+        <v>35</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>34</v>
+      </c>
+      <c r="P4">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>-4</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>18</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6">
+        <v>-4</v>
+      </c>
+      <c r="F6">
+        <v>-5</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-3</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>-3</v>
+      </c>
+      <c r="I7">
+        <v>-11</v>
+      </c>
+      <c r="J7">
+        <v>-10</v>
+      </c>
+      <c r="K7">
+        <v>-17</v>
+      </c>
+      <c r="L7">
+        <v>-10</v>
+      </c>
+      <c r="M7">
+        <v>-7</v>
+      </c>
+      <c r="N7">
+        <v>-7</v>
+      </c>
+      <c r="O7">
+        <v>-2</v>
+      </c>
+      <c r="P7">
+        <v>-2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>15</v>
+      </c>
+      <c r="M8">
+        <v>9</v>
+      </c>
+      <c r="N8">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
+      <c r="O8">
+        <v>-7</v>
+      </c>
+      <c r="P8">
+        <v>-6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
         <v>-2</v>
       </c>
-      <c r="D8">
+      <c r="I9">
         <v>-7</v>
       </c>
-      <c r="E8">
+      <c r="J9">
         <v>-3</v>
       </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
+      <c r="K9">
+        <v>-8</v>
+      </c>
+      <c r="L9">
+        <v>-8</v>
+      </c>
+      <c r="M9">
+        <v>-4</v>
+      </c>
+      <c r="N9">
         <v>-2</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
+      <c r="O9">
+        <v>-9</v>
+      </c>
+      <c r="P9">
+        <v>-8</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>-4</v>
       </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>-5</v>
-      </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E10">
-        <v>-5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-13</v>
+      </c>
+      <c r="F10">
+        <v>-14</v>
+      </c>
+      <c r="G10">
+        <v>-17</v>
+      </c>
+      <c r="H10">
+        <v>-16</v>
+      </c>
+      <c r="I10">
+        <v>-7</v>
+      </c>
+      <c r="J10">
+        <v>-10</v>
+      </c>
+      <c r="K10">
+        <v>-12</v>
+      </c>
+      <c r="L10">
+        <v>-15</v>
+      </c>
+      <c r="M10">
+        <v>-14</v>
+      </c>
+      <c r="N10">
+        <v>-11</v>
+      </c>
+      <c r="O10">
+        <v>-4</v>
+      </c>
+      <c r="P10">
+        <v>-11</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-7</v>
+      </c>
+      <c r="I11">
+        <v>-13</v>
+      </c>
+      <c r="J11">
+        <v>-9</v>
+      </c>
+      <c r="K11">
+        <v>-9</v>
+      </c>
+      <c r="L11">
+        <v>-14</v>
+      </c>
+      <c r="M11">
+        <v>-22</v>
+      </c>
+      <c r="N11">
+        <v>-20</v>
+      </c>
+      <c r="O11">
+        <v>-17</v>
+      </c>
+      <c r="P11">
+        <v>-16</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
         <v>-5</v>
       </c>
-      <c r="C11">
-        <v>-2</v>
-      </c>
-      <c r="D11">
+      <c r="F12">
+        <v>-7</v>
+      </c>
+      <c r="G12">
         <v>-8</v>
       </c>
-      <c r="E11">
-        <v>-9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>-7</v>
-      </c>
-      <c r="C12">
-        <v>-6</v>
-      </c>
-      <c r="D12">
-        <v>-2</v>
-      </c>
-      <c r="E12">
-        <v>-11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="H12">
+        <v>-13</v>
+      </c>
+      <c r="I12">
+        <v>-15</v>
+      </c>
+      <c r="J12">
+        <v>-20</v>
+      </c>
+      <c r="K12">
+        <v>-27</v>
+      </c>
+      <c r="L12">
+        <v>-30</v>
+      </c>
+      <c r="M12">
+        <v>-32</v>
+      </c>
+      <c r="N12">
+        <v>-32</v>
+      </c>
+      <c r="O12">
+        <v>-32</v>
+      </c>
+      <c r="P12">
+        <v>-37</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
-        <v>-1</v>
+      <c r="B13" t="s">
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="D13">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="E13">
         <v>-11</v>
       </c>
-      <c r="F13" t="s">
-        <v>48</v>
+      <c r="F13">
+        <v>-16</v>
+      </c>
+      <c r="G13">
+        <v>-21</v>
+      </c>
+      <c r="H13">
+        <v>-24</v>
+      </c>
+      <c r="I13">
+        <v>-27</v>
+      </c>
+      <c r="J13">
+        <v>-34</v>
+      </c>
+      <c r="K13">
+        <v>-39</v>
+      </c>
+      <c r="L13">
+        <v>-43</v>
+      </c>
+      <c r="M13">
+        <v>-44</v>
+      </c>
+      <c r="N13">
+        <v>-46</v>
+      </c>
+      <c r="O13">
+        <v>-53</v>
+      </c>
+      <c r="P13">
+        <v>-49</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="53">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -57,43 +57,19 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>1-13-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>13-1-0</t>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -159,33 +135,39 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑3</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↓9</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -196,36 +178,6 @@
   </si>
   <si>
     <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
   </si>
 </sst>
 </file>
@@ -635,37 +587,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -682,31 +634,31 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -717,37 +669,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -758,37 +710,37 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
         <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -799,7 +751,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -808,28 +760,28 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -837,40 +789,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -878,40 +830,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" t="s">
-        <v>13</v>
-      </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -919,40 +871,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
         <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -960,40 +912,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1001,40 +953,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1042,40 +994,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
       <c r="K12" t="s">
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1083,40 +1035,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1134,13 +1086,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1148,13 +1100,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>4.833333333333333</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1162,13 +1114,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1176,13 +1128,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>6.583333333333333</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1190,13 +1142,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>6.916666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1204,13 +1156,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>7.166666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1218,13 +1170,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>7.25</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1232,10 +1184,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>7.333333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1246,13 +1198,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>7.333333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1260,13 +1212,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>7.416666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1274,10 +1226,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>7.583333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1291,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>7.75</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1302,13 +1254,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>7.833333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1326,16 +1278,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1343,16 +1295,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>11.08333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D2">
-        <v>-0.9166666666666661</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1360,16 +1312,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>9.25</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.75</v>
+        <v>-0.9166666666666665</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1377,16 +1329,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>8.666666666666666</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D4">
-        <v>-0.3333333333333339</v>
+        <v>0.8333333333333335</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1394,13 +1346,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>7.75</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D5">
-        <v>0.75</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1411,16 +1363,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>7.416666666666667</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>-0.583333333333333</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1428,16 +1380,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>7.083333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D7">
-        <v>0.08333333333333304</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1445,16 +1397,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>6.916666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D8">
-        <v>-0.08333333333333304</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1462,16 +1414,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>6.75</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D9">
-        <v>0.75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1482,13 +1434,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1496,16 +1448,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>5.083333333333333</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D11">
-        <v>1.083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1513,16 +1465,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>4.25</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1533,10 +1485,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>3.75</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1557,75 +1509,75 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>65.61</v>
+        <v>50.61</v>
       </c>
       <c r="C2">
-        <v>20.62</v>
+        <v>27.21</v>
       </c>
       <c r="D2">
-        <v>8.34</v>
+        <v>13.67</v>
       </c>
       <c r="E2">
-        <v>3.41</v>
+        <v>6.58</v>
       </c>
       <c r="F2">
-        <v>1.26</v>
+        <v>1.59</v>
       </c>
       <c r="G2">
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
       <c r="H2">
-        <v>0.26</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="I2">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1645,178 +1597,178 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>13.43</v>
+        <v>22.73</v>
       </c>
       <c r="C3">
-        <v>23.6</v>
+        <v>29.39</v>
       </c>
       <c r="D3">
-        <v>19.34</v>
+        <v>21.56</v>
       </c>
       <c r="E3">
-        <v>15.45</v>
+        <v>13.65</v>
       </c>
       <c r="F3">
-        <v>10.83</v>
+        <v>6.97</v>
       </c>
       <c r="G3">
-        <v>7.91</v>
+        <v>3.13</v>
       </c>
       <c r="H3">
-        <v>5.21</v>
+        <v>1.51</v>
       </c>
       <c r="I3">
-        <v>3.13</v>
+        <v>0.65</v>
       </c>
       <c r="J3">
-        <v>0.98</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="L3">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>98.89999999999999</v>
+        <v>99.59000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>10.1</v>
+        <v>15.65</v>
       </c>
       <c r="C4">
-        <v>19.21</v>
+        <v>22.44</v>
       </c>
       <c r="D4">
-        <v>19.88</v>
+        <v>26.85</v>
       </c>
       <c r="E4">
-        <v>16.94</v>
+        <v>18.02</v>
       </c>
       <c r="F4">
-        <v>12.87</v>
+        <v>9.26</v>
       </c>
       <c r="G4">
-        <v>9.68</v>
+        <v>4.36</v>
       </c>
       <c r="H4">
-        <v>6.529999999999999</v>
+        <v>2.08</v>
       </c>
       <c r="I4">
-        <v>3.43</v>
+        <v>0.76</v>
       </c>
       <c r="J4">
-        <v>1.2</v>
+        <v>0.34</v>
       </c>
       <c r="K4">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="L4">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="M4">
         <v>0.01</v>
       </c>
       <c r="N4">
-        <v>98.63999999999999</v>
+        <v>99.42000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>2.92</v>
+        <v>9.58</v>
       </c>
       <c r="C5">
-        <v>8.27</v>
+        <v>14.97</v>
       </c>
       <c r="D5">
-        <v>11.49</v>
+        <v>22.55</v>
       </c>
       <c r="E5">
-        <v>13.23</v>
+        <v>26.59</v>
       </c>
       <c r="F5">
-        <v>14.87</v>
+        <v>13.57</v>
       </c>
       <c r="G5">
-        <v>14.15</v>
+        <v>6.29</v>
       </c>
       <c r="H5">
-        <v>14.96</v>
+        <v>3.44</v>
       </c>
       <c r="I5">
-        <v>12.43</v>
+        <v>1.71</v>
       </c>
       <c r="J5">
-        <v>5.779999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="K5">
-        <v>1.53</v>
+        <v>0.32</v>
       </c>
       <c r="L5">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="M5">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="N5">
-        <v>92.31999999999999</v>
+        <v>98.69999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>2.61</v>
+        <v>0.65</v>
       </c>
       <c r="C6">
-        <v>8.48</v>
+        <v>2.26</v>
       </c>
       <c r="D6">
-        <v>11.07</v>
+        <v>5.54</v>
       </c>
       <c r="E6">
-        <v>13.54</v>
+        <v>10.28</v>
       </c>
       <c r="F6">
-        <v>14.97</v>
+        <v>14.59</v>
       </c>
       <c r="G6">
-        <v>14.78</v>
+        <v>16.3</v>
       </c>
       <c r="H6">
-        <v>13.9</v>
+        <v>14.32</v>
       </c>
       <c r="I6">
-        <v>11.7</v>
+        <v>11.96</v>
       </c>
       <c r="J6">
-        <v>6.890000000000001</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="K6">
-        <v>1.6</v>
+        <v>6.81</v>
       </c>
       <c r="L6">
-        <v>0.35</v>
+        <v>4.74</v>
       </c>
       <c r="M6">
-        <v>0.11</v>
+        <v>3.03</v>
       </c>
       <c r="N6">
-        <v>91.05000000000001</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1824,43 +1776,43 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2.56</v>
+        <v>0.38</v>
       </c>
       <c r="C7">
-        <v>8.08</v>
+        <v>1.6</v>
       </c>
       <c r="D7">
-        <v>11.13</v>
+        <v>3.51</v>
       </c>
       <c r="E7">
-        <v>13.06</v>
+        <v>7.969999999999999</v>
       </c>
       <c r="F7">
-        <v>13.72</v>
+        <v>13.81</v>
       </c>
       <c r="G7">
-        <v>15.68</v>
+        <v>14.92</v>
       </c>
       <c r="H7">
-        <v>15.05</v>
+        <v>14.98</v>
       </c>
       <c r="I7">
-        <v>12.52</v>
+        <v>12.83</v>
       </c>
       <c r="J7">
-        <v>6.11</v>
+        <v>10.74</v>
       </c>
       <c r="K7">
-        <v>1.66</v>
+        <v>8.75</v>
       </c>
       <c r="L7">
-        <v>0.37</v>
+        <v>6.45</v>
       </c>
       <c r="M7">
-        <v>0.06</v>
+        <v>4.06</v>
       </c>
       <c r="N7">
-        <v>91.8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1868,43 +1820,43 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1.86</v>
+        <v>0.25</v>
       </c>
       <c r="C8">
-        <v>6.77</v>
+        <v>1.16</v>
       </c>
       <c r="D8">
-        <v>10.18</v>
+        <v>2.85</v>
       </c>
       <c r="E8">
-        <v>12.37</v>
+        <v>6.35</v>
       </c>
       <c r="F8">
-        <v>13.83</v>
+        <v>12.11</v>
       </c>
       <c r="G8">
-        <v>15.51</v>
+        <v>14.49</v>
       </c>
       <c r="H8">
-        <v>14.94</v>
+        <v>13.66</v>
       </c>
       <c r="I8">
-        <v>13.24</v>
+        <v>13.48</v>
       </c>
       <c r="J8">
-        <v>8.200000000000001</v>
+        <v>11.47</v>
       </c>
       <c r="K8">
-        <v>2.45</v>
+        <v>10.41</v>
       </c>
       <c r="L8">
-        <v>0.54</v>
+        <v>8.129999999999999</v>
       </c>
       <c r="M8">
-        <v>0.11</v>
+        <v>5.64</v>
       </c>
       <c r="N8">
-        <v>88.69999999999999</v>
+        <v>64.34999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1912,43 +1864,43 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.86</v>
+        <v>0.08</v>
       </c>
       <c r="C9">
-        <v>4.49</v>
+        <v>0.47</v>
       </c>
       <c r="D9">
-        <v>7.649999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="E9">
-        <v>9.92</v>
+        <v>4.34</v>
       </c>
       <c r="F9">
-        <v>13.75</v>
+        <v>10.14</v>
       </c>
       <c r="G9">
-        <v>14.74</v>
+        <v>12.02</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>13.06</v>
       </c>
       <c r="I9">
-        <v>16.45</v>
+        <v>13.43</v>
       </c>
       <c r="J9">
-        <v>10.77</v>
+        <v>13.31</v>
       </c>
       <c r="K9">
-        <v>3.94</v>
+        <v>11.72</v>
       </c>
       <c r="L9">
-        <v>1.14</v>
+        <v>10.98</v>
       </c>
       <c r="M9">
-        <v>0.29</v>
+        <v>8.709999999999999</v>
       </c>
       <c r="N9">
-        <v>83.86000000000001</v>
+        <v>55.28</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1956,87 +1908,87 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0.04</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="C10">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="D10">
-        <v>0.8699999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="E10">
-        <v>1.91</v>
+        <v>3.64</v>
       </c>
       <c r="F10">
-        <v>3.42</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G10">
-        <v>6.15</v>
+        <v>11.62</v>
       </c>
       <c r="H10">
-        <v>10.32</v>
+        <v>12.53</v>
       </c>
       <c r="I10">
-        <v>18.09</v>
+        <v>13.28</v>
       </c>
       <c r="J10">
-        <v>28.46</v>
+        <v>13.19</v>
       </c>
       <c r="K10">
-        <v>17.75</v>
+        <v>12.78</v>
       </c>
       <c r="L10">
-        <v>8.649999999999999</v>
+        <v>11.74</v>
       </c>
       <c r="M10">
-        <v>3.87</v>
+        <v>11.05</v>
       </c>
       <c r="N10">
-        <v>41.27</v>
+        <v>51.24</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="B11">
-        <v>0.01</v>
-      </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="D11">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="E11">
-        <v>0.17</v>
+        <v>1.23</v>
       </c>
       <c r="F11">
-        <v>0.4</v>
+        <v>4.31</v>
       </c>
       <c r="G11">
-        <v>0.74</v>
+        <v>7.56</v>
       </c>
       <c r="H11">
-        <v>1.83</v>
+        <v>10.77</v>
       </c>
       <c r="I11">
-        <v>5.56</v>
+        <v>12.76</v>
       </c>
       <c r="J11">
-        <v>16.23</v>
+        <v>14.16</v>
       </c>
       <c r="K11">
-        <v>27.48</v>
+        <v>15.78</v>
       </c>
       <c r="L11">
-        <v>25.34</v>
+        <v>16.38</v>
       </c>
       <c r="M11">
-        <v>22.19</v>
+        <v>16.57</v>
       </c>
       <c r="N11">
-        <v>8.76</v>
+        <v>37.11000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2047,84 +1999,84 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D12">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="F12">
-        <v>0.02</v>
+        <v>1.66</v>
       </c>
       <c r="G12">
-        <v>0.06999999999999999</v>
+        <v>3.79</v>
       </c>
       <c r="H12">
-        <v>0.44</v>
+        <v>5.76</v>
       </c>
       <c r="I12">
-        <v>1.8</v>
+        <v>8.73</v>
       </c>
       <c r="J12">
-        <v>6.890000000000001</v>
+        <v>13.21</v>
       </c>
       <c r="K12">
-        <v>18.91</v>
+        <v>17.24</v>
       </c>
       <c r="L12">
-        <v>29.49</v>
+        <v>21.83</v>
       </c>
       <c r="M12">
-        <v>42.37</v>
+        <v>27.23</v>
       </c>
       <c r="N12">
-        <v>2.339999999999999</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F13">
-        <v>0.06</v>
+        <v>3.27</v>
       </c>
       <c r="G13">
-        <v>0.12</v>
+        <v>5.27</v>
       </c>
       <c r="H13">
-        <v>0.5599999999999999</v>
+        <v>7.82</v>
       </c>
       <c r="I13">
-        <v>1.62</v>
+        <v>10.39</v>
       </c>
       <c r="J13">
-        <v>8.49</v>
+        <v>12.92</v>
       </c>
       <c r="K13">
-        <v>24.44</v>
+        <v>15.93</v>
       </c>
       <c r="L13">
-        <v>33.78</v>
+        <v>19.55</v>
       </c>
       <c r="M13">
-        <v>30.93</v>
+        <v>23.68</v>
       </c>
       <c r="N13">
-        <v>2.36</v>
+        <v>27.92</v>
       </c>
     </row>
   </sheetData>
@@ -2142,16 +2094,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2159,16 +2111,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2176,16 +2128,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2193,16 +2145,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2210,16 +2162,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2230,13 +2182,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2247,13 +2199,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2261,16 +2213,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2278,16 +2230,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2295,16 +2247,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2315,13 +2267,13 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>-16</v>
+        <v>-9</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2329,16 +2281,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>-37</v>
+        <v>-11</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2349,13 +2301,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>-49</v>
+        <v>-11</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2365,275 +2317,125 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>21</v>
-      </c>
-      <c r="I2">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>24</v>
-      </c>
-      <c r="K2">
-        <v>28</v>
-      </c>
-      <c r="L2">
-        <v>37</v>
-      </c>
-      <c r="M2">
-        <v>37</v>
-      </c>
-      <c r="N2">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="O2">
-        <v>41</v>
-      </c>
-      <c r="P2">
-        <v>44</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>-1</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-7</v>
+      </c>
+      <c r="D4">
+        <v>-2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="I3">
-        <v>19</v>
-      </c>
-      <c r="J3">
-        <v>25</v>
-      </c>
-      <c r="K3">
-        <v>27</v>
-      </c>
-      <c r="L3">
-        <v>30</v>
-      </c>
-      <c r="M3">
-        <v>31</v>
-      </c>
-      <c r="N3">
-        <v>31</v>
-      </c>
-      <c r="O3">
-        <v>36</v>
-      </c>
-      <c r="P3">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>-2</v>
-      </c>
-      <c r="D4">
-        <v>-3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4">
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
-      <c r="I4">
-        <v>21</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>30</v>
-      </c>
-      <c r="L4">
-        <v>35</v>
-      </c>
-      <c r="M4">
-        <v>35</v>
-      </c>
-      <c r="N4">
-        <v>30</v>
-      </c>
-      <c r="O4">
-        <v>34</v>
-      </c>
-      <c r="P4">
-        <v>32</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>-1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>-4</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>6</v>
-      </c>
-      <c r="O5">
-        <v>12</v>
-      </c>
-      <c r="P5">
-        <v>18</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2641,52 +2443,22 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>-5</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>-1</v>
-      </c>
-      <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6">
-        <v>9</v>
-      </c>
-      <c r="L6">
-        <v>7</v>
-      </c>
-      <c r="M6">
-        <v>9</v>
-      </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2694,211 +2466,91 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8">
+        <v>-7</v>
+      </c>
+      <c r="F8">
+        <v>-3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>-3</v>
-      </c>
-      <c r="I7">
-        <v>-11</v>
-      </c>
-      <c r="J7">
-        <v>-10</v>
-      </c>
-      <c r="K7">
-        <v>-17</v>
-      </c>
-      <c r="L7">
-        <v>-10</v>
-      </c>
-      <c r="M7">
-        <v>-7</v>
-      </c>
-      <c r="N7">
-        <v>-7</v>
-      </c>
-      <c r="O7">
+      <c r="F9">
+        <v>-4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>-5</v>
+      </c>
+      <c r="D10">
         <v>-2</v>
       </c>
-      <c r="P7">
-        <v>-2</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>17</v>
-      </c>
-      <c r="I8">
-        <v>16</v>
-      </c>
-      <c r="J8">
-        <v>17</v>
-      </c>
-      <c r="K8">
-        <v>17</v>
-      </c>
-      <c r="L8">
-        <v>15</v>
-      </c>
-      <c r="M8">
-        <v>9</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>-7</v>
-      </c>
-      <c r="P8">
-        <v>-6</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>-2</v>
-      </c>
-      <c r="I9">
-        <v>-7</v>
-      </c>
-      <c r="J9">
-        <v>-3</v>
-      </c>
-      <c r="K9">
-        <v>-8</v>
-      </c>
-      <c r="L9">
-        <v>-8</v>
-      </c>
-      <c r="M9">
-        <v>-4</v>
-      </c>
-      <c r="N9">
-        <v>-2</v>
-      </c>
-      <c r="O9">
-        <v>-9</v>
-      </c>
-      <c r="P9">
-        <v>-8</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>-4</v>
-      </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
       <c r="E10">
-        <v>-13</v>
+        <v>-5</v>
       </c>
       <c r="F10">
-        <v>-14</v>
-      </c>
-      <c r="G10">
-        <v>-17</v>
-      </c>
-      <c r="H10">
-        <v>-16</v>
-      </c>
-      <c r="I10">
-        <v>-7</v>
-      </c>
-      <c r="J10">
-        <v>-10</v>
-      </c>
-      <c r="K10">
-        <v>-12</v>
-      </c>
-      <c r="L10">
-        <v>-15</v>
-      </c>
-      <c r="M10">
-        <v>-14</v>
-      </c>
-      <c r="N10">
-        <v>-11</v>
-      </c>
-      <c r="O10">
-        <v>-4</v>
-      </c>
-      <c r="P10">
-        <v>-11</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>-5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2906,105 +2558,45 @@
         <v>7</v>
       </c>
       <c r="C11">
+        <v>-5</v>
+      </c>
+      <c r="D11">
+        <v>-2</v>
+      </c>
+      <c r="E11">
+        <v>-8</v>
+      </c>
+      <c r="F11">
+        <v>-9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
         <v>-7</v>
       </c>
-      <c r="I11">
-        <v>-13</v>
-      </c>
-      <c r="J11">
-        <v>-9</v>
-      </c>
-      <c r="K11">
-        <v>-9</v>
-      </c>
-      <c r="L11">
-        <v>-14</v>
-      </c>
-      <c r="M11">
-        <v>-22</v>
-      </c>
-      <c r="N11">
-        <v>-20</v>
-      </c>
-      <c r="O11">
-        <v>-17</v>
-      </c>
-      <c r="P11">
-        <v>-16</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
       <c r="D12">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E12">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="F12">
-        <v>-7</v>
-      </c>
-      <c r="G12">
-        <v>-8</v>
-      </c>
-      <c r="H12">
-        <v>-13</v>
-      </c>
-      <c r="I12">
-        <v>-15</v>
-      </c>
-      <c r="J12">
-        <v>-20</v>
-      </c>
-      <c r="K12">
-        <v>-27</v>
-      </c>
-      <c r="L12">
-        <v>-30</v>
-      </c>
-      <c r="M12">
-        <v>-32</v>
-      </c>
-      <c r="N12">
-        <v>-32</v>
-      </c>
-      <c r="O12">
-        <v>-32</v>
-      </c>
-      <c r="P12">
-        <v>-37</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>-11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -3012,49 +2604,19 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D13">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="E13">
+        <v>-12</v>
+      </c>
+      <c r="F13">
         <v>-11</v>
       </c>
-      <c r="F13">
-        <v>-16</v>
-      </c>
-      <c r="G13">
-        <v>-21</v>
-      </c>
-      <c r="H13">
-        <v>-24</v>
-      </c>
-      <c r="I13">
-        <v>-27</v>
-      </c>
-      <c r="J13">
-        <v>-34</v>
-      </c>
-      <c r="K13">
-        <v>-39</v>
-      </c>
-      <c r="L13">
-        <v>-43</v>
-      </c>
-      <c r="M13">
-        <v>-44</v>
-      </c>
-      <c r="N13">
-        <v>-46</v>
-      </c>
-      <c r="O13">
-        <v>-53</v>
-      </c>
-      <c r="P13">
-        <v>-49</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>54</v>
+      <c r="G13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="48">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -57,19 +57,22 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -135,39 +138,18 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↑3</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↓9</t>
-  </si>
-  <si>
     <t>↑1</t>
   </si>
   <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -178,6 +160,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
 </sst>
 </file>
@@ -634,10 +619,10 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -649,13 +634,13 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
         <v>12</v>
@@ -672,10 +657,10 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -684,22 +669,22 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -710,34 +695,34 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
@@ -748,31 +733,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -781,7 +766,7 @@
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -789,22 +774,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -813,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
@@ -836,25 +821,25 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -863,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -877,31 +862,31 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
         <v>15</v>
@@ -912,40 +897,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -962,7 +947,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -977,7 +962,7 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -1000,16 +985,16 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -1024,10 +1009,10 @@
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1035,40 +1020,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1086,13 +1071,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1103,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1.583333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1117,10 +1102,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1.583333333333333</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1128,13 +1113,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>1.583333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1142,13 +1127,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>1.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1156,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.75</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1170,13 +1155,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1.916666666666667</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1184,13 +1169,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1.916666666666667</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1198,10 +1183,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>2.166666666666667</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1212,13 +1197,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2.166666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1226,13 +1211,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>2.333333333333333</v>
+        <v>2.75</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1240,13 +1225,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>2.416666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1257,7 +1242,7 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>2.916666666666667</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1278,16 +1263,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1295,16 +1280,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1312,13 +1297,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>3.083333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.9166666666666665</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1329,16 +1314,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>2.833333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D4">
-        <v>0.8333333333333335</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1346,16 +1331,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.666666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D5">
-        <v>-0.3333333333333335</v>
+        <v>0.8333333333333335</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1363,16 +1348,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1380,13 +1365,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1.666666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D7">
-        <v>-0.3333333333333333</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1397,16 +1382,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1.666666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D8">
-        <v>0.6666666666666667</v>
+        <v>-0.9166666666666665</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1414,16 +1399,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>1.416666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D9">
-        <v>0.4166666666666667</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1434,13 +1419,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>1.416666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D10">
-        <v>0.4166666666666667</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1448,16 +1433,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>1.416666666666667</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D11">
-        <v>0.4166666666666667</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1465,13 +1450,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>1.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D12">
-        <v>1.333333333333333</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1482,16 +1467,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1509,178 +1494,178 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>50.61</v>
+        <v>44.15</v>
       </c>
       <c r="C2">
-        <v>27.21</v>
+        <v>27.75</v>
       </c>
       <c r="D2">
-        <v>13.67</v>
+        <v>16.04</v>
       </c>
       <c r="E2">
-        <v>6.58</v>
+        <v>7.3</v>
       </c>
       <c r="F2">
-        <v>1.59</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0.25</v>
+        <v>1.04</v>
       </c>
       <c r="H2">
-        <v>0.06999999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="I2">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>99.89000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>22.73</v>
+        <v>22.59</v>
       </c>
       <c r="C3">
-        <v>29.39</v>
+        <v>22.85</v>
       </c>
       <c r="D3">
-        <v>21.56</v>
+        <v>19.46</v>
       </c>
       <c r="E3">
-        <v>13.65</v>
+        <v>14.53</v>
       </c>
       <c r="F3">
-        <v>6.97</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G3">
-        <v>3.13</v>
+        <v>5.06</v>
       </c>
       <c r="H3">
-        <v>1.51</v>
+        <v>2.89</v>
       </c>
       <c r="I3">
-        <v>0.65</v>
+        <v>1.59</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="K3">
-        <v>0.08</v>
+        <v>0.4</v>
       </c>
       <c r="L3">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N3">
-        <v>99.59000000000002</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>15.65</v>
+        <v>22.41</v>
       </c>
       <c r="C4">
-        <v>22.44</v>
+        <v>23.66</v>
       </c>
       <c r="D4">
-        <v>26.85</v>
+        <v>21.37</v>
       </c>
       <c r="E4">
-        <v>18.02</v>
+        <v>14.42</v>
       </c>
       <c r="F4">
-        <v>9.26</v>
+        <v>8.58</v>
       </c>
       <c r="G4">
-        <v>4.36</v>
+        <v>4.6</v>
       </c>
       <c r="H4">
-        <v>2.08</v>
+        <v>2.72</v>
       </c>
       <c r="I4">
-        <v>0.76</v>
+        <v>1.21</v>
       </c>
       <c r="J4">
-        <v>0.34</v>
+        <v>0.67</v>
       </c>
       <c r="K4">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="L4">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="M4">
         <v>0.01</v>
       </c>
       <c r="N4">
-        <v>99.42000000000002</v>
+        <v>98.97</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1688,43 +1673,43 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>9.58</v>
+        <v>5.23</v>
       </c>
       <c r="C5">
-        <v>14.97</v>
+        <v>9.83</v>
       </c>
       <c r="D5">
-        <v>22.55</v>
+        <v>13.54</v>
       </c>
       <c r="E5">
-        <v>26.59</v>
+        <v>14.69</v>
       </c>
       <c r="F5">
-        <v>13.57</v>
+        <v>15.05</v>
       </c>
       <c r="G5">
-        <v>6.29</v>
+        <v>12.69</v>
       </c>
       <c r="H5">
-        <v>3.44</v>
+        <v>9.44</v>
       </c>
       <c r="I5">
-        <v>1.71</v>
+        <v>7.6</v>
       </c>
       <c r="J5">
-        <v>0.84</v>
+        <v>4.96</v>
       </c>
       <c r="K5">
-        <v>0.32</v>
+        <v>3.84</v>
       </c>
       <c r="L5">
-        <v>0.12</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0.02</v>
+        <v>1.13</v>
       </c>
       <c r="N5">
-        <v>98.69999999999999</v>
+        <v>88.06999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1732,87 +1717,87 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.65</v>
+        <v>3.86</v>
       </c>
       <c r="C6">
-        <v>2.26</v>
+        <v>9.15</v>
       </c>
       <c r="D6">
-        <v>5.54</v>
+        <v>12.94</v>
       </c>
       <c r="E6">
-        <v>10.28</v>
+        <v>15.84</v>
       </c>
       <c r="F6">
-        <v>14.59</v>
+        <v>15.09</v>
       </c>
       <c r="G6">
-        <v>16.3</v>
+        <v>12.26</v>
       </c>
       <c r="H6">
-        <v>14.32</v>
+        <v>9.58</v>
       </c>
       <c r="I6">
-        <v>11.96</v>
+        <v>7.42</v>
       </c>
       <c r="J6">
-        <v>9.520000000000001</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="K6">
-        <v>6.81</v>
+        <v>3.98</v>
       </c>
       <c r="L6">
-        <v>4.74</v>
+        <v>2.7</v>
       </c>
       <c r="M6">
-        <v>3.03</v>
+        <v>1.38</v>
       </c>
       <c r="N6">
-        <v>75.90000000000001</v>
+        <v>86.14000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0.38</v>
+        <v>0.72</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>2.24</v>
       </c>
       <c r="D7">
-        <v>3.51</v>
+        <v>4.93</v>
       </c>
       <c r="E7">
-        <v>7.969999999999999</v>
+        <v>8.290000000000001</v>
       </c>
       <c r="F7">
-        <v>13.81</v>
+        <v>10.12</v>
       </c>
       <c r="G7">
-        <v>14.92</v>
+        <v>11.34</v>
       </c>
       <c r="H7">
-        <v>14.98</v>
+        <v>12.2</v>
       </c>
       <c r="I7">
-        <v>12.83</v>
+        <v>11.76</v>
       </c>
       <c r="J7">
-        <v>10.74</v>
+        <v>11.46</v>
       </c>
       <c r="K7">
-        <v>8.75</v>
+        <v>10.33</v>
       </c>
       <c r="L7">
-        <v>6.45</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="M7">
-        <v>4.06</v>
+        <v>7.720000000000001</v>
       </c>
       <c r="N7">
-        <v>70</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1820,131 +1805,131 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="C8">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="D8">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="E8">
         <v>6.35</v>
       </c>
       <c r="F8">
-        <v>12.11</v>
+        <v>8.260000000000002</v>
       </c>
       <c r="G8">
-        <v>14.49</v>
+        <v>11.15</v>
       </c>
       <c r="H8">
-        <v>13.66</v>
+        <v>11.73</v>
       </c>
       <c r="I8">
-        <v>13.48</v>
+        <v>12.05</v>
       </c>
       <c r="J8">
-        <v>11.47</v>
+        <v>12.06</v>
       </c>
       <c r="K8">
-        <v>10.41</v>
+        <v>11.15</v>
       </c>
       <c r="L8">
-        <v>8.129999999999999</v>
+        <v>11.35</v>
       </c>
       <c r="M8">
-        <v>5.64</v>
+        <v>10.86</v>
       </c>
       <c r="N8">
-        <v>64.34999999999999</v>
+        <v>54.58000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>0.08</v>
+        <v>0.26</v>
       </c>
       <c r="C9">
-        <v>0.47</v>
+        <v>0.97</v>
       </c>
       <c r="D9">
-        <v>1.74</v>
+        <v>2.22</v>
       </c>
       <c r="E9">
-        <v>4.34</v>
+        <v>4.79</v>
       </c>
       <c r="F9">
-        <v>10.14</v>
+        <v>7.24</v>
       </c>
       <c r="G9">
-        <v>12.02</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="H9">
-        <v>13.06</v>
+        <v>10.25</v>
       </c>
       <c r="I9">
-        <v>13.43</v>
+        <v>11.74</v>
       </c>
       <c r="J9">
-        <v>13.31</v>
+        <v>12.44</v>
       </c>
       <c r="K9">
-        <v>11.72</v>
+        <v>13.55</v>
       </c>
       <c r="L9">
-        <v>10.98</v>
+        <v>13.59</v>
       </c>
       <c r="M9">
-        <v>8.709999999999999</v>
+        <v>13.33</v>
       </c>
       <c r="N9">
-        <v>55.28</v>
+        <v>47.09</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>0.06999999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="C10">
-        <v>0.33</v>
+        <v>0.91</v>
       </c>
       <c r="D10">
-        <v>1.05</v>
+        <v>2.31</v>
       </c>
       <c r="E10">
-        <v>3.64</v>
+        <v>5.24</v>
       </c>
       <c r="F10">
-        <v>8.720000000000001</v>
+        <v>7.68</v>
       </c>
       <c r="G10">
-        <v>11.62</v>
+        <v>10.7</v>
       </c>
       <c r="H10">
-        <v>12.53</v>
+        <v>12.36</v>
       </c>
       <c r="I10">
-        <v>13.28</v>
+        <v>12.43</v>
       </c>
       <c r="J10">
-        <v>13.19</v>
+        <v>13.13</v>
       </c>
       <c r="K10">
-        <v>12.78</v>
+        <v>12.85</v>
       </c>
       <c r="L10">
-        <v>11.74</v>
+        <v>12.21</v>
       </c>
       <c r="M10">
-        <v>11.05</v>
+        <v>10.01</v>
       </c>
       <c r="N10">
-        <v>51.24</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1952,87 +1937,87 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="C11">
-        <v>0.12</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="D11">
-        <v>0.36</v>
+        <v>1.87</v>
       </c>
       <c r="E11">
-        <v>1.23</v>
+        <v>4.17</v>
       </c>
       <c r="F11">
-        <v>4.31</v>
+        <v>7.56</v>
       </c>
       <c r="G11">
-        <v>7.56</v>
+        <v>9.4</v>
       </c>
       <c r="H11">
-        <v>10.77</v>
+        <v>12.14</v>
       </c>
       <c r="I11">
-        <v>12.76</v>
+        <v>13.1</v>
       </c>
       <c r="J11">
-        <v>14.16</v>
+        <v>13.38</v>
       </c>
       <c r="K11">
-        <v>15.78</v>
+        <v>13.21</v>
       </c>
       <c r="L11">
-        <v>16.38</v>
+        <v>12.69</v>
       </c>
       <c r="M11">
-        <v>16.57</v>
+        <v>11.51</v>
       </c>
       <c r="N11">
-        <v>37.11000000000001</v>
+        <v>49.21</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C12">
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
       <c r="D12">
-        <v>0.08</v>
+        <v>1.27</v>
       </c>
       <c r="E12">
-        <v>0.44</v>
+        <v>2.91</v>
       </c>
       <c r="F12">
-        <v>1.66</v>
+        <v>4.95</v>
       </c>
       <c r="G12">
-        <v>3.79</v>
+        <v>6.79</v>
       </c>
       <c r="H12">
-        <v>5.76</v>
+        <v>8.84</v>
       </c>
       <c r="I12">
-        <v>8.73</v>
+        <v>10.97</v>
       </c>
       <c r="J12">
-        <v>13.21</v>
+        <v>12.42</v>
       </c>
       <c r="K12">
-        <v>17.24</v>
+        <v>14.54</v>
       </c>
       <c r="L12">
-        <v>21.83</v>
+        <v>16.73</v>
       </c>
       <c r="M12">
-        <v>27.23</v>
+        <v>20.1</v>
       </c>
       <c r="N12">
-        <v>20.49</v>
+        <v>36.21000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2043,40 +2028,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="D13">
-        <v>0.24</v>
+        <v>0.65</v>
       </c>
       <c r="E13">
-        <v>0.91</v>
+        <v>1.47</v>
       </c>
       <c r="F13">
-        <v>3.27</v>
+        <v>2.94</v>
       </c>
       <c r="G13">
-        <v>5.27</v>
+        <v>5.35</v>
       </c>
       <c r="H13">
-        <v>7.82</v>
+        <v>7.44</v>
       </c>
       <c r="I13">
-        <v>10.39</v>
+        <v>9.93</v>
       </c>
       <c r="J13">
-        <v>12.92</v>
+        <v>12.74</v>
       </c>
       <c r="K13">
-        <v>15.93</v>
+        <v>15.83</v>
       </c>
       <c r="L13">
-        <v>19.55</v>
+        <v>19.58</v>
       </c>
       <c r="M13">
-        <v>23.68</v>
+        <v>23.91</v>
       </c>
       <c r="N13">
-        <v>27.92</v>
+        <v>27.94</v>
       </c>
     </row>
   </sheetData>
@@ -2094,16 +2079,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2111,16 +2096,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2128,16 +2113,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2145,16 +2130,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2162,16 +2147,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2182,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -2199,13 +2184,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2216,13 +2201,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2230,16 +2215,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2247,16 +2232,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2267,13 +2252,13 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2284,13 +2269,13 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2301,13 +2286,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2317,125 +2302,140 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="F2">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
         <v>7</v>
       </c>
-      <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>-7</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>-2</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2454,11 +2454,14 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2477,11 +2480,14 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2500,57 +2506,66 @@
       <c r="F8">
         <v>-3</v>
       </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8">
+        <v>-4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>-5</v>
+      </c>
+      <c r="D9">
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9">
+        <v>-5</v>
+      </c>
+      <c r="G9">
+        <v>-6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-2</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>-4</v>
       </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>-5</v>
-      </c>
-      <c r="D10">
-        <v>-2</v>
-      </c>
-      <c r="E10">
-        <v>-5</v>
-      </c>
-      <c r="F10">
-        <v>-5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10">
+        <v>-7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2569,11 +2584,14 @@
       <c r="F11">
         <v>-9</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11">
+        <v>-8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2592,11 +2610,14 @@
       <c r="F12">
         <v>-11</v>
       </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12">
+        <v>-8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2636,11 @@
       <c r="F13">
         <v>-11</v>
       </c>
-      <c r="G13" t="s">
-        <v>48</v>
+      <c r="G13">
+        <v>-10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="48">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -1541,43 +1541,43 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>44.15</v>
+        <v>45.01</v>
       </c>
       <c r="C2">
-        <v>27.75</v>
+        <v>27.09</v>
       </c>
       <c r="D2">
-        <v>16.04</v>
+        <v>15.75</v>
       </c>
       <c r="E2">
-        <v>7.3</v>
+        <v>7.03</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="G2">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="H2">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="L2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.89000000000001</v>
+        <v>99.89999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1585,43 +1585,43 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.59</v>
+        <v>22.76</v>
       </c>
       <c r="C3">
-        <v>22.85</v>
+        <v>23.93</v>
       </c>
       <c r="D3">
-        <v>19.46</v>
+        <v>19.42</v>
       </c>
       <c r="E3">
-        <v>14.53</v>
+        <v>13.22</v>
       </c>
       <c r="F3">
-        <v>9.529999999999999</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="G3">
-        <v>5.06</v>
+        <v>5.59</v>
       </c>
       <c r="H3">
-        <v>2.89</v>
+        <v>3.13</v>
       </c>
       <c r="I3">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="J3">
-        <v>0.8999999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="K3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L3">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="M3">
         <v>0.04</v>
       </c>
       <c r="N3">
-        <v>98.5</v>
+        <v>98.48999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1629,43 +1629,43 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>22.41</v>
+        <v>21.3</v>
       </c>
       <c r="C4">
-        <v>23.66</v>
+        <v>23.31</v>
       </c>
       <c r="D4">
-        <v>21.37</v>
+        <v>22.17</v>
       </c>
       <c r="E4">
-        <v>14.42</v>
+        <v>14.81</v>
       </c>
       <c r="F4">
-        <v>8.58</v>
+        <v>9.08</v>
       </c>
       <c r="G4">
-        <v>4.6</v>
+        <v>4.24</v>
       </c>
       <c r="H4">
-        <v>2.72</v>
+        <v>2.43</v>
       </c>
       <c r="I4">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="J4">
-        <v>0.67</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="K4">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="L4">
         <v>0.09</v>
       </c>
       <c r="M4">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="N4">
-        <v>98.97</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1673,43 +1673,43 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>5.23</v>
+        <v>5.13</v>
       </c>
       <c r="C5">
-        <v>9.83</v>
+        <v>9.99</v>
       </c>
       <c r="D5">
-        <v>13.54</v>
+        <v>13.16</v>
       </c>
       <c r="E5">
-        <v>14.69</v>
+        <v>15.65</v>
       </c>
       <c r="F5">
-        <v>15.05</v>
+        <v>14.63</v>
       </c>
       <c r="G5">
-        <v>12.69</v>
+        <v>12.23</v>
       </c>
       <c r="H5">
-        <v>9.44</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="I5">
-        <v>7.6</v>
+        <v>7.31</v>
       </c>
       <c r="J5">
-        <v>4.96</v>
+        <v>5.17</v>
       </c>
       <c r="K5">
-        <v>3.84</v>
+        <v>3.68</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="M5">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="N5">
-        <v>88.06999999999999</v>
+        <v>88.06</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1717,43 +1717,43 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>3.86</v>
+        <v>4.19</v>
       </c>
       <c r="C6">
-        <v>9.15</v>
+        <v>8.98</v>
       </c>
       <c r="D6">
-        <v>12.94</v>
+        <v>12.51</v>
       </c>
       <c r="E6">
-        <v>15.84</v>
+        <v>15.27</v>
       </c>
       <c r="F6">
-        <v>15.09</v>
+        <v>14.81</v>
       </c>
       <c r="G6">
-        <v>12.26</v>
+        <v>12.56</v>
       </c>
       <c r="H6">
-        <v>9.58</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="I6">
-        <v>7.42</v>
+        <v>7.76</v>
       </c>
       <c r="J6">
-        <v>5.800000000000001</v>
+        <v>6.03</v>
       </c>
       <c r="K6">
-        <v>3.98</v>
+        <v>4.06</v>
       </c>
       <c r="L6">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="M6">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="N6">
-        <v>86.14000000000001</v>
+        <v>85.94</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1761,43 +1761,43 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.72</v>
+        <v>0.47</v>
       </c>
       <c r="C7">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="D7">
-        <v>4.93</v>
+        <v>4.83</v>
       </c>
       <c r="E7">
-        <v>8.290000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="F7">
-        <v>10.12</v>
+        <v>10.66</v>
       </c>
       <c r="G7">
-        <v>11.34</v>
+        <v>11.64</v>
       </c>
       <c r="H7">
-        <v>12.2</v>
+        <v>11.76</v>
       </c>
       <c r="I7">
-        <v>11.76</v>
+        <v>11.86</v>
       </c>
       <c r="J7">
-        <v>11.46</v>
+        <v>11.86</v>
       </c>
       <c r="K7">
-        <v>10.33</v>
+        <v>10.29</v>
       </c>
       <c r="L7">
-        <v>8.890000000000001</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="M7">
-        <v>7.720000000000001</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="N7">
-        <v>61.6</v>
+        <v>61.54000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1805,43 +1805,43 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="D8">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="E8">
-        <v>6.35</v>
+        <v>6.68</v>
       </c>
       <c r="F8">
-        <v>8.260000000000002</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="G8">
-        <v>11.15</v>
+        <v>10.66</v>
       </c>
       <c r="H8">
-        <v>11.73</v>
+        <v>11.57</v>
       </c>
       <c r="I8">
-        <v>12.05</v>
+        <v>12.14</v>
       </c>
       <c r="J8">
-        <v>12.06</v>
+        <v>11.56</v>
       </c>
       <c r="K8">
-        <v>11.15</v>
+        <v>11.65</v>
       </c>
       <c r="L8">
-        <v>11.35</v>
+        <v>11.57</v>
       </c>
       <c r="M8">
-        <v>10.86</v>
+        <v>10.42</v>
       </c>
       <c r="N8">
-        <v>54.58000000000001</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1852,40 +1852,40 @@
         <v>0.26</v>
       </c>
       <c r="C9">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="D9">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="E9">
-        <v>4.79</v>
+        <v>5.06</v>
       </c>
       <c r="F9">
-        <v>7.24</v>
+        <v>7.3</v>
       </c>
       <c r="G9">
-        <v>9.619999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="H9">
-        <v>10.25</v>
+        <v>11.08</v>
       </c>
       <c r="I9">
-        <v>11.74</v>
+        <v>11.43</v>
       </c>
       <c r="J9">
-        <v>12.44</v>
+        <v>11.85</v>
       </c>
       <c r="K9">
-        <v>13.55</v>
+        <v>12.74</v>
       </c>
       <c r="L9">
-        <v>13.59</v>
+        <v>13.32</v>
       </c>
       <c r="M9">
-        <v>13.33</v>
+        <v>14.02</v>
       </c>
       <c r="N9">
-        <v>47.09</v>
+        <v>48.06999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1893,43 +1893,43 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="C10">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="D10">
-        <v>2.31</v>
+        <v>2.49</v>
       </c>
       <c r="E10">
-        <v>5.24</v>
+        <v>5.54</v>
       </c>
       <c r="F10">
-        <v>7.68</v>
+        <v>7.91</v>
       </c>
       <c r="G10">
-        <v>10.7</v>
+        <v>10.35</v>
       </c>
       <c r="H10">
-        <v>12.36</v>
+        <v>11.85</v>
       </c>
       <c r="I10">
-        <v>12.43</v>
+        <v>12.02</v>
       </c>
       <c r="J10">
-        <v>13.13</v>
+        <v>13.33</v>
       </c>
       <c r="K10">
-        <v>12.85</v>
+        <v>12.77</v>
       </c>
       <c r="L10">
-        <v>12.21</v>
+        <v>12.39</v>
       </c>
       <c r="M10">
-        <v>10.01</v>
+        <v>10.32</v>
       </c>
       <c r="N10">
-        <v>51.8</v>
+        <v>51.19</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1937,43 +1937,43 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="C11">
-        <v>0.8099999999999999</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="D11">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="E11">
-        <v>4.17</v>
+        <v>4.44</v>
       </c>
       <c r="F11">
-        <v>7.56</v>
+        <v>7.55</v>
       </c>
       <c r="G11">
-        <v>9.4</v>
+        <v>9.77</v>
       </c>
       <c r="H11">
-        <v>12.14</v>
+        <v>11.76</v>
       </c>
       <c r="I11">
-        <v>13.1</v>
+        <v>12.49</v>
       </c>
       <c r="J11">
-        <v>13.38</v>
+        <v>13.41</v>
       </c>
       <c r="K11">
-        <v>13.21</v>
+        <v>14.09</v>
       </c>
       <c r="L11">
-        <v>12.69</v>
+        <v>12.11</v>
       </c>
       <c r="M11">
-        <v>11.51</v>
+        <v>11.64</v>
       </c>
       <c r="N11">
-        <v>49.21</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1981,43 +1981,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.08</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="D12">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="E12">
-        <v>2.91</v>
+        <v>2.73</v>
       </c>
       <c r="F12">
-        <v>4.95</v>
+        <v>4.73</v>
       </c>
       <c r="G12">
-        <v>6.79</v>
+        <v>7.430000000000001</v>
       </c>
       <c r="H12">
-        <v>8.84</v>
+        <v>9.17</v>
       </c>
       <c r="I12">
-        <v>10.97</v>
+        <v>11.22</v>
       </c>
       <c r="J12">
-        <v>12.42</v>
+        <v>12.06</v>
       </c>
       <c r="K12">
-        <v>14.54</v>
+        <v>14.66</v>
       </c>
       <c r="L12">
-        <v>16.73</v>
+        <v>16.85</v>
       </c>
       <c r="M12">
-        <v>20.1</v>
+        <v>19.41</v>
       </c>
       <c r="N12">
-        <v>36.21000000000001</v>
+        <v>37.02</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2025,43 +2025,43 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C13">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="E13">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="F13">
-        <v>2.94</v>
+        <v>3.06</v>
       </c>
       <c r="G13">
-        <v>5.35</v>
+        <v>4.98</v>
       </c>
       <c r="H13">
-        <v>7.44</v>
+        <v>7.090000000000001</v>
       </c>
       <c r="I13">
-        <v>9.93</v>
+        <v>10.25</v>
       </c>
       <c r="J13">
-        <v>12.74</v>
+        <v>12.99</v>
       </c>
       <c r="K13">
-        <v>15.83</v>
+        <v>15.34</v>
       </c>
       <c r="L13">
-        <v>19.58</v>
+        <v>19.85</v>
       </c>
       <c r="M13">
-        <v>23.91</v>
+        <v>24.33</v>
       </c>
       <c r="N13">
-        <v>27.94</v>
+        <v>27.49</v>
       </c>
     </row>
   </sheetData>
@@ -2302,344 +2302,305 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
       <c r="D2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>13</v>
-      </c>
-      <c r="G2">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
+      <c r="B5">
+        <v>-7</v>
       </c>
       <c r="C5">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="D5">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
       <c r="E6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
+      <c r="B7">
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
         <v>-1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
+      <c r="B8">
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="E8">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="F8">
-        <v>-3</v>
-      </c>
-      <c r="G8">
         <v>-4</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
+      <c r="B9">
+        <v>-5</v>
       </c>
       <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
         <v>-5</v>
-      </c>
-      <c r="D9">
-        <v>-2</v>
       </c>
       <c r="E9">
         <v>-5</v>
       </c>
       <c r="F9">
-        <v>-5</v>
-      </c>
-      <c r="G9">
         <v>-6</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="B10">
+        <v>-2</v>
       </c>
       <c r="C10">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="F10">
-        <v>-4</v>
-      </c>
-      <c r="G10">
         <v>-7</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
+      <c r="B11">
+        <v>-5</v>
       </c>
       <c r="C11">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D11">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="E11">
+        <v>-9</v>
+      </c>
+      <c r="F11">
         <v>-8</v>
       </c>
-      <c r="F11">
-        <v>-9</v>
-      </c>
-      <c r="G11">
-        <v>-8</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
+      <c r="B12">
+        <v>-7</v>
       </c>
       <c r="C12">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D12">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="E12">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="F12">
-        <v>-11</v>
-      </c>
-      <c r="G12">
         <v>-8</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
+      <c r="B13">
+        <v>-1</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="D13">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="E13">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="F13">
-        <v>-11</v>
-      </c>
-      <c r="G13">
         <v>-10</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="54">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -57,22 +57,22 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -138,16 +138,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -163,6 +178,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
 </sst>
 </file>
@@ -572,37 +590,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -628,7 +646,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -654,37 +672,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -692,40 +710,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -736,37 +754,37 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -789,22 +807,22 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
         <v>15</v>
@@ -830,25 +848,25 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -859,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -868,28 +886,28 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -900,7 +918,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -912,25 +930,25 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -941,7 +959,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -953,25 +971,25 @@
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -997,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
         <v>13</v>
@@ -1088,10 +1106,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1.916666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1099,13 +1117,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1113,10 +1131,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -1127,10 +1145,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2.333333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1141,13 +1159,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2.416666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1155,13 +1173,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>2.583333333333333</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1169,13 +1187,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>2.583333333333333</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1183,10 +1201,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>2.583333333333333</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1197,10 +1215,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2.75</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1211,13 +1229,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1225,13 +1243,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>2.833333333333333</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1239,13 +1257,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1283,13 +1301,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3.666666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D2">
-        <v>-1.333333333333333</v>
+        <v>-1.583333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1300,10 +1318,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>3.666666666666667</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.3333333333333335</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1334,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.833333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D5">
-        <v>0.8333333333333335</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1351,13 +1369,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1365,16 +1383,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2.166666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D7">
-        <v>0.1666666666666665</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1382,13 +1400,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>2.083333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D8">
-        <v>-0.9166666666666665</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1399,13 +1417,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>2.083333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D9">
-        <v>0.08333333333333348</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1416,16 +1434,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>2.083333333333333</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D10">
-        <v>0.08333333333333348</v>
+        <v>-0.4166666666666665</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1433,13 +1451,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1.916666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D11">
-        <v>-1.083333333333333</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1450,13 +1468,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1467,16 +1485,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>1.666666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D13">
-        <v>1.666666666666667</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1538,46 +1556,46 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>45.01</v>
+        <v>29.2</v>
       </c>
       <c r="C2">
-        <v>27.09</v>
+        <v>21.83</v>
       </c>
       <c r="D2">
-        <v>15.75</v>
+        <v>16.03</v>
       </c>
       <c r="E2">
-        <v>7.03</v>
+        <v>11.81</v>
       </c>
       <c r="F2">
-        <v>3.29</v>
+        <v>8.49</v>
       </c>
       <c r="G2">
-        <v>1.1</v>
+        <v>5.26</v>
       </c>
       <c r="H2">
-        <v>0.34</v>
+        <v>3.64</v>
       </c>
       <c r="I2">
-        <v>0.29</v>
+        <v>2.13</v>
       </c>
       <c r="J2">
-        <v>0.08</v>
+        <v>0.97</v>
       </c>
       <c r="K2">
-        <v>0.02</v>
+        <v>0.37</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N2">
-        <v>99.89999999999999</v>
+        <v>98.39</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1585,87 +1603,87 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.76</v>
+        <v>27.1</v>
       </c>
       <c r="C3">
-        <v>23.93</v>
+        <v>22.99</v>
       </c>
       <c r="D3">
-        <v>19.42</v>
+        <v>18.25</v>
       </c>
       <c r="E3">
-        <v>13.22</v>
+        <v>12.58</v>
       </c>
       <c r="F3">
-        <v>8.619999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G3">
-        <v>5.59</v>
+        <v>4.98</v>
       </c>
       <c r="H3">
-        <v>3.13</v>
+        <v>2.89</v>
       </c>
       <c r="I3">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="J3">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="K3">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="L3">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="M3">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="N3">
-        <v>98.48999999999999</v>
+        <v>98.56999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="C4">
-        <v>23.31</v>
+        <v>22.12</v>
       </c>
       <c r="D4">
-        <v>22.17</v>
+        <v>19.03</v>
       </c>
       <c r="E4">
-        <v>14.81</v>
+        <v>14.76</v>
       </c>
       <c r="F4">
-        <v>9.08</v>
+        <v>10.12</v>
       </c>
       <c r="G4">
-        <v>4.24</v>
+        <v>6.13</v>
       </c>
       <c r="H4">
-        <v>2.43</v>
+        <v>3.64</v>
       </c>
       <c r="I4">
-        <v>1.41</v>
+        <v>1.94</v>
       </c>
       <c r="J4">
-        <v>0.7000000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="K4">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="L4">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="M4">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="N4">
-        <v>98.75</v>
+        <v>98.34</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1673,43 +1691,43 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>5.13</v>
+        <v>10.88</v>
       </c>
       <c r="C5">
-        <v>9.99</v>
+        <v>12.59</v>
       </c>
       <c r="D5">
-        <v>13.16</v>
+        <v>13.95</v>
       </c>
       <c r="E5">
-        <v>15.65</v>
+        <v>13.78</v>
       </c>
       <c r="F5">
-        <v>14.63</v>
+        <v>13.27</v>
       </c>
       <c r="G5">
-        <v>12.23</v>
+        <v>10.72</v>
       </c>
       <c r="H5">
-        <v>9.959999999999999</v>
+        <v>8.959999999999999</v>
       </c>
       <c r="I5">
-        <v>7.31</v>
+        <v>6.419999999999999</v>
       </c>
       <c r="J5">
-        <v>5.17</v>
+        <v>4.73</v>
       </c>
       <c r="K5">
-        <v>3.68</v>
+        <v>2.61</v>
       </c>
       <c r="L5">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="M5">
-        <v>1.16</v>
+        <v>0.59</v>
       </c>
       <c r="N5">
-        <v>88.06</v>
+        <v>90.57000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1717,43 +1735,43 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>4.19</v>
+        <v>5.72</v>
       </c>
       <c r="C6">
-        <v>8.98</v>
+        <v>7.9</v>
       </c>
       <c r="D6">
-        <v>12.51</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E6">
-        <v>15.27</v>
+        <v>12.71</v>
       </c>
       <c r="F6">
-        <v>14.81</v>
+        <v>12.82</v>
       </c>
       <c r="G6">
-        <v>12.56</v>
+        <v>12.22</v>
       </c>
       <c r="H6">
-        <v>9.859999999999999</v>
+        <v>11.34</v>
       </c>
       <c r="I6">
-        <v>7.76</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="J6">
-        <v>6.03</v>
+        <v>7.249999999999999</v>
       </c>
       <c r="K6">
-        <v>4.06</v>
+        <v>5.42</v>
       </c>
       <c r="L6">
-        <v>2.57</v>
+        <v>3.76</v>
       </c>
       <c r="M6">
-        <v>1.4</v>
+        <v>1.86</v>
       </c>
       <c r="N6">
-        <v>85.94</v>
+        <v>81.71000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1761,43 +1779,43 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.47</v>
+        <v>2.31</v>
       </c>
       <c r="C7">
-        <v>2.25</v>
+        <v>3.93</v>
       </c>
       <c r="D7">
-        <v>4.83</v>
+        <v>6.909999999999999</v>
       </c>
       <c r="E7">
-        <v>8.07</v>
+        <v>8.9</v>
       </c>
       <c r="F7">
-        <v>10.66</v>
+        <v>10.72</v>
       </c>
       <c r="G7">
-        <v>11.64</v>
+        <v>11.85</v>
       </c>
       <c r="H7">
-        <v>11.76</v>
+        <v>12.74</v>
       </c>
       <c r="I7">
-        <v>11.86</v>
+        <v>11.6</v>
       </c>
       <c r="J7">
-        <v>11.86</v>
+        <v>10.31</v>
       </c>
       <c r="K7">
-        <v>10.29</v>
+        <v>8.84</v>
       </c>
       <c r="L7">
-        <v>9.109999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="M7">
-        <v>7.199999999999999</v>
+        <v>4.99</v>
       </c>
       <c r="N7">
-        <v>61.54000000000001</v>
+        <v>68.96000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1805,175 +1823,175 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>2.22</v>
       </c>
       <c r="C8">
-        <v>1.5</v>
+        <v>3.65</v>
       </c>
       <c r="D8">
-        <v>3.49</v>
+        <v>6.5</v>
       </c>
       <c r="E8">
-        <v>6.68</v>
+        <v>8.6</v>
       </c>
       <c r="F8">
-        <v>8.359999999999999</v>
+        <v>10.03</v>
       </c>
       <c r="G8">
-        <v>10.66</v>
+        <v>11.72</v>
       </c>
       <c r="H8">
-        <v>11.57</v>
+        <v>12.24</v>
       </c>
       <c r="I8">
-        <v>12.14</v>
+        <v>11.95</v>
       </c>
       <c r="J8">
-        <v>11.56</v>
+        <v>11.14</v>
       </c>
       <c r="K8">
-        <v>11.65</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="L8">
-        <v>11.57</v>
+        <v>7.430000000000001</v>
       </c>
       <c r="M8">
-        <v>10.42</v>
+        <v>5.23</v>
       </c>
       <c r="N8">
-        <v>54.8</v>
+        <v>66.91</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>0.26</v>
+        <v>1.46</v>
       </c>
       <c r="C9">
-        <v>1.07</v>
+        <v>2.96</v>
       </c>
       <c r="D9">
-        <v>2.42</v>
+        <v>4.82</v>
       </c>
       <c r="E9">
-        <v>5.06</v>
+        <v>7.55</v>
       </c>
       <c r="F9">
-        <v>7.3</v>
+        <v>10.24</v>
       </c>
       <c r="G9">
-        <v>9.449999999999999</v>
+        <v>12.43</v>
       </c>
       <c r="H9">
-        <v>11.08</v>
+        <v>11.85</v>
       </c>
       <c r="I9">
-        <v>11.43</v>
+        <v>12.43</v>
       </c>
       <c r="J9">
-        <v>11.85</v>
+        <v>11.42</v>
       </c>
       <c r="K9">
-        <v>12.74</v>
+        <v>10.24</v>
       </c>
       <c r="L9">
-        <v>13.32</v>
+        <v>8.44</v>
       </c>
       <c r="M9">
-        <v>14.02</v>
+        <v>6.16</v>
       </c>
       <c r="N9">
-        <v>48.06999999999999</v>
+        <v>63.74</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="D10">
-        <v>2.49</v>
+        <v>1.65</v>
       </c>
       <c r="E10">
-        <v>5.54</v>
+        <v>3.55</v>
       </c>
       <c r="F10">
-        <v>7.91</v>
+        <v>5.58</v>
       </c>
       <c r="G10">
-        <v>10.35</v>
+        <v>8.450000000000001</v>
       </c>
       <c r="H10">
-        <v>11.85</v>
+        <v>10.3</v>
       </c>
       <c r="I10">
-        <v>12.02</v>
+        <v>13.1</v>
       </c>
       <c r="J10">
-        <v>13.33</v>
+        <v>14.04</v>
       </c>
       <c r="K10">
-        <v>12.77</v>
+        <v>14.81</v>
       </c>
       <c r="L10">
-        <v>12.39</v>
+        <v>14.33</v>
       </c>
       <c r="M10">
-        <v>10.32</v>
+        <v>13.07</v>
       </c>
       <c r="N10">
-        <v>51.19</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="C11">
-        <v>0.5499999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="D11">
-        <v>2.04</v>
+        <v>1.62</v>
       </c>
       <c r="E11">
-        <v>4.44</v>
+        <v>3.23</v>
       </c>
       <c r="F11">
-        <v>7.55</v>
+        <v>5.37</v>
       </c>
       <c r="G11">
-        <v>9.77</v>
+        <v>7.51</v>
       </c>
       <c r="H11">
-        <v>11.76</v>
+        <v>9.49</v>
       </c>
       <c r="I11">
-        <v>12.49</v>
+        <v>10.97</v>
       </c>
       <c r="J11">
-        <v>13.41</v>
+        <v>12.99</v>
       </c>
       <c r="K11">
-        <v>14.09</v>
+        <v>14.57</v>
       </c>
       <c r="L11">
-        <v>12.11</v>
+        <v>16.39</v>
       </c>
       <c r="M11">
-        <v>11.64</v>
+        <v>17</v>
       </c>
       <c r="N11">
-        <v>48.75</v>
+        <v>39.05</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1981,43 +1999,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.06999999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="C12">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="D12">
-        <v>1.24</v>
+        <v>0.88</v>
       </c>
       <c r="E12">
-        <v>2.73</v>
+        <v>1.56</v>
       </c>
       <c r="F12">
-        <v>4.73</v>
+        <v>3.26</v>
       </c>
       <c r="G12">
-        <v>7.430000000000001</v>
+        <v>5.31</v>
       </c>
       <c r="H12">
-        <v>9.17</v>
+        <v>7.109999999999999</v>
       </c>
       <c r="I12">
-        <v>11.22</v>
+        <v>9.879999999999999</v>
       </c>
       <c r="J12">
-        <v>12.06</v>
+        <v>12.68</v>
       </c>
       <c r="K12">
-        <v>14.66</v>
+        <v>16.76</v>
       </c>
       <c r="L12">
-        <v>16.85</v>
+        <v>19.53</v>
       </c>
       <c r="M12">
-        <v>19.41</v>
+        <v>22.57</v>
       </c>
       <c r="N12">
-        <v>37.02</v>
+        <v>28.46</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2025,43 +2043,43 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="C13">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="D13">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="E13">
-        <v>1.5</v>
+        <v>0.97</v>
       </c>
       <c r="F13">
-        <v>3.06</v>
+        <v>1.96</v>
       </c>
       <c r="G13">
-        <v>4.98</v>
+        <v>3.42</v>
       </c>
       <c r="H13">
-        <v>7.090000000000001</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="I13">
-        <v>10.25</v>
+        <v>8.81</v>
       </c>
       <c r="J13">
-        <v>12.99</v>
+        <v>12.6</v>
       </c>
       <c r="K13">
-        <v>15.34</v>
+        <v>16.28</v>
       </c>
       <c r="L13">
-        <v>19.85</v>
+        <v>21.12</v>
       </c>
       <c r="M13">
-        <v>24.33</v>
+        <v>28.45</v>
       </c>
       <c r="N13">
-        <v>27.49</v>
+        <v>21.55</v>
       </c>
     </row>
   </sheetData>
@@ -2096,13 +2114,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -2113,13 +2131,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -2133,7 +2151,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -2147,13 +2165,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -2167,13 +2185,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2181,16 +2199,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2198,16 +2216,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2215,16 +2233,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2232,16 +2250,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2249,16 +2267,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2266,16 +2284,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>-8</v>
+        <v>-14</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2283,16 +2301,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2302,79 +2320,88 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-7</v>
+      </c>
+      <c r="C3">
+        <v>-2</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
       <c r="E3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2393,34 +2420,40 @@
       <c r="F4">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2439,59 +2472,68 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>-9</v>
+      </c>
+      <c r="D7">
+        <v>-12</v>
+      </c>
+      <c r="E7">
+        <v>-11</v>
+      </c>
+      <c r="F7">
+        <v>-10</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>-1</v>
       </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>-2</v>
-      </c>
-      <c r="D8">
-        <v>-7</v>
-      </c>
-      <c r="E8">
-        <v>-3</v>
-      </c>
-      <c r="F8">
-        <v>-4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8">
+        <v>-5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>-5</v>
@@ -2500,44 +2542,50 @@
         <v>-2</v>
       </c>
       <c r="D9">
+        <v>-8</v>
+      </c>
+      <c r="E9">
+        <v>-9</v>
+      </c>
+      <c r="F9">
+        <v>-8</v>
+      </c>
+      <c r="G9">
         <v>-5</v>
       </c>
-      <c r="E9">
-        <v>-5</v>
-      </c>
-      <c r="F9">
-        <v>-6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>-2</v>
       </c>
-      <c r="C10">
+      <c r="D10">
+        <v>-7</v>
+      </c>
+      <c r="E10">
+        <v>-3</v>
+      </c>
+      <c r="F10">
+        <v>-4</v>
+      </c>
+      <c r="G10">
+        <v>-9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>-4</v>
-      </c>
-      <c r="F10">
-        <v>-7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B11">
         <v>-5</v>
@@ -2546,62 +2594,71 @@
         <v>-2</v>
       </c>
       <c r="D11">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="E11">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="F11">
-        <v>-8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-6</v>
+      </c>
+      <c r="G11">
+        <v>-12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>-4</v>
+      </c>
+      <c r="F12">
+        <v>-7</v>
+      </c>
+      <c r="G12">
+        <v>-14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>-7</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>-6</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>-2</v>
-      </c>
-      <c r="E12">
-        <v>-11</v>
-      </c>
-      <c r="F12">
-        <v>-8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>-1</v>
-      </c>
-      <c r="C13">
-        <v>-9</v>
-      </c>
-      <c r="D13">
-        <v>-12</v>
       </c>
       <c r="E13">
         <v>-11</v>
       </c>
       <c r="F13">
-        <v>-10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
+        <v>-8</v>
+      </c>
+      <c r="G13">
+        <v>-14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="54">
-  <si>
-    <t>PAI Athletic Director</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="56">
+  <si>
+    <t>PAI India Division Manager</t>
   </si>
   <si>
     <t>Book of MoreMoms</t>
@@ -42,37 +42,37 @@
     <t xml:space="preserve">PAI Alcoholics Anonymous </t>
   </si>
   <si>
-    <t>Team Corner Office</t>
+    <t>Pennoni Adjacent</t>
   </si>
   <si>
     <t>Philadelphia British Army</t>
   </si>
   <si>
-    <t>Girth Brooks</t>
-  </si>
-  <si>
-    <t>Rizzo's Crash Test Dummy</t>
+    <t>Bli Erinker</t>
+  </si>
+  <si>
+    <t>Prahlad's Ghost</t>
   </si>
   <si>
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -138,33 +138,36 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>↓7</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
 </sst>
 </file>
@@ -614,7 +620,7 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -637,10 +643,10 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -658,10 +664,10 @@
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -678,31 +684,31 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -716,19 +722,19 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -740,10 +746,10 @@
         <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -754,37 +760,37 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -792,25 +798,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -839,19 +845,19 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -860,13 +866,13 @@
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -874,40 +880,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -915,25 +921,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -942,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -959,16 +965,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -980,7 +986,7 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -989,7 +995,7 @@
         <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1003,7 +1009,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1012,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -1027,10 +1033,10 @@
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1038,25 +1044,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -1065,13 +1071,13 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1106,10 +1112,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2.333333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1117,13 +1123,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1131,13 +1137,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>2.75</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1145,13 +1151,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.833333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1162,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>2.916666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1173,13 +1179,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1187,13 +1193,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1201,13 +1207,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>3.083333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1215,13 +1221,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>3.166666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1229,13 +1235,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>3.25</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1243,13 +1249,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>3.416666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1257,10 +1263,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1298,16 +1304,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>4.416666666666667</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D2">
-        <v>-1.583333333333333</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1315,16 +1321,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4.166666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D3">
-        <v>0.166666666666667</v>
+        <v>-1.25</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1332,16 +1338,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.666666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D4">
-        <v>-0.3333333333333335</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1349,16 +1355,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>3.666666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D5">
-        <v>1.666666666666667</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1366,13 +1372,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.5833333333333335</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1383,16 +1389,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>2.916666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D7">
-        <v>-1.083333333333333</v>
+        <v>-0.75</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1400,13 +1406,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>2.916666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D8">
-        <v>-0.08333333333333348</v>
+        <v>-0.9166666666666665</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1417,13 +1423,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>0.6666666666666665</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1434,16 +1440,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>2.583333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D10">
-        <v>-0.4166666666666665</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1451,16 +1457,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>2.166666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D11">
-        <v>-0.8333333333333335</v>
+        <v>0.75</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1471,13 +1477,13 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1488,13 +1494,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>1.833333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D13">
-        <v>0.8333333333333333</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1559,43 +1565,43 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>29.2</v>
+        <v>27.84</v>
       </c>
       <c r="C2">
-        <v>21.83</v>
+        <v>22.16</v>
       </c>
       <c r="D2">
-        <v>16.03</v>
+        <v>18.82</v>
       </c>
       <c r="E2">
-        <v>11.81</v>
+        <v>12.76</v>
       </c>
       <c r="F2">
-        <v>8.49</v>
+        <v>7.739999999999999</v>
       </c>
       <c r="G2">
-        <v>5.26</v>
+        <v>4.91</v>
       </c>
       <c r="H2">
-        <v>3.64</v>
+        <v>2.6</v>
       </c>
       <c r="I2">
-        <v>2.13</v>
+        <v>1.65</v>
       </c>
       <c r="J2">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="K2">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="L2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="M2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
-        <v>98.39</v>
+        <v>98.47999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1603,131 +1609,131 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>27.1</v>
+        <v>22.51</v>
       </c>
       <c r="C3">
-        <v>22.99</v>
+        <v>20.53</v>
       </c>
       <c r="D3">
-        <v>18.25</v>
+        <v>16.87</v>
       </c>
       <c r="E3">
-        <v>12.58</v>
+        <v>13.56</v>
       </c>
       <c r="F3">
-        <v>8.140000000000001</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="G3">
-        <v>4.98</v>
+        <v>6.4</v>
       </c>
       <c r="H3">
-        <v>2.89</v>
+        <v>4.37</v>
       </c>
       <c r="I3">
-        <v>1.64</v>
+        <v>2.62</v>
       </c>
       <c r="J3">
-        <v>0.89</v>
+        <v>1.36</v>
       </c>
       <c r="K3">
-        <v>0.37</v>
+        <v>0.98</v>
       </c>
       <c r="L3">
-        <v>0.16</v>
+        <v>0.58</v>
       </c>
       <c r="M3">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="N3">
-        <v>98.56999999999999</v>
+        <v>96.83</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>20.6</v>
+        <v>22.5</v>
       </c>
       <c r="C4">
-        <v>22.12</v>
+        <v>22.7</v>
       </c>
       <c r="D4">
-        <v>19.03</v>
+        <v>19.74</v>
       </c>
       <c r="E4">
-        <v>14.76</v>
+        <v>15.05</v>
       </c>
       <c r="F4">
-        <v>10.12</v>
+        <v>8.649999999999999</v>
       </c>
       <c r="G4">
-        <v>6.13</v>
+        <v>5.24</v>
       </c>
       <c r="H4">
-        <v>3.64</v>
+        <v>2.95</v>
       </c>
       <c r="I4">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="J4">
-        <v>0.98</v>
+        <v>0.74</v>
       </c>
       <c r="K4">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="L4">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="M4">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="N4">
-        <v>98.34</v>
+        <v>98.46000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>10.88</v>
+        <v>18.85</v>
       </c>
       <c r="C5">
-        <v>12.59</v>
+        <v>18.12</v>
       </c>
       <c r="D5">
-        <v>13.95</v>
+        <v>16.18</v>
       </c>
       <c r="E5">
-        <v>13.78</v>
+        <v>13.66</v>
       </c>
       <c r="F5">
-        <v>13.27</v>
+        <v>11.14</v>
       </c>
       <c r="G5">
-        <v>10.72</v>
+        <v>7.73</v>
       </c>
       <c r="H5">
-        <v>8.959999999999999</v>
+        <v>5.54</v>
       </c>
       <c r="I5">
-        <v>6.419999999999999</v>
+        <v>3.52</v>
       </c>
       <c r="J5">
-        <v>4.73</v>
+        <v>2.57</v>
       </c>
       <c r="K5">
-        <v>2.61</v>
+        <v>1.48</v>
       </c>
       <c r="L5">
-        <v>1.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="M5">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
       <c r="N5">
-        <v>90.57000000000001</v>
+        <v>94.74000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1735,307 +1741,307 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>5.72</v>
+        <v>3.15</v>
       </c>
       <c r="C6">
-        <v>7.9</v>
+        <v>5.56</v>
       </c>
       <c r="D6">
-        <v>9.869999999999999</v>
+        <v>7.59</v>
       </c>
       <c r="E6">
-        <v>12.71</v>
+        <v>9.32</v>
       </c>
       <c r="F6">
-        <v>12.82</v>
+        <v>12.11</v>
       </c>
       <c r="G6">
-        <v>12.22</v>
+        <v>12.04</v>
       </c>
       <c r="H6">
-        <v>11.34</v>
+        <v>11.03</v>
       </c>
       <c r="I6">
-        <v>9.130000000000001</v>
+        <v>10.49</v>
       </c>
       <c r="J6">
-        <v>7.249999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="K6">
-        <v>5.42</v>
+        <v>7.73</v>
       </c>
       <c r="L6">
-        <v>3.76</v>
+        <v>6.260000000000001</v>
       </c>
       <c r="M6">
-        <v>1.86</v>
+        <v>4.96</v>
       </c>
       <c r="N6">
-        <v>81.71000000000001</v>
+        <v>71.28999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>2.31</v>
+        <v>1.66</v>
       </c>
       <c r="C7">
-        <v>3.93</v>
+        <v>3.31</v>
       </c>
       <c r="D7">
-        <v>6.909999999999999</v>
+        <v>5.28</v>
       </c>
       <c r="E7">
-        <v>8.9</v>
+        <v>7.68</v>
       </c>
       <c r="F7">
-        <v>10.72</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="G7">
-        <v>11.85</v>
+        <v>10.76</v>
       </c>
       <c r="H7">
-        <v>12.74</v>
+        <v>11.56</v>
       </c>
       <c r="I7">
-        <v>11.6</v>
+        <v>11.43</v>
       </c>
       <c r="J7">
-        <v>10.31</v>
+        <v>10.85</v>
       </c>
       <c r="K7">
-        <v>8.84</v>
+        <v>10.38</v>
       </c>
       <c r="L7">
-        <v>6.9</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="M7">
-        <v>4.99</v>
+        <v>8.18</v>
       </c>
       <c r="N7">
-        <v>68.96000000000001</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>2.22</v>
+        <v>1.25</v>
       </c>
       <c r="C8">
-        <v>3.65</v>
+        <v>2.73</v>
       </c>
       <c r="D8">
-        <v>6.5</v>
+        <v>4.53</v>
       </c>
       <c r="E8">
-        <v>8.6</v>
+        <v>6.88</v>
       </c>
       <c r="F8">
-        <v>10.03</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="G8">
-        <v>11.72</v>
+        <v>10.35</v>
       </c>
       <c r="H8">
-        <v>12.24</v>
+        <v>11.08</v>
       </c>
       <c r="I8">
-        <v>11.95</v>
+        <v>11.52</v>
       </c>
       <c r="J8">
-        <v>11.14</v>
+        <v>11.32</v>
       </c>
       <c r="K8">
-        <v>9.289999999999999</v>
+        <v>11.38</v>
       </c>
       <c r="L8">
-        <v>7.430000000000001</v>
+        <v>10.16</v>
       </c>
       <c r="M8">
-        <v>5.23</v>
+        <v>10.18</v>
       </c>
       <c r="N8">
-        <v>66.91</v>
+        <v>56.96</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>1.46</v>
+        <v>0.91</v>
       </c>
       <c r="C9">
-        <v>2.96</v>
+        <v>1.59</v>
       </c>
       <c r="D9">
-        <v>4.82</v>
+        <v>3.24</v>
       </c>
       <c r="E9">
-        <v>7.55</v>
+        <v>5.7</v>
       </c>
       <c r="F9">
-        <v>10.24</v>
+        <v>7.6</v>
       </c>
       <c r="G9">
-        <v>12.43</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="H9">
-        <v>11.85</v>
+        <v>10.82</v>
       </c>
       <c r="I9">
-        <v>12.43</v>
+        <v>11.78</v>
       </c>
       <c r="J9">
-        <v>11.42</v>
+        <v>11.81</v>
       </c>
       <c r="K9">
-        <v>10.24</v>
+        <v>11.98</v>
       </c>
       <c r="L9">
-        <v>8.44</v>
+        <v>12.36</v>
       </c>
       <c r="M9">
-        <v>6.16</v>
+        <v>12.24</v>
       </c>
       <c r="N9">
-        <v>63.74</v>
+        <v>51.61</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>0.22</v>
+        <v>0.49</v>
       </c>
       <c r="C10">
-        <v>0.8999999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="D10">
-        <v>1.65</v>
+        <v>2.39</v>
       </c>
       <c r="E10">
-        <v>3.55</v>
+        <v>4.49</v>
       </c>
       <c r="F10">
-        <v>5.58</v>
+        <v>7.22</v>
       </c>
       <c r="G10">
-        <v>8.450000000000001</v>
+        <v>9.02</v>
       </c>
       <c r="H10">
-        <v>10.3</v>
+        <v>10.37</v>
       </c>
       <c r="I10">
-        <v>13.1</v>
+        <v>10.89</v>
       </c>
       <c r="J10">
-        <v>14.04</v>
+        <v>12.76</v>
       </c>
       <c r="K10">
-        <v>14.81</v>
+        <v>13.22</v>
       </c>
       <c r="L10">
-        <v>14.33</v>
+        <v>13.16</v>
       </c>
       <c r="M10">
-        <v>13.07</v>
+        <v>14.91</v>
       </c>
       <c r="N10">
-        <v>43.75</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
       <c r="C11">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="D11">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="E11">
-        <v>3.23</v>
+        <v>4.590000000000001</v>
       </c>
       <c r="F11">
-        <v>5.37</v>
+        <v>6.64</v>
       </c>
       <c r="G11">
-        <v>7.51</v>
+        <v>8.93</v>
       </c>
       <c r="H11">
-        <v>9.49</v>
+        <v>10.31</v>
       </c>
       <c r="I11">
-        <v>10.97</v>
+        <v>12.12</v>
       </c>
       <c r="J11">
-        <v>12.99</v>
+        <v>11.78</v>
       </c>
       <c r="K11">
-        <v>14.57</v>
+        <v>13.32</v>
       </c>
       <c r="L11">
-        <v>16.39</v>
+        <v>14.33</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>14.44</v>
       </c>
       <c r="N11">
-        <v>39.05</v>
+        <v>46.13</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>0.06</v>
+        <v>0.29</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>0.79</v>
       </c>
       <c r="D12">
-        <v>0.88</v>
+        <v>2.13</v>
       </c>
       <c r="E12">
-        <v>1.56</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="F12">
-        <v>3.26</v>
+        <v>6.329999999999999</v>
       </c>
       <c r="G12">
-        <v>5.31</v>
+        <v>8.260000000000002</v>
       </c>
       <c r="H12">
-        <v>7.109999999999999</v>
+        <v>10.84</v>
       </c>
       <c r="I12">
-        <v>9.879999999999999</v>
+        <v>11.42</v>
       </c>
       <c r="J12">
-        <v>12.68</v>
+        <v>13.52</v>
       </c>
       <c r="K12">
-        <v>16.76</v>
+        <v>13.31</v>
       </c>
       <c r="L12">
-        <v>19.53</v>
+        <v>14.41</v>
       </c>
       <c r="M12">
-        <v>22.57</v>
+        <v>14.59</v>
       </c>
       <c r="N12">
-        <v>28.46</v>
+        <v>44.16999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2043,43 +2049,43 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="C13">
-        <v>0.08</v>
+        <v>0.46</v>
       </c>
       <c r="D13">
-        <v>0.49</v>
+        <v>1.03</v>
       </c>
       <c r="E13">
-        <v>0.97</v>
+        <v>2.2</v>
       </c>
       <c r="F13">
-        <v>1.96</v>
+        <v>4.36</v>
       </c>
       <c r="G13">
-        <v>3.42</v>
+        <v>6.39</v>
       </c>
       <c r="H13">
-        <v>5.800000000000001</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="I13">
-        <v>8.81</v>
+        <v>10.93</v>
       </c>
       <c r="J13">
-        <v>12.6</v>
+        <v>12.74</v>
       </c>
       <c r="K13">
-        <v>16.28</v>
+        <v>15.23</v>
       </c>
       <c r="L13">
-        <v>21.12</v>
+        <v>18.23</v>
       </c>
       <c r="M13">
-        <v>28.45</v>
+        <v>19.72</v>
       </c>
       <c r="N13">
-        <v>21.55</v>
+        <v>34.08</v>
       </c>
     </row>
   </sheetData>
@@ -2114,13 +2120,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -2131,13 +2137,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -2151,7 +2157,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -2168,10 +2174,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -2185,13 +2191,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2202,13 +2208,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2216,13 +2222,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
@@ -2233,16 +2239,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2250,16 +2256,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2276,7 +2282,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2284,16 +2290,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2301,16 +2307,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>-14</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2320,88 +2326,97 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-7</v>
+      </c>
+      <c r="C2">
+        <v>-2</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>13</v>
-      </c>
-      <c r="G2">
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-7</v>
-      </c>
-      <c r="C3">
-        <v>-2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2423,11 +2438,14 @@
       <c r="G4">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2449,11 +2467,14 @@
       <c r="G5">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2475,11 +2496,14 @@
       <c r="G6">
         <v>7</v>
       </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2501,89 +2525,101 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="C8">
+        <v>-2</v>
+      </c>
+      <c r="D8">
+        <v>-7</v>
+      </c>
+      <c r="E8">
+        <v>-3</v>
+      </c>
+      <c r="F8">
+        <v>-4</v>
+      </c>
+      <c r="G8">
+        <v>-9</v>
+      </c>
+      <c r="H8">
+        <v>-8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="E9">
+        <v>-4</v>
+      </c>
+      <c r="F9">
+        <v>-7</v>
+      </c>
+      <c r="G9">
+        <v>-14</v>
+      </c>
+      <c r="H9">
+        <v>-9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>-1</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>-5</v>
       </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>-5</v>
-      </c>
-      <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9">
-        <v>-8</v>
-      </c>
-      <c r="E9">
-        <v>-9</v>
-      </c>
-      <c r="F9">
-        <v>-8</v>
-      </c>
-      <c r="G9">
-        <v>-5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
-      <c r="E10">
-        <v>-3</v>
-      </c>
-      <c r="F10">
-        <v>-4</v>
-      </c>
-      <c r="G10">
-        <v>-9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10">
+        <v>-12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2605,60 +2641,69 @@
       <c r="G11">
         <v>-12</v>
       </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11">
+        <v>-12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12">
+        <v>-7</v>
+      </c>
+      <c r="C12">
+        <v>-6</v>
+      </c>
+      <c r="D12">
         <v>-2</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
       <c r="E12">
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="F12">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="G12">
         <v>-14</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12">
+        <v>-13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="C13">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="D13">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="E13">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="F13">
         <v>-8</v>
       </c>
       <c r="G13">
+        <v>-5</v>
+      </c>
+      <c r="H13">
         <v>-14</v>
       </c>
-      <c r="H13" t="s">
-        <v>46</v>
+      <c r="I13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
     <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
+    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="76">
   <si>
     <t>PAI India Division Manager</t>
   </si>
@@ -132,12 +133,51 @@
     <t>Chance of making playoffs</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Michael  Celoni</t>
+  </si>
+  <si>
+    <t>Eli Brinker</t>
+  </si>
+  <si>
+    <t>nick coughlin</t>
+  </si>
+  <si>
+    <t>Lake George</t>
+  </si>
+  <si>
+    <t>Marvin Ta</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Chris Holloway</t>
+  </si>
+  <si>
+    <t>Henry Morris</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>Chris Carbone</t>
+  </si>
+  <si>
+    <t>PJ Murphy</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
@@ -187,6 +227,27 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Home Team</t>
+  </si>
+  <si>
+    <t>Away Team</t>
+  </si>
+  <si>
+    <t>Home LPI</t>
+  </si>
+  <si>
+    <t>Away LPI</t>
+  </si>
+  <si>
+    <t>LPI Difference</t>
+  </si>
+  <si>
+    <t>Winner</t>
   </si>
 </sst>
 </file>
@@ -1565,131 +1626,131 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>27.84</v>
+        <v>27.31</v>
       </c>
       <c r="C2">
-        <v>22.16</v>
+        <v>22.54</v>
       </c>
       <c r="D2">
-        <v>18.82</v>
+        <v>17.85</v>
       </c>
       <c r="E2">
-        <v>12.76</v>
+        <v>13.02</v>
       </c>
       <c r="F2">
-        <v>7.739999999999999</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="G2">
-        <v>4.91</v>
+        <v>5.140000000000001</v>
       </c>
       <c r="H2">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="I2">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J2">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
       <c r="K2">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="L2">
         <v>0.2</v>
       </c>
       <c r="M2">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="N2">
-        <v>98.47999999999999</v>
+        <v>98.34</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>22.51</v>
+        <v>23.22</v>
       </c>
       <c r="C3">
-        <v>20.53</v>
+        <v>22.94</v>
       </c>
       <c r="D3">
-        <v>16.87</v>
+        <v>19.69</v>
       </c>
       <c r="E3">
-        <v>13.56</v>
+        <v>14.56</v>
       </c>
       <c r="F3">
-        <v>9.969999999999999</v>
+        <v>8.51</v>
       </c>
       <c r="G3">
-        <v>6.4</v>
+        <v>4.99</v>
       </c>
       <c r="H3">
-        <v>4.37</v>
+        <v>2.88</v>
       </c>
       <c r="I3">
-        <v>2.62</v>
+        <v>1.82</v>
       </c>
       <c r="J3">
-        <v>1.36</v>
+        <v>0.8</v>
       </c>
       <c r="K3">
-        <v>0.98</v>
+        <v>0.41</v>
       </c>
       <c r="L3">
-        <v>0.58</v>
+        <v>0.13</v>
       </c>
       <c r="M3">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="N3">
-        <v>96.83</v>
+        <v>98.61</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>22.5</v>
+        <v>22.62</v>
       </c>
       <c r="C4">
-        <v>22.7</v>
+        <v>19.45</v>
       </c>
       <c r="D4">
-        <v>19.74</v>
+        <v>17.09</v>
       </c>
       <c r="E4">
-        <v>15.05</v>
+        <v>14.07</v>
       </c>
       <c r="F4">
-        <v>8.649999999999999</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="G4">
-        <v>5.24</v>
+        <v>6.4</v>
       </c>
       <c r="H4">
-        <v>2.95</v>
+        <v>4.53</v>
       </c>
       <c r="I4">
-        <v>1.63</v>
+        <v>2.75</v>
       </c>
       <c r="J4">
-        <v>0.74</v>
+        <v>1.61</v>
       </c>
       <c r="K4">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="L4">
-        <v>0.17</v>
+        <v>0.43</v>
       </c>
       <c r="M4">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="N4">
-        <v>98.46000000000001</v>
+        <v>96.88</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1700,40 +1761,40 @@
         <v>18.85</v>
       </c>
       <c r="C5">
-        <v>18.12</v>
+        <v>18.26</v>
       </c>
       <c r="D5">
-        <v>16.18</v>
+        <v>16.56</v>
       </c>
       <c r="E5">
-        <v>13.66</v>
+        <v>13.98</v>
       </c>
       <c r="F5">
-        <v>11.14</v>
+        <v>10.36</v>
       </c>
       <c r="G5">
-        <v>7.73</v>
+        <v>8.06</v>
       </c>
       <c r="H5">
-        <v>5.54</v>
+        <v>5.5</v>
       </c>
       <c r="I5">
-        <v>3.52</v>
+        <v>3.28</v>
       </c>
       <c r="J5">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="K5">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="L5">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="M5">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="N5">
-        <v>94.74000000000001</v>
+        <v>94.85000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1741,43 +1802,43 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>3.15</v>
+        <v>3.19</v>
       </c>
       <c r="C6">
-        <v>5.56</v>
+        <v>5.47</v>
       </c>
       <c r="D6">
-        <v>7.59</v>
+        <v>7.670000000000001</v>
       </c>
       <c r="E6">
-        <v>9.32</v>
+        <v>9.91</v>
       </c>
       <c r="F6">
-        <v>12.11</v>
+        <v>11.25</v>
       </c>
       <c r="G6">
-        <v>12.04</v>
+        <v>12.17</v>
       </c>
       <c r="H6">
-        <v>11.03</v>
+        <v>11.48</v>
       </c>
       <c r="I6">
-        <v>10.49</v>
+        <v>10.85</v>
       </c>
       <c r="J6">
-        <v>9.76</v>
+        <v>9.629999999999999</v>
       </c>
       <c r="K6">
-        <v>7.73</v>
+        <v>8.08</v>
       </c>
       <c r="L6">
-        <v>6.260000000000001</v>
+        <v>6.18</v>
       </c>
       <c r="M6">
-        <v>4.96</v>
+        <v>4.12</v>
       </c>
       <c r="N6">
-        <v>71.28999999999999</v>
+        <v>71.99000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1785,43 +1846,43 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="C7">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="D7">
-        <v>5.28</v>
+        <v>5.74</v>
       </c>
       <c r="E7">
-        <v>7.68</v>
+        <v>7.489999999999999</v>
       </c>
       <c r="F7">
-        <v>9.619999999999999</v>
+        <v>10.15</v>
       </c>
       <c r="G7">
-        <v>10.76</v>
+        <v>10.45</v>
       </c>
       <c r="H7">
-        <v>11.56</v>
+        <v>11.12</v>
       </c>
       <c r="I7">
-        <v>11.43</v>
+        <v>11.36</v>
       </c>
       <c r="J7">
-        <v>10.85</v>
+        <v>11.22</v>
       </c>
       <c r="K7">
-        <v>10.38</v>
+        <v>10.06</v>
       </c>
       <c r="L7">
-        <v>9.289999999999999</v>
+        <v>9.229999999999999</v>
       </c>
       <c r="M7">
-        <v>8.18</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="N7">
-        <v>61.3</v>
+        <v>61.35</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1829,43 +1890,43 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="C8">
-        <v>2.73</v>
+        <v>2.76</v>
       </c>
       <c r="D8">
-        <v>4.53</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="E8">
-        <v>6.88</v>
+        <v>6.3</v>
       </c>
       <c r="F8">
-        <v>8.619999999999999</v>
+        <v>8.790000000000001</v>
       </c>
       <c r="G8">
-        <v>10.35</v>
+        <v>11.23</v>
       </c>
       <c r="H8">
-        <v>11.08</v>
+        <v>10.87</v>
       </c>
       <c r="I8">
-        <v>11.52</v>
+        <v>11.26</v>
       </c>
       <c r="J8">
-        <v>11.32</v>
+        <v>12.09</v>
       </c>
       <c r="K8">
-        <v>11.38</v>
+        <v>10.77</v>
       </c>
       <c r="L8">
-        <v>10.16</v>
+        <v>11.04</v>
       </c>
       <c r="M8">
-        <v>10.18</v>
+        <v>9.49</v>
       </c>
       <c r="N8">
-        <v>56.96</v>
+        <v>56.61000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1873,43 +1934,43 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="C9">
-        <v>1.59</v>
+        <v>1.77</v>
       </c>
       <c r="D9">
-        <v>3.24</v>
+        <v>3.43</v>
       </c>
       <c r="E9">
-        <v>5.7</v>
+        <v>5.02</v>
       </c>
       <c r="F9">
-        <v>7.6</v>
+        <v>7.89</v>
       </c>
       <c r="G9">
-        <v>9.969999999999999</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="H9">
-        <v>10.82</v>
+        <v>10.59</v>
       </c>
       <c r="I9">
-        <v>11.78</v>
+        <v>12.05</v>
       </c>
       <c r="J9">
+        <v>12.22</v>
+      </c>
+      <c r="K9">
+        <v>12.17</v>
+      </c>
+      <c r="L9">
         <v>11.81</v>
       </c>
-      <c r="K9">
-        <v>11.98</v>
-      </c>
-      <c r="L9">
-        <v>12.36</v>
-      </c>
       <c r="M9">
-        <v>12.24</v>
+        <v>12.5</v>
       </c>
       <c r="N9">
-        <v>51.61</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1920,128 +1981,128 @@
         <v>0.49</v>
       </c>
       <c r="C10">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="D10">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="E10">
-        <v>4.49</v>
+        <v>4.55</v>
       </c>
       <c r="F10">
-        <v>7.22</v>
+        <v>7.32</v>
       </c>
       <c r="G10">
-        <v>9.02</v>
+        <v>8.469999999999999</v>
       </c>
       <c r="H10">
-        <v>10.37</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="I10">
-        <v>10.89</v>
+        <v>10.93</v>
       </c>
       <c r="J10">
-        <v>12.76</v>
+        <v>12.11</v>
       </c>
       <c r="K10">
-        <v>13.22</v>
+        <v>13.03</v>
       </c>
       <c r="L10">
-        <v>13.16</v>
+        <v>14.24</v>
       </c>
       <c r="M10">
-        <v>14.91</v>
+        <v>15.6</v>
       </c>
       <c r="N10">
-        <v>45.95</v>
+        <v>45.02</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0.37</v>
       </c>
       <c r="C11">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="E11">
-        <v>4.590000000000001</v>
+        <v>4.07</v>
       </c>
       <c r="F11">
-        <v>6.64</v>
+        <v>7.19</v>
       </c>
       <c r="G11">
-        <v>8.93</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="H11">
-        <v>10.31</v>
+        <v>10.94</v>
       </c>
       <c r="I11">
-        <v>12.12</v>
+        <v>11.73</v>
       </c>
       <c r="J11">
-        <v>11.78</v>
+        <v>12.64</v>
       </c>
       <c r="K11">
-        <v>13.32</v>
+        <v>13.73</v>
       </c>
       <c r="L11">
-        <v>14.33</v>
+        <v>14.18</v>
       </c>
       <c r="M11">
-        <v>14.44</v>
+        <v>13.63</v>
       </c>
       <c r="N11">
-        <v>46.13</v>
+        <v>45.82</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="C12">
-        <v>0.79</v>
+        <v>1.06</v>
       </c>
       <c r="D12">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="E12">
-        <v>4.109999999999999</v>
+        <v>4.73</v>
       </c>
       <c r="F12">
-        <v>6.329999999999999</v>
+        <v>6.23</v>
       </c>
       <c r="G12">
-        <v>8.260000000000002</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="H12">
-        <v>10.84</v>
+        <v>10.69</v>
       </c>
       <c r="I12">
-        <v>11.42</v>
+        <v>11.77</v>
       </c>
       <c r="J12">
-        <v>13.52</v>
+        <v>11.46</v>
       </c>
       <c r="K12">
-        <v>13.31</v>
+        <v>13.36</v>
       </c>
       <c r="L12">
-        <v>14.41</v>
+        <v>14.29</v>
       </c>
       <c r="M12">
-        <v>14.59</v>
+        <v>15.08</v>
       </c>
       <c r="N12">
-        <v>44.16999999999999</v>
+        <v>45.81</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2049,43 +2110,43 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="C13">
-        <v>0.46</v>
+        <v>0.29</v>
       </c>
       <c r="D13">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="E13">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="F13">
-        <v>4.36</v>
+        <v>4.3</v>
       </c>
       <c r="G13">
-        <v>6.39</v>
+        <v>5.94</v>
       </c>
       <c r="H13">
-        <v>8.529999999999999</v>
+        <v>8.709999999999999</v>
       </c>
       <c r="I13">
-        <v>10.93</v>
+        <v>10.58</v>
       </c>
       <c r="J13">
-        <v>12.74</v>
+        <v>12.81</v>
       </c>
       <c r="K13">
-        <v>15.23</v>
+        <v>15.7</v>
       </c>
       <c r="L13">
-        <v>18.23</v>
+        <v>17.47</v>
       </c>
       <c r="M13">
-        <v>19.72</v>
+        <v>20.6</v>
       </c>
       <c r="N13">
-        <v>34.08</v>
+        <v>33.42</v>
       </c>
     </row>
   </sheetData>
@@ -2095,13 +2156,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2109,214 +2170,253 @@
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
         <v>-8</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
         <v>-9</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
         <v>-12</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
       <c r="E10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
         <v>-12</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
       <c r="E11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
         <v>-13</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
       <c r="E12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
         <v>-14</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2334,28 +2434,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2384,7 +2484,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2413,7 +2513,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2442,7 +2542,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2471,7 +2571,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2500,7 +2600,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2529,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2558,7 +2658,7 @@
         <v>-8</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2587,7 +2687,7 @@
         <v>-9</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2616,7 +2716,7 @@
         <v>-12</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2645,7 +2745,7 @@
         <v>-12</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2674,7 +2774,7 @@
         <v>-13</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2703,7 +2803,433 @@
         <v>-14</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>-8</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>-14</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>-12</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>-2</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>-9</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>-8</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>-6</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>-9</v>
+      </c>
+      <c r="F10">
+        <v>-2</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>-4</v>
+      </c>
+      <c r="F12">
+        <v>-8</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>-10</v>
+      </c>
+      <c r="F13">
+        <v>-6</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>-2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="76">
   <si>
     <t>PAI India Division Manager</t>
   </si>
@@ -58,22 +58,25 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -142,12 +145,12 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Michael  Celoni</t>
+  </si>
+  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Michael  Celoni</t>
-  </si>
-  <si>
     <t>Eli Brinker</t>
   </si>
   <si>
@@ -166,46 +169,40 @@
     <t>Chris Holloway</t>
   </si>
   <si>
+    <t>Chris Carbone</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>PJ Murphy</t>
+  </si>
+  <si>
     <t>Henry Morris</t>
   </si>
   <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
-    <t>Chris Carbone</t>
-  </si>
-  <si>
-    <t>PJ Murphy</t>
-  </si>
-  <si>
     <t>↑4</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
     <t>↓1</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↓3</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>↓5</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -227,6 +224,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -657,34 +657,34 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -728,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -742,34 +742,34 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -792,10 +792,10 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -810,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -824,34 +824,34 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -865,7 +865,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -874,10 +874,10 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -886,13 +886,13 @@
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -900,40 +900,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -944,10 +944,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -956,25 +956,25 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1000,7 +1000,7 @@
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -1012,10 +1012,10 @@
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1026,16 +1026,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -1047,7 +1047,7 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -1105,40 +1105,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1156,13 +1156,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1173,10 +1173,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1187,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>3.083333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1198,13 +1198,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.083333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1212,13 +1212,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3.166666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1229,10 +1229,10 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1240,13 +1240,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1254,13 +1254,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>3.416666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1268,13 +1268,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1285,7 +1285,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>3.916666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1296,13 +1296,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>4.083333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1310,13 +1310,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>4.083333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1324,10 +1324,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>4.25</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1348,16 +1348,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1365,16 +1365,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>4.916666666666667</v>
+        <v>5.75</v>
       </c>
       <c r="D2">
-        <v>-0.08333333333333304</v>
+        <v>-1.25</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1382,16 +1382,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>4.75</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D3">
-        <v>-1.25</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1402,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1419,13 +1419,13 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>3.916666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D5">
-        <v>-0.08333333333333348</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1433,13 +1433,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>3.416666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.5833333333333335</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1450,13 +1450,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>3.25</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D7">
-        <v>-0.75</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1467,13 +1467,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3.083333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D8">
-        <v>-0.9166666666666665</v>
+        <v>-0.4166666666666665</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-0.5833333333333335</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1501,16 +1501,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>2.916666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D10">
-        <v>-0.08333333333333348</v>
+        <v>1.25</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1518,16 +1518,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2.75</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D11">
-        <v>0.75</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1538,13 +1538,13 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.666666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D12">
-        <v>0.6666666666666665</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1579,46 +1579,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1626,175 +1626,175 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>27.31</v>
+        <v>30.67</v>
       </c>
       <c r="C2">
-        <v>22.54</v>
+        <v>23.55</v>
       </c>
       <c r="D2">
-        <v>17.85</v>
+        <v>18.24</v>
       </c>
       <c r="E2">
-        <v>13.02</v>
+        <v>11.57</v>
       </c>
       <c r="F2">
-        <v>8.039999999999999</v>
+        <v>7.539999999999999</v>
       </c>
       <c r="G2">
-        <v>5.140000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="H2">
-        <v>2.82</v>
+        <v>2.2</v>
       </c>
       <c r="I2">
-        <v>1.62</v>
+        <v>1.08</v>
       </c>
       <c r="J2">
-        <v>0.91</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="K2">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="L2">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="M2">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="N2">
-        <v>98.34</v>
+        <v>98.65000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>23.22</v>
+        <v>25.75</v>
       </c>
       <c r="C3">
-        <v>22.94</v>
+        <v>23.96</v>
       </c>
       <c r="D3">
-        <v>19.69</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>14.56</v>
+        <v>13.42</v>
       </c>
       <c r="F3">
-        <v>8.51</v>
+        <v>7.430000000000001</v>
       </c>
       <c r="G3">
-        <v>4.99</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="H3">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="I3">
-        <v>1.82</v>
+        <v>1.12</v>
       </c>
       <c r="J3">
-        <v>0.8</v>
+        <v>0.63</v>
       </c>
       <c r="K3">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="L3">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="M3">
         <v>0.05</v>
       </c>
       <c r="N3">
-        <v>98.61</v>
+        <v>98.88</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>22.62</v>
+        <v>20.3</v>
       </c>
       <c r="C4">
-        <v>19.45</v>
+        <v>19.16</v>
       </c>
       <c r="D4">
-        <v>17.09</v>
+        <v>17.16</v>
       </c>
       <c r="E4">
-        <v>14.07</v>
+        <v>15.17</v>
       </c>
       <c r="F4">
-        <v>9.969999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="G4">
-        <v>6.4</v>
+        <v>7.02</v>
       </c>
       <c r="H4">
-        <v>4.53</v>
+        <v>4.569999999999999</v>
       </c>
       <c r="I4">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="K4">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="L4">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="M4">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="N4">
-        <v>96.88</v>
+        <v>96.57999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>18.85</v>
+        <v>19.34</v>
       </c>
       <c r="C5">
-        <v>18.26</v>
+        <v>22.15</v>
       </c>
       <c r="D5">
-        <v>16.56</v>
+        <v>21.94</v>
       </c>
       <c r="E5">
-        <v>13.98</v>
+        <v>17.75</v>
       </c>
       <c r="F5">
-        <v>10.36</v>
+        <v>9.09</v>
       </c>
       <c r="G5">
-        <v>8.06</v>
+        <v>4.47</v>
       </c>
       <c r="H5">
-        <v>5.5</v>
+        <v>2.56</v>
       </c>
       <c r="I5">
-        <v>3.28</v>
+        <v>1.36</v>
       </c>
       <c r="J5">
-        <v>2.5</v>
+        <v>0.64</v>
       </c>
       <c r="K5">
-        <v>1.4</v>
+        <v>0.43</v>
       </c>
       <c r="L5">
-        <v>0.8</v>
+        <v>0.21</v>
       </c>
       <c r="M5">
-        <v>0.45</v>
+        <v>0.06</v>
       </c>
       <c r="N5">
-        <v>94.85000000000001</v>
+        <v>98.66</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1802,351 +1802,351 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>3.19</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>5.47</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>7.670000000000001</v>
+        <v>3.68</v>
       </c>
       <c r="E6">
-        <v>9.91</v>
+        <v>6.23</v>
       </c>
       <c r="F6">
-        <v>11.25</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="G6">
-        <v>12.17</v>
+        <v>10.26</v>
       </c>
       <c r="H6">
-        <v>11.48</v>
+        <v>10.9</v>
       </c>
       <c r="I6">
-        <v>10.85</v>
+        <v>12.34</v>
       </c>
       <c r="J6">
-        <v>9.629999999999999</v>
+        <v>11.76</v>
       </c>
       <c r="K6">
-        <v>8.08</v>
+        <v>11.63</v>
       </c>
       <c r="L6">
-        <v>6.18</v>
+        <v>11.57</v>
       </c>
       <c r="M6">
-        <v>4.12</v>
+        <v>10.63</v>
       </c>
       <c r="N6">
-        <v>71.99000000000001</v>
+        <v>54.41</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.64</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>2.04</v>
       </c>
       <c r="D7">
-        <v>5.74</v>
+        <v>3.22</v>
       </c>
       <c r="E7">
-        <v>7.489999999999999</v>
+        <v>5.69</v>
       </c>
       <c r="F7">
-        <v>10.15</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="G7">
-        <v>10.45</v>
+        <v>10.58</v>
       </c>
       <c r="H7">
-        <v>11.12</v>
+        <v>11.24</v>
       </c>
       <c r="I7">
-        <v>11.36</v>
+        <v>11.61</v>
       </c>
       <c r="J7">
-        <v>11.22</v>
+        <v>11.84</v>
       </c>
       <c r="K7">
-        <v>10.06</v>
+        <v>11.83</v>
       </c>
       <c r="L7">
-        <v>9.229999999999999</v>
+        <v>11.48</v>
       </c>
       <c r="M7">
-        <v>8.140000000000001</v>
+        <v>11.54</v>
       </c>
       <c r="N7">
-        <v>61.35</v>
+        <v>53.31</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>1.01</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="C8">
-        <v>2.76</v>
+        <v>1.99</v>
       </c>
       <c r="D8">
-        <v>4.390000000000001</v>
+        <v>3.78</v>
       </c>
       <c r="E8">
-        <v>6.3</v>
+        <v>6.97</v>
       </c>
       <c r="F8">
-        <v>8.790000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="G8">
-        <v>11.23</v>
+        <v>12.29</v>
       </c>
       <c r="H8">
-        <v>10.87</v>
+        <v>11.86</v>
       </c>
       <c r="I8">
-        <v>11.26</v>
+        <v>11.76</v>
       </c>
       <c r="J8">
-        <v>12.09</v>
+        <v>11.02</v>
       </c>
       <c r="K8">
-        <v>10.77</v>
+        <v>10.7</v>
       </c>
       <c r="L8">
-        <v>11.04</v>
+        <v>10.08</v>
       </c>
       <c r="M8">
-        <v>9.49</v>
+        <v>8.709999999999999</v>
       </c>
       <c r="N8">
-        <v>56.61000000000001</v>
+        <v>59.48999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0.84</v>
+        <v>0.66</v>
       </c>
       <c r="C9">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="D9">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
       <c r="E9">
-        <v>5.02</v>
+        <v>6.43</v>
       </c>
       <c r="F9">
-        <v>7.89</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="G9">
-        <v>9.710000000000001</v>
+        <v>10.83</v>
       </c>
       <c r="H9">
-        <v>10.59</v>
+        <v>11.57</v>
       </c>
       <c r="I9">
-        <v>12.05</v>
+        <v>11.68</v>
       </c>
       <c r="J9">
-        <v>12.22</v>
+        <v>11.97</v>
       </c>
       <c r="K9">
-        <v>12.17</v>
+        <v>11.48</v>
       </c>
       <c r="L9">
-        <v>11.81</v>
+        <v>10.53</v>
       </c>
       <c r="M9">
-        <v>12.5</v>
+        <v>9.99</v>
       </c>
       <c r="N9">
-        <v>51.3</v>
+        <v>56.03</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>1.06</v>
+        <v>1.81</v>
       </c>
       <c r="D10">
-        <v>2.33</v>
+        <v>3.23</v>
       </c>
       <c r="E10">
-        <v>4.55</v>
+        <v>6.45</v>
       </c>
       <c r="F10">
-        <v>7.32</v>
+        <v>10.16</v>
       </c>
       <c r="G10">
-        <v>8.469999999999999</v>
+        <v>11.33</v>
       </c>
       <c r="H10">
-        <v>9.869999999999999</v>
+        <v>12.26</v>
       </c>
       <c r="I10">
-        <v>10.93</v>
+        <v>11.79</v>
       </c>
       <c r="J10">
-        <v>12.11</v>
+        <v>11.28</v>
       </c>
       <c r="K10">
-        <v>13.03</v>
+        <v>10.77</v>
       </c>
       <c r="L10">
-        <v>14.24</v>
+        <v>10.77</v>
       </c>
       <c r="M10">
-        <v>15.6</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="N10">
-        <v>45.02</v>
+        <v>57.63000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>0.37</v>
+        <v>0.19</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="D11">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="E11">
-        <v>4.07</v>
+        <v>4.42</v>
       </c>
       <c r="F11">
-        <v>7.19</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="G11">
-        <v>8.640000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="H11">
-        <v>10.94</v>
+        <v>11.08</v>
       </c>
       <c r="I11">
-        <v>11.73</v>
+        <v>11.43</v>
       </c>
       <c r="J11">
-        <v>12.64</v>
+        <v>12.46</v>
       </c>
       <c r="K11">
-        <v>13.73</v>
+        <v>13.28</v>
       </c>
       <c r="L11">
-        <v>14.18</v>
+        <v>13.77</v>
       </c>
       <c r="M11">
-        <v>13.63</v>
+        <v>14.55</v>
       </c>
       <c r="N11">
-        <v>45.82</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="C12">
-        <v>1.06</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="D12">
-        <v>2.22</v>
+        <v>1.72</v>
       </c>
       <c r="E12">
-        <v>4.73</v>
+        <v>3.82</v>
       </c>
       <c r="F12">
-        <v>6.23</v>
+        <v>7.27</v>
       </c>
       <c r="G12">
-        <v>8.799999999999999</v>
+        <v>8.649999999999999</v>
       </c>
       <c r="H12">
-        <v>10.69</v>
+        <v>10.52</v>
       </c>
       <c r="I12">
-        <v>11.77</v>
+        <v>11.78</v>
       </c>
       <c r="J12">
-        <v>11.46</v>
+        <v>12.91</v>
       </c>
       <c r="K12">
-        <v>13.36</v>
+        <v>13.71</v>
       </c>
       <c r="L12">
-        <v>14.29</v>
+        <v>14.37</v>
       </c>
       <c r="M12">
-        <v>15.08</v>
+        <v>14.39</v>
       </c>
       <c r="N12">
-        <v>45.81</v>
+        <v>44.62</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="C13">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
-        <v>1.15</v>
+        <v>0.83</v>
       </c>
       <c r="E13">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="F13">
-        <v>4.3</v>
+        <v>5.33</v>
       </c>
       <c r="G13">
-        <v>5.94</v>
+        <v>6.98</v>
       </c>
       <c r="H13">
-        <v>8.709999999999999</v>
+        <v>9.139999999999999</v>
       </c>
       <c r="I13">
-        <v>10.58</v>
+        <v>11.05</v>
       </c>
       <c r="J13">
-        <v>12.81</v>
+        <v>12.97</v>
       </c>
       <c r="K13">
-        <v>15.7</v>
+        <v>14.36</v>
       </c>
       <c r="L13">
-        <v>17.47</v>
+        <v>16.62</v>
       </c>
       <c r="M13">
-        <v>20.6</v>
+        <v>20.25</v>
       </c>
       <c r="N13">
-        <v>33.42</v>
+        <v>35.8</v>
       </c>
     </row>
   </sheetData>
@@ -2164,19 +2164,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2184,19 +2184,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2204,19 +2204,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2227,16 +2227,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2247,16 +2247,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2267,16 +2267,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2287,16 +2287,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2307,16 +2307,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2327,10 +2327,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -2344,10 +2344,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>-12</v>
@@ -2367,16 +2367,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2384,19 +2384,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>-13</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2404,19 +2404,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2426,97 +2426,106 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>-7</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>-2</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>14</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3">
+      <c r="I3">
         <v>18</v>
       </c>
-      <c r="H3">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2541,11 +2550,14 @@
       <c r="H4">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2570,11 +2582,14 @@
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2599,11 +2614,14 @@
       <c r="H6">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2628,11 +2646,14 @@
       <c r="H7">
         <v>4</v>
       </c>
-      <c r="I7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2657,11 +2678,14 @@
       <c r="H8">
         <v>-8</v>
       </c>
-      <c r="I8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8">
+        <v>-11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2686,40 +2710,46 @@
       <c r="H9">
         <v>-9</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9">
+        <v>-12</v>
+      </c>
+      <c r="J9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="G10">
-        <v>-5</v>
+        <v>-14</v>
       </c>
       <c r="H10">
+        <v>-13</v>
+      </c>
+      <c r="I10">
         <v>-12</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2744,66 +2774,75 @@
       <c r="H11">
         <v>-12</v>
       </c>
-      <c r="I11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11">
+        <v>-13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="C12">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="D12">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="E12">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="F12">
         <v>-8</v>
       </c>
       <c r="G12">
+        <v>-5</v>
+      </c>
+      <c r="H12">
         <v>-14</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-13</v>
       </c>
-      <c r="I12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="G13">
         <v>-5</v>
       </c>
       <c r="H13">
-        <v>-14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>61</v>
+        <v>-12</v>
+      </c>
+      <c r="I13">
+        <v>-17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2813,7 +2852,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3128,110 +3167,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>-10</v>
-      </c>
-      <c r="F13">
-        <v>-6</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>-2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="79">
   <si>
     <t>PAI India Division Manager</t>
   </si>
@@ -58,22 +58,28 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -142,12 +148,12 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Michael  Celoni</t>
+  </si>
+  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Michael  Celoni</t>
-  </si>
-  <si>
     <t>Eli Brinker</t>
   </si>
   <si>
@@ -166,46 +172,43 @@
     <t>Chris Holloway</t>
   </si>
   <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>PJ Murphy</t>
+  </si>
+  <si>
+    <t>Chris Carbone</t>
+  </si>
+  <si>
     <t>Henry Morris</t>
   </si>
   <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
-    <t>Chris Carbone</t>
-  </si>
-  <si>
-    <t>PJ Murphy</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -227,6 +230,12 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -657,16 +666,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -681,10 +690,10 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -701,34 +710,34 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -739,34 +748,34 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
         <v>13</v>
@@ -780,13 +789,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -801,7 +810,7 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -810,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -821,37 +830,37 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -862,37 +871,37 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -900,25 +909,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -927,10 +936,10 @@
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -947,34 +956,34 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -991,7 +1000,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -1000,7 +1009,7 @@
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -1012,10 +1021,10 @@
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1026,7 +1035,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1035,7 +1044,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -1044,16 +1053,16 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -1067,37 +1076,37 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1105,40 +1114,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1156,13 +1165,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1173,10 +1182,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1184,13 +1193,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.083333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1198,13 +1207,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3.083333333333333</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1212,13 +1221,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3.166666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1226,13 +1235,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>3.333333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1240,13 +1249,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>3.333333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1254,13 +1263,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>3.416666666666667</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1271,7 +1280,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>3.75</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1282,13 +1291,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>3.916666666666667</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1296,13 +1305,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>4.083333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1313,10 +1322,10 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>4.083333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1327,7 +1336,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>4.25</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1348,16 +1357,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1365,16 +1374,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>4.916666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="D2">
-        <v>-0.08333333333333304</v>
+        <v>-0.75</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1382,16 +1391,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1399,16 +1408,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>4.666666666666667</v>
+        <v>5.75</v>
       </c>
       <c r="D4">
-        <v>1.666666666666667</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1416,16 +1425,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.916666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D5">
-        <v>-0.08333333333333348</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1433,13 +1442,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3.416666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D6">
-        <v>-0.5833333333333335</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1450,16 +1459,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1467,16 +1476,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>3.083333333333333</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-0.9166666666666665</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1487,13 +1496,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1501,13 +1510,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>2.916666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D10">
-        <v>-0.08333333333333348</v>
+        <v>0.9166666666666665</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1518,16 +1527,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="D11">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1535,16 +1544,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>2.666666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="D12">
-        <v>0.6666666666666665</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1555,13 +1564,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>2.666666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D13">
-        <v>0.6666666666666665</v>
+        <v>0.4166666666666665</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1579,442 +1588,442 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>27.31</v>
+        <v>31.88</v>
       </c>
       <c r="C2">
-        <v>22.54</v>
+        <v>24.96</v>
       </c>
       <c r="D2">
-        <v>17.85</v>
+        <v>19.45</v>
       </c>
       <c r="E2">
-        <v>13.02</v>
+        <v>11.96</v>
       </c>
       <c r="F2">
-        <v>8.039999999999999</v>
+        <v>5.79</v>
       </c>
       <c r="G2">
-        <v>5.140000000000001</v>
+        <v>3.03</v>
       </c>
       <c r="H2">
-        <v>2.82</v>
+        <v>1.45</v>
       </c>
       <c r="I2">
-        <v>1.62</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="J2">
-        <v>0.91</v>
+        <v>0.43</v>
       </c>
       <c r="K2">
-        <v>0.43</v>
+        <v>0.19</v>
       </c>
       <c r="L2">
-        <v>0.2</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="M2">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="N2">
-        <v>98.34</v>
+        <v>99.29999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>23.22</v>
+        <v>24.79</v>
       </c>
       <c r="C3">
-        <v>22.94</v>
+        <v>22.14</v>
       </c>
       <c r="D3">
-        <v>19.69</v>
+        <v>18.93</v>
       </c>
       <c r="E3">
-        <v>14.56</v>
+        <v>13.61</v>
       </c>
       <c r="F3">
-        <v>8.51</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="G3">
-        <v>4.99</v>
+        <v>5.21</v>
       </c>
       <c r="H3">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="I3">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="J3">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="K3">
-        <v>0.41</v>
+        <v>0.74</v>
       </c>
       <c r="L3">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="M3">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="N3">
-        <v>98.61</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>22.62</v>
+        <v>22.39</v>
       </c>
       <c r="C4">
-        <v>19.45</v>
+        <v>21.05</v>
       </c>
       <c r="D4">
-        <v>17.09</v>
+        <v>17.68</v>
       </c>
       <c r="E4">
-        <v>14.07</v>
+        <v>13.31</v>
       </c>
       <c r="F4">
-        <v>9.969999999999999</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="G4">
-        <v>6.4</v>
+        <v>6.09</v>
       </c>
       <c r="H4">
-        <v>4.53</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="I4">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="J4">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="K4">
-        <v>0.86</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L4">
-        <v>0.43</v>
+        <v>0.59</v>
       </c>
       <c r="M4">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="N4">
-        <v>96.88</v>
+        <v>96.45999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>18.85</v>
+        <v>16.15</v>
       </c>
       <c r="C5">
-        <v>18.26</v>
+        <v>19.18</v>
       </c>
       <c r="D5">
-        <v>16.56</v>
+        <v>18.63</v>
       </c>
       <c r="E5">
-        <v>13.98</v>
+        <v>17.65</v>
       </c>
       <c r="F5">
-        <v>10.36</v>
+        <v>11.16</v>
       </c>
       <c r="G5">
-        <v>8.06</v>
+        <v>6.959999999999999</v>
       </c>
       <c r="H5">
-        <v>5.5</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="I5">
-        <v>3.28</v>
+        <v>2.76</v>
       </c>
       <c r="J5">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="K5">
-        <v>1.4</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
-        <v>0.8</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="M5">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="N5">
-        <v>94.85000000000001</v>
+        <v>96.77</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>3.19</v>
+        <v>1.37</v>
       </c>
       <c r="C6">
-        <v>5.47</v>
+        <v>3.26</v>
       </c>
       <c r="D6">
-        <v>7.670000000000001</v>
+        <v>5.17</v>
       </c>
       <c r="E6">
-        <v>9.91</v>
+        <v>7.340000000000001</v>
       </c>
       <c r="F6">
-        <v>11.25</v>
+        <v>10.14</v>
       </c>
       <c r="G6">
-        <v>12.17</v>
+        <v>10.48</v>
       </c>
       <c r="H6">
-        <v>11.48</v>
+        <v>11.19</v>
       </c>
       <c r="I6">
-        <v>10.85</v>
+        <v>10.88</v>
       </c>
       <c r="J6">
-        <v>9.629999999999999</v>
+        <v>10.66</v>
       </c>
       <c r="K6">
-        <v>8.08</v>
+        <v>10.5</v>
       </c>
       <c r="L6">
-        <v>6.18</v>
+        <v>9.950000000000001</v>
       </c>
       <c r="M6">
-        <v>4.12</v>
+        <v>9.06</v>
       </c>
       <c r="N6">
-        <v>71.99000000000001</v>
+        <v>59.83</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>1.59</v>
       </c>
       <c r="D7">
-        <v>5.74</v>
+        <v>3.52</v>
       </c>
       <c r="E7">
-        <v>7.489999999999999</v>
+        <v>5.35</v>
       </c>
       <c r="F7">
-        <v>10.15</v>
+        <v>7.66</v>
       </c>
       <c r="G7">
-        <v>10.45</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="H7">
-        <v>11.12</v>
+        <v>10.53</v>
       </c>
       <c r="I7">
-        <v>11.36</v>
+        <v>11.49</v>
       </c>
       <c r="J7">
-        <v>11.22</v>
+        <v>11.34</v>
       </c>
       <c r="K7">
-        <v>10.06</v>
+        <v>12.16</v>
       </c>
       <c r="L7">
-        <v>9.229999999999999</v>
+        <v>12.23</v>
       </c>
       <c r="M7">
-        <v>8.140000000000001</v>
+        <v>13.48</v>
       </c>
       <c r="N7">
-        <v>61.35</v>
+        <v>50.79</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1.01</v>
+        <v>0.67</v>
       </c>
       <c r="C8">
-        <v>2.76</v>
+        <v>1.69</v>
       </c>
       <c r="D8">
-        <v>4.390000000000001</v>
+        <v>3.17</v>
       </c>
       <c r="E8">
-        <v>6.3</v>
+        <v>5.47</v>
       </c>
       <c r="F8">
-        <v>8.790000000000001</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="G8">
-        <v>11.23</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="H8">
-        <v>10.87</v>
+        <v>10.71</v>
       </c>
       <c r="I8">
-        <v>11.26</v>
+        <v>11.39</v>
       </c>
       <c r="J8">
-        <v>12.09</v>
+        <v>11.7</v>
       </c>
       <c r="K8">
-        <v>10.77</v>
+        <v>12.13</v>
       </c>
       <c r="L8">
-        <v>11.04</v>
+        <v>12.86</v>
       </c>
       <c r="M8">
-        <v>9.49</v>
+        <v>13.91</v>
       </c>
       <c r="N8">
-        <v>56.61000000000001</v>
+        <v>49.40000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0.84</v>
+        <v>0.53</v>
       </c>
       <c r="C9">
-        <v>1.77</v>
+        <v>1.51</v>
       </c>
       <c r="D9">
-        <v>3.43</v>
+        <v>2.91</v>
       </c>
       <c r="E9">
-        <v>5.02</v>
+        <v>5.53</v>
       </c>
       <c r="F9">
-        <v>7.89</v>
+        <v>8.6</v>
       </c>
       <c r="G9">
-        <v>9.710000000000001</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="H9">
-        <v>10.59</v>
+        <v>10.46</v>
       </c>
       <c r="I9">
-        <v>12.05</v>
+        <v>11.63</v>
       </c>
       <c r="J9">
-        <v>12.22</v>
+        <v>11.65</v>
       </c>
       <c r="K9">
-        <v>12.17</v>
+        <v>12.86</v>
       </c>
       <c r="L9">
-        <v>11.81</v>
+        <v>12.28</v>
       </c>
       <c r="M9">
-        <v>12.5</v>
+        <v>12.15</v>
       </c>
       <c r="N9">
-        <v>51.3</v>
+        <v>51.06</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>1.06</v>
+        <v>1.54</v>
       </c>
       <c r="D10">
-        <v>2.33</v>
+        <v>3.29</v>
       </c>
       <c r="E10">
-        <v>4.55</v>
+        <v>5.16</v>
       </c>
       <c r="F10">
-        <v>7.32</v>
+        <v>7.670000000000001</v>
       </c>
       <c r="G10">
-        <v>8.469999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H10">
-        <v>9.869999999999999</v>
+        <v>11.11</v>
       </c>
       <c r="I10">
-        <v>10.93</v>
+        <v>10.71</v>
       </c>
       <c r="J10">
-        <v>12.11</v>
+        <v>11.98</v>
       </c>
       <c r="K10">
-        <v>13.03</v>
+        <v>12.28</v>
       </c>
       <c r="L10">
-        <v>14.24</v>
+        <v>12.74</v>
       </c>
       <c r="M10">
-        <v>15.6</v>
+        <v>13.22</v>
       </c>
       <c r="N10">
-        <v>45.02</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2022,131 +2031,131 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="D11">
-        <v>1.88</v>
+        <v>2.81</v>
       </c>
       <c r="E11">
-        <v>4.07</v>
+        <v>5.59</v>
       </c>
       <c r="F11">
-        <v>7.19</v>
+        <v>9.16</v>
       </c>
       <c r="G11">
-        <v>8.640000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="H11">
-        <v>10.94</v>
+        <v>11.21</v>
       </c>
       <c r="I11">
-        <v>11.73</v>
+        <v>12.81</v>
       </c>
       <c r="J11">
-        <v>12.64</v>
+        <v>12.75</v>
       </c>
       <c r="K11">
-        <v>13.73</v>
+        <v>11.39</v>
       </c>
       <c r="L11">
-        <v>14.18</v>
+        <v>10.63</v>
       </c>
       <c r="M11">
-        <v>13.63</v>
+        <v>10.49</v>
       </c>
       <c r="N11">
-        <v>45.82</v>
+        <v>54.73999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0.31</v>
       </c>
       <c r="C12">
-        <v>1.06</v>
+        <v>0.74</v>
       </c>
       <c r="D12">
-        <v>2.22</v>
+        <v>1.97</v>
       </c>
       <c r="E12">
-        <v>4.73</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>6.23</v>
+        <v>7.02</v>
       </c>
       <c r="G12">
-        <v>8.799999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="H12">
-        <v>10.69</v>
+        <v>10.4</v>
       </c>
       <c r="I12">
-        <v>11.77</v>
+        <v>11.49</v>
       </c>
       <c r="J12">
-        <v>11.46</v>
+        <v>12.78</v>
       </c>
       <c r="K12">
-        <v>13.36</v>
+        <v>13.53</v>
       </c>
       <c r="L12">
-        <v>14.29</v>
+        <v>14.2</v>
       </c>
       <c r="M12">
-        <v>15.08</v>
+        <v>15.61</v>
       </c>
       <c r="N12">
-        <v>45.81</v>
+        <v>43.88</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="C13">
-        <v>0.29</v>
+        <v>1.07</v>
       </c>
       <c r="D13">
-        <v>1.15</v>
+        <v>2.47</v>
       </c>
       <c r="E13">
-        <v>2.3</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="F13">
-        <v>4.3</v>
+        <v>7.95</v>
       </c>
       <c r="G13">
-        <v>5.94</v>
+        <v>10.11</v>
       </c>
       <c r="H13">
-        <v>8.709999999999999</v>
+        <v>11.51</v>
       </c>
       <c r="I13">
-        <v>10.58</v>
+        <v>11.92</v>
       </c>
       <c r="J13">
-        <v>12.81</v>
+        <v>12.34</v>
       </c>
       <c r="K13">
-        <v>15.7</v>
+        <v>12.44</v>
       </c>
       <c r="L13">
-        <v>17.47</v>
+        <v>13.53</v>
       </c>
       <c r="M13">
-        <v>20.6</v>
+        <v>11.4</v>
       </c>
       <c r="N13">
-        <v>33.42</v>
+        <v>50.28999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2164,19 +2173,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2184,19 +2193,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2204,19 +2213,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2227,16 +2236,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2247,16 +2256,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2267,16 +2276,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2287,16 +2296,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2307,16 +2316,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2327,16 +2336,16 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2344,19 +2353,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2364,16 +2373,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -2387,16 +2396,16 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2404,19 +2413,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>-14</v>
+        <v>-23</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2426,97 +2435,115 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>-7</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>-2</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="G2">
-        <v>14</v>
-      </c>
-      <c r="H2">
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3">
+      <c r="I3">
         <v>18</v>
       </c>
-      <c r="H3">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2541,11 +2568,17 @@
       <c r="H4">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2570,11 +2603,17 @@
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2599,11 +2638,17 @@
       <c r="H6">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2628,11 +2673,17 @@
       <c r="H7">
         <v>4</v>
       </c>
-      <c r="I7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2657,11 +2708,17 @@
       <c r="H8">
         <v>-8</v>
       </c>
-      <c r="I8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8">
+        <v>-11</v>
+      </c>
+      <c r="J8">
+        <v>-7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2686,42 +2743,54 @@
       <c r="H9">
         <v>-9</v>
       </c>
-      <c r="I9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9">
+        <v>-12</v>
+      </c>
+      <c r="J9">
+        <v>-10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="G10">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="H10">
         <v>-12</v>
       </c>
-      <c r="I10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10">
+        <v>-13</v>
+      </c>
+      <c r="J10">
+        <v>-11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>-5</v>
@@ -2730,25 +2799,31 @@
         <v>-2</v>
       </c>
       <c r="D11">
+        <v>-8</v>
+      </c>
+      <c r="E11">
+        <v>-9</v>
+      </c>
+      <c r="F11">
+        <v>-8</v>
+      </c>
+      <c r="G11">
         <v>-5</v>
       </c>
-      <c r="E11">
-        <v>-5</v>
-      </c>
-      <c r="F11">
-        <v>-6</v>
-      </c>
-      <c r="G11">
-        <v>-12</v>
-      </c>
       <c r="H11">
-        <v>-12</v>
-      </c>
-      <c r="I11" t="s">
+        <v>-14</v>
+      </c>
+      <c r="I11">
+        <v>-13</v>
+      </c>
+      <c r="J11">
+        <v>-16</v>
+      </c>
+      <c r="K11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2773,37 +2848,49 @@
       <c r="H12">
         <v>-13</v>
       </c>
-      <c r="I12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12">
+        <v>-12</v>
+      </c>
+      <c r="J12">
+        <v>-17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="G13">
         <v>-5</v>
       </c>
       <c r="H13">
-        <v>-14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>61</v>
+        <v>-12</v>
+      </c>
+      <c r="I13">
+        <v>-17</v>
+      </c>
+      <c r="J13">
+        <v>-23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2813,7 +2900,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2821,25 +2908,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2847,25 +2934,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2873,25 +2960,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>-14</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>-10</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2902,22 +2989,22 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
         <v>5</v>
-      </c>
-      <c r="G4">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2925,25 +3012,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
       <c r="E5">
-        <v>11</v>
+        <v>-14</v>
       </c>
       <c r="F5">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2951,25 +3038,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>-2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>-23</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2980,22 +3067,22 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>-12</v>
       </c>
       <c r="F7">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3003,25 +3090,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3032,22 +3119,22 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3055,22 +3142,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
       <c r="E10">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
@@ -3081,25 +3168,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3110,22 +3197,22 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="F12">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3133,25 +3220,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>-10</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>-6</v>
+        <v>26</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3159,25 +3246,25 @@
         <v>12</v>
       </c>
       <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3188,48 +3275,22 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="F15">
+        <v>-2</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
         <v>3</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>-2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -1632,46 +1632,46 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>31.88</v>
+        <v>21.36</v>
       </c>
       <c r="C2">
-        <v>24.96</v>
+        <v>16.23</v>
       </c>
       <c r="D2">
-        <v>19.45</v>
+        <v>9.59</v>
       </c>
       <c r="E2">
-        <v>11.96</v>
+        <v>6.69</v>
       </c>
       <c r="F2">
-        <v>5.79</v>
+        <v>13.1</v>
       </c>
       <c r="G2">
-        <v>3.03</v>
+        <v>10.5</v>
       </c>
       <c r="H2">
-        <v>1.45</v>
+        <v>2.71</v>
       </c>
       <c r="I2">
-        <v>0.7799999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="J2">
-        <v>0.43</v>
+        <v>6.31</v>
       </c>
       <c r="K2">
-        <v>0.19</v>
+        <v>5.56</v>
       </c>
       <c r="L2">
-        <v>0.06999999999999999</v>
+        <v>2.52</v>
       </c>
       <c r="M2">
-        <v>0.01</v>
+        <v>2.63</v>
       </c>
       <c r="N2">
-        <v>99.29999999999998</v>
+        <v>82.98</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1679,87 +1679,87 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>24.79</v>
+        <v>17.72</v>
       </c>
       <c r="C3">
-        <v>22.14</v>
+        <v>17.94</v>
       </c>
       <c r="D3">
-        <v>18.93</v>
+        <v>12.9</v>
       </c>
       <c r="E3">
-        <v>13.61</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="F3">
-        <v>8.210000000000001</v>
+        <v>10.81</v>
       </c>
       <c r="G3">
-        <v>5.21</v>
+        <v>12.48</v>
       </c>
       <c r="H3">
-        <v>3.05</v>
+        <v>4.83</v>
       </c>
       <c r="I3">
-        <v>1.76</v>
+        <v>2.29</v>
       </c>
       <c r="J3">
-        <v>1.09</v>
+        <v>5.06</v>
       </c>
       <c r="K3">
-        <v>0.74</v>
+        <v>4.66</v>
       </c>
       <c r="L3">
-        <v>0.35</v>
+        <v>2.34</v>
       </c>
       <c r="M3">
-        <v>0.12</v>
+        <v>2.17</v>
       </c>
       <c r="N3">
-        <v>97.7</v>
+        <v>85.77</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>22.39</v>
+        <v>15.74</v>
       </c>
       <c r="C4">
-        <v>21.05</v>
+        <v>16.96</v>
       </c>
       <c r="D4">
-        <v>17.68</v>
+        <v>18.04</v>
       </c>
       <c r="E4">
-        <v>13.31</v>
+        <v>11.46</v>
       </c>
       <c r="F4">
-        <v>9.460000000000001</v>
+        <v>6.98</v>
       </c>
       <c r="G4">
-        <v>6.09</v>
+        <v>11.61</v>
       </c>
       <c r="H4">
-        <v>4.100000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="I4">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="J4">
-        <v>1.73</v>
+        <v>2.84</v>
       </c>
       <c r="K4">
-        <v>0.8999999999999999</v>
+        <v>3.32</v>
       </c>
       <c r="L4">
-        <v>0.59</v>
+        <v>1.64</v>
       </c>
       <c r="M4">
-        <v>0.32</v>
+        <v>1.04</v>
       </c>
       <c r="N4">
-        <v>96.45999999999999</v>
+        <v>91.16</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1767,43 +1767,43 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>16.15</v>
+        <v>12.14</v>
       </c>
       <c r="C5">
-        <v>19.18</v>
+        <v>13.99</v>
       </c>
       <c r="D5">
-        <v>18.63</v>
+        <v>15.41</v>
       </c>
       <c r="E5">
-        <v>17.65</v>
+        <v>7.539999999999999</v>
       </c>
       <c r="F5">
-        <v>11.16</v>
+        <v>9.51</v>
       </c>
       <c r="G5">
-        <v>6.959999999999999</v>
+        <v>13.87</v>
       </c>
       <c r="H5">
-        <v>4.279999999999999</v>
+        <v>7.149999999999999</v>
       </c>
       <c r="I5">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="J5">
-        <v>1.55</v>
+        <v>5.54</v>
       </c>
       <c r="K5">
-        <v>0.88</v>
+        <v>5.779999999999999</v>
       </c>
       <c r="L5">
-        <v>0.5700000000000001</v>
+        <v>3.26</v>
       </c>
       <c r="M5">
-        <v>0.23</v>
+        <v>2.91</v>
       </c>
       <c r="N5">
-        <v>96.77</v>
+        <v>82.50999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1811,131 +1811,131 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.37</v>
+        <v>5.45</v>
       </c>
       <c r="C6">
-        <v>3.26</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="D6">
-        <v>5.17</v>
+        <v>3.59</v>
       </c>
       <c r="E6">
-        <v>7.340000000000001</v>
+        <v>7.24</v>
       </c>
       <c r="F6">
-        <v>10.14</v>
+        <v>12.35</v>
       </c>
       <c r="G6">
-        <v>10.48</v>
+        <v>6.87</v>
       </c>
       <c r="H6">
-        <v>11.19</v>
+        <v>2.54</v>
       </c>
       <c r="I6">
-        <v>10.88</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="J6">
-        <v>10.66</v>
+        <v>14.09</v>
       </c>
       <c r="K6">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="L6">
-        <v>9.950000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="M6">
-        <v>9.06</v>
+        <v>15.27</v>
       </c>
       <c r="N6">
-        <v>59.83</v>
+        <v>51.69</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.6899999999999999</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="C7">
-        <v>1.59</v>
+        <v>5.12</v>
       </c>
       <c r="D7">
-        <v>3.52</v>
+        <v>8.42</v>
       </c>
       <c r="E7">
-        <v>5.35</v>
+        <v>7.969999999999999</v>
       </c>
       <c r="F7">
-        <v>7.66</v>
+        <v>5.86</v>
       </c>
       <c r="G7">
-        <v>9.959999999999999</v>
+        <v>13.53</v>
       </c>
       <c r="H7">
-        <v>10.53</v>
+        <v>13.67</v>
       </c>
       <c r="I7">
-        <v>11.49</v>
+        <v>6.27</v>
       </c>
       <c r="J7">
-        <v>11.34</v>
+        <v>8.93</v>
       </c>
       <c r="K7">
-        <v>12.16</v>
+        <v>11.42</v>
       </c>
       <c r="L7">
-        <v>12.23</v>
+        <v>8.02</v>
       </c>
       <c r="M7">
-        <v>13.48</v>
+        <v>6.4</v>
       </c>
       <c r="N7">
-        <v>50.79</v>
+        <v>65.23</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0.67</v>
+        <v>4.12</v>
       </c>
       <c r="C8">
-        <v>1.69</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>3.17</v>
+        <v>4.06</v>
       </c>
       <c r="E8">
-        <v>5.47</v>
+        <v>9.06</v>
       </c>
       <c r="F8">
-        <v>7.180000000000001</v>
+        <v>8.81</v>
       </c>
       <c r="G8">
-        <v>9.120000000000001</v>
+        <v>3.38</v>
       </c>
       <c r="H8">
-        <v>10.71</v>
+        <v>6.06</v>
       </c>
       <c r="I8">
-        <v>11.39</v>
+        <v>13.97</v>
       </c>
       <c r="J8">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="K8">
-        <v>12.13</v>
+        <v>8.450000000000001</v>
       </c>
       <c r="L8">
-        <v>12.86</v>
+        <v>12.34</v>
       </c>
       <c r="M8">
-        <v>13.91</v>
+        <v>13.85</v>
       </c>
       <c r="N8">
-        <v>49.40000000000001</v>
+        <v>53.46</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1943,43 +1943,43 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.53</v>
+        <v>4.09</v>
       </c>
       <c r="C9">
-        <v>1.51</v>
+        <v>4.06</v>
       </c>
       <c r="D9">
-        <v>2.91</v>
+        <v>6.329999999999999</v>
       </c>
       <c r="E9">
-        <v>5.53</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="F9">
-        <v>8.6</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="G9">
-        <v>9.890000000000001</v>
+        <v>4.02</v>
       </c>
       <c r="H9">
-        <v>10.46</v>
+        <v>12.04</v>
       </c>
       <c r="I9">
-        <v>11.63</v>
+        <v>13.87</v>
       </c>
       <c r="J9">
-        <v>11.65</v>
+        <v>7.61</v>
       </c>
       <c r="K9">
-        <v>12.86</v>
+        <v>9.85</v>
       </c>
       <c r="L9">
-        <v>12.28</v>
+        <v>12.56</v>
       </c>
       <c r="M9">
-        <v>12.15</v>
+        <v>9.719999999999999</v>
       </c>
       <c r="N9">
-        <v>51.06</v>
+        <v>60.26</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1987,175 +1987,175 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>4.05</v>
       </c>
       <c r="C10">
-        <v>1.54</v>
+        <v>3.58</v>
       </c>
       <c r="D10">
-        <v>3.29</v>
+        <v>4.97</v>
       </c>
       <c r="E10">
-        <v>5.16</v>
+        <v>9.24</v>
       </c>
       <c r="F10">
-        <v>7.670000000000001</v>
+        <v>7.22</v>
       </c>
       <c r="G10">
-        <v>9.800000000000001</v>
+        <v>3.68</v>
       </c>
       <c r="H10">
-        <v>11.11</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I10">
-        <v>10.71</v>
+        <v>15.03</v>
       </c>
       <c r="J10">
-        <v>11.98</v>
+        <v>9.19</v>
       </c>
       <c r="K10">
-        <v>12.28</v>
+        <v>8.44</v>
       </c>
       <c r="L10">
-        <v>12.74</v>
+        <v>13.22</v>
       </c>
       <c r="M10">
-        <v>13.22</v>
+        <v>12.08</v>
       </c>
       <c r="N10">
-        <v>49.78</v>
+        <v>57.06999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>0.49</v>
+        <v>3.78</v>
       </c>
       <c r="C11">
-        <v>1.27</v>
+        <v>4.26</v>
       </c>
       <c r="D11">
-        <v>2.81</v>
+        <v>3.37</v>
       </c>
       <c r="E11">
-        <v>5.59</v>
+        <v>7.8</v>
       </c>
       <c r="F11">
-        <v>9.16</v>
+        <v>9.93</v>
       </c>
       <c r="G11">
-        <v>11.4</v>
+        <v>4.5</v>
       </c>
       <c r="H11">
-        <v>11.21</v>
+        <v>3.59</v>
       </c>
       <c r="I11">
-        <v>12.81</v>
+        <v>12.32</v>
       </c>
       <c r="J11">
-        <v>12.75</v>
+        <v>13.82</v>
       </c>
       <c r="K11">
-        <v>11.39</v>
+        <v>8.24</v>
       </c>
       <c r="L11">
-        <v>10.63</v>
+        <v>12.04</v>
       </c>
       <c r="M11">
-        <v>10.49</v>
+        <v>16.35</v>
       </c>
       <c r="N11">
-        <v>54.73999999999999</v>
+        <v>49.55</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>0.31</v>
+        <v>3.78</v>
       </c>
       <c r="C12">
-        <v>0.74</v>
+        <v>4.130000000000001</v>
       </c>
       <c r="D12">
-        <v>1.97</v>
+        <v>7.48</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>7.86</v>
       </c>
       <c r="F12">
-        <v>7.02</v>
+        <v>4.83</v>
       </c>
       <c r="G12">
-        <v>7.95</v>
+        <v>9.32</v>
       </c>
       <c r="H12">
-        <v>10.4</v>
+        <v>16.13</v>
       </c>
       <c r="I12">
-        <v>11.49</v>
+        <v>8.6</v>
       </c>
       <c r="J12">
-        <v>12.78</v>
+        <v>7.66</v>
       </c>
       <c r="K12">
-        <v>13.53</v>
+        <v>12.33</v>
       </c>
       <c r="L12">
-        <v>14.2</v>
+        <v>10.06</v>
       </c>
       <c r="M12">
-        <v>15.61</v>
+        <v>7.82</v>
       </c>
       <c r="N12">
-        <v>43.88</v>
+        <v>62.13</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>0.23</v>
+        <v>3.38</v>
       </c>
       <c r="C13">
-        <v>1.07</v>
+        <v>4.130000000000001</v>
       </c>
       <c r="D13">
-        <v>2.47</v>
+        <v>5.84</v>
       </c>
       <c r="E13">
-        <v>5.029999999999999</v>
+        <v>8.559999999999999</v>
       </c>
       <c r="F13">
-        <v>7.95</v>
+        <v>4.53</v>
       </c>
       <c r="G13">
-        <v>10.11</v>
+        <v>6.239999999999999</v>
       </c>
       <c r="H13">
-        <v>11.51</v>
+        <v>14.04</v>
       </c>
       <c r="I13">
-        <v>11.92</v>
+        <v>11.47</v>
       </c>
       <c r="J13">
-        <v>12.34</v>
+        <v>7.049999999999999</v>
       </c>
       <c r="K13">
-        <v>12.44</v>
+        <v>12.55</v>
       </c>
       <c r="L13">
-        <v>13.53</v>
+        <v>12.45</v>
       </c>
       <c r="M13">
-        <v>11.4</v>
+        <v>9.76</v>
       </c>
       <c r="N13">
-        <v>50.28999999999999</v>
+        <v>58.19</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="77">
   <si>
     <t>PAI India Division Manager</t>
   </si>
@@ -58,28 +58,28 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -169,12 +169,12 @@
     <t>Louis Rodriguez</t>
   </si>
   <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
     <t>Chris Holloway</t>
   </si>
   <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
     <t>PJ Murphy</t>
   </si>
   <si>
@@ -184,33 +184,24 @@
     <t>Henry Morris</t>
   </si>
   <si>
-    <t>↑5</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -236,6 +227,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -716,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -725,7 +719,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -757,7 +751,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -766,7 +760,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
@@ -775,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
         <v>13</v>
@@ -807,7 +801,7 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -833,31 +827,31 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
         <v>17</v>
@@ -874,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
@@ -921,7 +915,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -930,16 +924,16 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -950,40 +944,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -997,34 +991,34 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1038,31 +1032,31 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
         <v>18</v>
       </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -1076,37 +1070,37 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1126,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1135,16 +1129,16 @@
         <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -1182,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3.166666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1193,13 +1187,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>3.666666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1207,13 +1201,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.916666666666667</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1224,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>4.083333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1235,13 +1229,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>4.25</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1249,13 +1243,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>4.416666666666667</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1266,10 +1260,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>4.583333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1277,10 +1271,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>4.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1291,13 +1285,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1305,13 +1299,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>5.25</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1322,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>5.333333333333333</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1336,10 +1330,10 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>5.666666666666667</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1377,10 +1371,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -1391,13 +1385,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1408,16 +1402,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>5.75</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D4">
-        <v>-0.25</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1428,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.166666666666667</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D5">
         <v>2.166666666666667</v>
@@ -1445,10 +1439,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>4.083333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.916666666666667</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1459,13 +1453,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1476,13 +1470,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -1493,16 +1487,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3.916666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D9">
-        <v>-0.08333333333333348</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1510,13 +1504,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>3.916666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D10">
-        <v>0.9166666666666665</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1530,13 +1524,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>3.75</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D11">
-        <v>-1.25</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1544,16 +1538,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>3.75</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D12">
-        <v>-0.25</v>
+        <v>0.9166666666666665</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1564,13 +1558,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>3.416666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="D13">
-        <v>0.4166666666666665</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1632,90 +1626,90 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>21.36</v>
+        <v>18.96</v>
       </c>
       <c r="C2">
-        <v>16.23</v>
+        <v>12.08</v>
       </c>
       <c r="D2">
-        <v>9.59</v>
+        <v>15.68</v>
       </c>
       <c r="E2">
-        <v>6.69</v>
+        <v>16.14</v>
       </c>
       <c r="F2">
-        <v>13.1</v>
+        <v>5.27</v>
       </c>
       <c r="G2">
+        <v>2.01</v>
+      </c>
+      <c r="H2">
+        <v>7.779999999999999</v>
+      </c>
+      <c r="I2">
         <v>10.5</v>
       </c>
-      <c r="H2">
-        <v>2.71</v>
-      </c>
-      <c r="I2">
-        <v>2.8</v>
-      </c>
       <c r="J2">
-        <v>6.31</v>
+        <v>4.08</v>
       </c>
       <c r="K2">
-        <v>5.56</v>
+        <v>1.66</v>
       </c>
       <c r="L2">
-        <v>2.52</v>
+        <v>3.23</v>
       </c>
       <c r="M2">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="N2">
-        <v>82.98</v>
+        <v>88.42</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>17.72</v>
+        <v>18.29</v>
       </c>
       <c r="C3">
-        <v>17.94</v>
+        <v>11.28</v>
       </c>
       <c r="D3">
-        <v>12.9</v>
+        <v>17.13</v>
       </c>
       <c r="E3">
-        <v>6.800000000000001</v>
+        <v>11.34</v>
       </c>
       <c r="F3">
-        <v>10.81</v>
+        <v>2.73</v>
       </c>
       <c r="G3">
-        <v>12.48</v>
+        <v>3.17</v>
       </c>
       <c r="H3">
-        <v>4.83</v>
+        <v>11.25</v>
       </c>
       <c r="I3">
-        <v>2.29</v>
+        <v>11.15</v>
       </c>
       <c r="J3">
-        <v>5.06</v>
+        <v>3.29</v>
       </c>
       <c r="K3">
-        <v>4.66</v>
+        <v>2.32</v>
       </c>
       <c r="L3">
-        <v>2.34</v>
+        <v>4.45</v>
       </c>
       <c r="M3">
-        <v>2.17</v>
+        <v>3.6</v>
       </c>
       <c r="N3">
-        <v>85.77</v>
+        <v>86.34</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1723,43 +1717,43 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>15.74</v>
+        <v>16.85</v>
       </c>
       <c r="C4">
-        <v>16.96</v>
+        <v>15.01</v>
       </c>
       <c r="D4">
-        <v>18.04</v>
+        <v>13.22</v>
       </c>
       <c r="E4">
-        <v>11.46</v>
+        <v>18.34</v>
       </c>
       <c r="F4">
-        <v>6.98</v>
+        <v>9.32</v>
       </c>
       <c r="G4">
-        <v>11.61</v>
+        <v>2.24</v>
       </c>
       <c r="H4">
-        <v>7.94</v>
+        <v>4.97</v>
       </c>
       <c r="I4">
-        <v>2.43</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="J4">
-        <v>2.84</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>3.32</v>
+        <v>1.53</v>
       </c>
       <c r="L4">
-        <v>1.64</v>
+        <v>2.32</v>
       </c>
       <c r="M4">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="N4">
-        <v>91.16</v>
+        <v>89.34</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1767,351 +1761,351 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>12.14</v>
+        <v>9.81</v>
       </c>
       <c r="C5">
-        <v>13.99</v>
+        <v>13.87</v>
       </c>
       <c r="D5">
-        <v>15.41</v>
+        <v>10.85</v>
       </c>
       <c r="E5">
-        <v>7.539999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="F5">
-        <v>9.51</v>
+        <v>15.81</v>
       </c>
       <c r="G5">
-        <v>13.87</v>
+        <v>4.15</v>
       </c>
       <c r="H5">
-        <v>7.149999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="I5">
-        <v>2.9</v>
+        <v>9.229999999999999</v>
       </c>
       <c r="J5">
-        <v>5.54</v>
+        <v>6.67</v>
       </c>
       <c r="K5">
-        <v>5.779999999999999</v>
+        <v>2.32</v>
       </c>
       <c r="L5">
-        <v>3.26</v>
+        <v>2.86</v>
       </c>
       <c r="M5">
-        <v>2.91</v>
+        <v>2.33</v>
       </c>
       <c r="N5">
-        <v>82.50999999999999</v>
+        <v>85.81999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>5.45</v>
+        <v>6.25</v>
       </c>
       <c r="C6">
-        <v>5.600000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="D6">
-        <v>3.59</v>
+        <v>8.92</v>
       </c>
       <c r="E6">
-        <v>7.24</v>
+        <v>3.38</v>
       </c>
       <c r="F6">
-        <v>12.35</v>
+        <v>2.57</v>
       </c>
       <c r="G6">
-        <v>6.87</v>
+        <v>11.65</v>
       </c>
       <c r="H6">
-        <v>2.54</v>
+        <v>16.61</v>
       </c>
       <c r="I6">
-        <v>8.050000000000001</v>
+        <v>5.79</v>
       </c>
       <c r="J6">
-        <v>14.09</v>
+        <v>2.93</v>
       </c>
       <c r="K6">
-        <v>9.4</v>
+        <v>9.98</v>
       </c>
       <c r="L6">
-        <v>9.550000000000001</v>
+        <v>12.14</v>
       </c>
       <c r="M6">
-        <v>15.27</v>
+        <v>11.45</v>
       </c>
       <c r="N6">
-        <v>51.69</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>4.390000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="C7">
-        <v>5.12</v>
+        <v>7.090000000000001</v>
       </c>
       <c r="D7">
-        <v>8.42</v>
+        <v>9.24</v>
       </c>
       <c r="E7">
-        <v>7.969999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="F7">
-        <v>5.86</v>
+        <v>1.64</v>
       </c>
       <c r="G7">
-        <v>13.53</v>
+        <v>7.870000000000001</v>
       </c>
       <c r="H7">
-        <v>13.67</v>
+        <v>16.85</v>
       </c>
       <c r="I7">
-        <v>6.27</v>
+        <v>10.7</v>
       </c>
       <c r="J7">
-        <v>8.93</v>
+        <v>2.73</v>
       </c>
       <c r="K7">
-        <v>11.42</v>
+        <v>7.41</v>
       </c>
       <c r="L7">
-        <v>8.02</v>
+        <v>12.95</v>
       </c>
       <c r="M7">
-        <v>6.4</v>
+        <v>13.35</v>
       </c>
       <c r="N7">
-        <v>65.23</v>
+        <v>63.56</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>4.12</v>
+        <v>4.61</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6.460000000000001</v>
       </c>
       <c r="D8">
-        <v>4.06</v>
+        <v>4.94</v>
       </c>
       <c r="E8">
-        <v>9.06</v>
+        <v>2.46</v>
       </c>
       <c r="F8">
-        <v>8.81</v>
+        <v>7.95</v>
       </c>
       <c r="G8">
-        <v>3.38</v>
+        <v>15.45</v>
       </c>
       <c r="H8">
-        <v>6.06</v>
+        <v>8.57</v>
       </c>
       <c r="I8">
-        <v>13.97</v>
+        <v>2.84</v>
       </c>
       <c r="J8">
-        <v>11.9</v>
+        <v>8.75</v>
       </c>
       <c r="K8">
-        <v>8.450000000000001</v>
+        <v>15.67</v>
       </c>
       <c r="L8">
-        <v>12.34</v>
+        <v>10.92</v>
       </c>
       <c r="M8">
-        <v>13.85</v>
+        <v>11.38</v>
       </c>
       <c r="N8">
-        <v>53.46</v>
+        <v>53.28</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>4.09</v>
+        <v>4.6</v>
       </c>
       <c r="C9">
-        <v>4.06</v>
+        <v>5.87</v>
       </c>
       <c r="D9">
-        <v>6.329999999999999</v>
+        <v>4.01</v>
       </c>
       <c r="E9">
-        <v>9.779999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="F9">
-        <v>6.069999999999999</v>
+        <v>13.58</v>
       </c>
       <c r="G9">
-        <v>4.02</v>
+        <v>11.99</v>
       </c>
       <c r="H9">
-        <v>12.04</v>
+        <v>3.14</v>
       </c>
       <c r="I9">
-        <v>13.87</v>
+        <v>6.76</v>
       </c>
       <c r="J9">
-        <v>7.61</v>
+        <v>15.62</v>
       </c>
       <c r="K9">
-        <v>9.85</v>
+        <v>12.41</v>
       </c>
       <c r="L9">
-        <v>12.56</v>
+        <v>8.19</v>
       </c>
       <c r="M9">
-        <v>9.719999999999999</v>
+        <v>9.030000000000001</v>
       </c>
       <c r="N9">
-        <v>60.26</v>
+        <v>54.75</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>4.05</v>
+        <v>4.37</v>
       </c>
       <c r="C10">
-        <v>3.58</v>
+        <v>5.7</v>
       </c>
       <c r="D10">
-        <v>4.97</v>
+        <v>5.25</v>
       </c>
       <c r="E10">
-        <v>9.24</v>
+        <v>2.02</v>
       </c>
       <c r="F10">
-        <v>7.22</v>
+        <v>4.91</v>
       </c>
       <c r="G10">
-        <v>3.68</v>
+        <v>15.23</v>
       </c>
       <c r="H10">
-        <v>9.300000000000001</v>
+        <v>11.99</v>
       </c>
       <c r="I10">
-        <v>15.03</v>
+        <v>3.34</v>
       </c>
       <c r="J10">
-        <v>9.19</v>
+        <v>5.52</v>
       </c>
       <c r="K10">
-        <v>8.44</v>
+        <v>14.44</v>
       </c>
       <c r="L10">
-        <v>13.22</v>
+        <v>13.46</v>
       </c>
       <c r="M10">
-        <v>12.08</v>
+        <v>13.77</v>
       </c>
       <c r="N10">
-        <v>57.06999999999999</v>
+        <v>52.81</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>3.78</v>
+        <v>4.34</v>
       </c>
       <c r="C11">
-        <v>4.26</v>
+        <v>5.71</v>
       </c>
       <c r="D11">
-        <v>3.37</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="E11">
-        <v>7.8</v>
+        <v>3.48</v>
       </c>
       <c r="F11">
-        <v>9.93</v>
+        <v>10.96</v>
       </c>
       <c r="G11">
-        <v>4.5</v>
+        <v>13.38</v>
       </c>
       <c r="H11">
-        <v>3.59</v>
+        <v>5.48</v>
       </c>
       <c r="I11">
-        <v>12.32</v>
+        <v>3.6</v>
       </c>
       <c r="J11">
-        <v>13.82</v>
+        <v>13.36</v>
       </c>
       <c r="K11">
-        <v>8.24</v>
+        <v>14.94</v>
       </c>
       <c r="L11">
-        <v>12.04</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="M11">
-        <v>16.35</v>
+        <v>11</v>
       </c>
       <c r="N11">
-        <v>49.55</v>
+        <v>51.34</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>3.78</v>
+        <v>3.4</v>
       </c>
       <c r="C12">
-        <v>4.130000000000001</v>
+        <v>5.23</v>
       </c>
       <c r="D12">
-        <v>7.48</v>
+        <v>3.18</v>
       </c>
       <c r="E12">
-        <v>7.86</v>
+        <v>7.57</v>
       </c>
       <c r="F12">
-        <v>4.83</v>
+        <v>13.98</v>
       </c>
       <c r="G12">
-        <v>9.32</v>
+        <v>7.430000000000001</v>
       </c>
       <c r="H12">
-        <v>16.13</v>
+        <v>3.22</v>
       </c>
       <c r="I12">
-        <v>8.6</v>
+        <v>11.07</v>
       </c>
       <c r="J12">
-        <v>7.66</v>
+        <v>16.66</v>
       </c>
       <c r="K12">
-        <v>12.33</v>
+        <v>9.629999999999999</v>
       </c>
       <c r="L12">
-        <v>10.06</v>
+        <v>8.790000000000001</v>
       </c>
       <c r="M12">
-        <v>7.82</v>
+        <v>9.84</v>
       </c>
       <c r="N12">
-        <v>62.13</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2119,43 +2113,43 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>3.38</v>
+        <v>2.95</v>
       </c>
       <c r="C13">
-        <v>4.130000000000001</v>
+        <v>3.37</v>
       </c>
       <c r="D13">
-        <v>5.84</v>
+        <v>3.19</v>
       </c>
       <c r="E13">
-        <v>8.559999999999999</v>
+        <v>8.67</v>
       </c>
       <c r="F13">
-        <v>4.53</v>
+        <v>11.28</v>
       </c>
       <c r="G13">
-        <v>6.239999999999999</v>
+        <v>5.43</v>
       </c>
       <c r="H13">
-        <v>14.04</v>
+        <v>5.24</v>
       </c>
       <c r="I13">
-        <v>11.47</v>
+        <v>15.63</v>
       </c>
       <c r="J13">
-        <v>7.049999999999999</v>
+        <v>15.39</v>
       </c>
       <c r="K13">
-        <v>12.55</v>
+        <v>7.69</v>
       </c>
       <c r="L13">
-        <v>12.45</v>
+        <v>11.33</v>
       </c>
       <c r="M13">
-        <v>9.76</v>
+        <v>9.83</v>
       </c>
       <c r="N13">
-        <v>58.19</v>
+        <v>55.76</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +2193,7 @@
         <v>42</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -2219,7 +2213,7 @@
         <v>43</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -2239,10 +2233,10 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -2259,7 +2253,7 @@
         <v>45</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -2279,13 +2273,13 @@
         <v>46</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2299,13 +2293,13 @@
         <v>47</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2319,13 +2313,13 @@
         <v>48</v>
       </c>
       <c r="D8">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2333,19 +2327,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
       </c>
       <c r="D9">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2353,16 +2347,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
       </c>
       <c r="D10">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>57</v>
@@ -2379,13 +2373,13 @@
         <v>51</v>
       </c>
       <c r="D11">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2405,7 +2399,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2419,13 +2413,13 @@
         <v>53</v>
       </c>
       <c r="D13">
-        <v>-23</v>
+        <v>-26</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2435,45 +2429,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2504,11 +2501,14 @@
       <c r="J2">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2539,11 +2539,14 @@
       <c r="J3">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2574,11 +2577,14 @@
       <c r="J4">
         <v>16</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2609,11 +2615,14 @@
       <c r="J5">
         <v>16</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2644,11 +2653,14 @@
       <c r="J6">
         <v>10</v>
       </c>
-      <c r="K6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2679,11 +2691,14 @@
       <c r="J7">
         <v>-2</v>
       </c>
-      <c r="K7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2714,81 +2729,90 @@
       <c r="J8">
         <v>-7</v>
       </c>
-      <c r="K8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8">
+        <v>-9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>-5</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <v>-5</v>
+      </c>
+      <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9">
+        <v>-6</v>
+      </c>
+      <c r="G9">
+        <v>-12</v>
+      </c>
+      <c r="H9">
+        <v>-12</v>
+      </c>
+      <c r="I9">
+        <v>-13</v>
+      </c>
+      <c r="J9">
+        <v>-11</v>
+      </c>
+      <c r="K9">
+        <v>-11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>-2</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>-4</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>-7</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>-14</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>-9</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>-12</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>-10</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10">
+        <v>-12</v>
+      </c>
+      <c r="L10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>-5</v>
-      </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10">
-        <v>-5</v>
-      </c>
-      <c r="E10">
-        <v>-5</v>
-      </c>
-      <c r="F10">
-        <v>-6</v>
-      </c>
-      <c r="G10">
-        <v>-12</v>
-      </c>
-      <c r="H10">
-        <v>-12</v>
-      </c>
-      <c r="I10">
-        <v>-13</v>
-      </c>
-      <c r="J10">
-        <v>-11</v>
-      </c>
-      <c r="K10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2819,11 +2843,14 @@
       <c r="J11">
         <v>-16</v>
       </c>
-      <c r="K11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11">
+        <v>-17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2854,11 +2881,14 @@
       <c r="J12">
         <v>-17</v>
       </c>
-      <c r="K12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12">
+        <v>-17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2889,8 +2919,11 @@
       <c r="J13">
         <v>-23</v>
       </c>
-      <c r="K13" t="s">
-        <v>62</v>
+      <c r="K13">
+        <v>-26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2908,25 +2941,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3246,25 +3279,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3275,22 +3308,22 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="F15">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="82">
   <si>
     <t>PAI India Division Manager</t>
   </si>
@@ -58,28 +58,31 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -154,12 +157,12 @@
     <t>Prahlad Singh</t>
   </si>
   <si>
+    <t>nick coughlin</t>
+  </si>
+  <si>
     <t>Eli Brinker</t>
   </si>
   <si>
-    <t>nick coughlin</t>
-  </si>
-  <si>
     <t>Lake George</t>
   </si>
   <si>
@@ -172,34 +175,43 @@
     <t>Anthony Rizzo</t>
   </si>
   <si>
+    <t>Chris Carbone</t>
+  </si>
+  <si>
     <t>Chris Holloway</t>
   </si>
   <si>
     <t>PJ Murphy</t>
   </si>
   <si>
-    <t>Chris Carbone</t>
-  </si>
-  <si>
     <t>Henry Morris</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -230,6 +242,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -666,7 +681,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -704,16 +719,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -722,7 +737,7 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -731,7 +746,7 @@
         <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -742,28 +757,28 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -780,31 +795,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -821,40 +836,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -862,25 +877,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -889,10 +904,10 @@
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
@@ -903,37 +918,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -944,40 +959,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
       <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -985,37 +1000,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -1026,34 +1041,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
       <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
         <v>12</v>
@@ -1067,25 +1082,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -1094,13 +1109,13 @@
         <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1108,25 +1123,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
       <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -1138,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -1159,13 +1174,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1176,10 +1191,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3.333333333333333</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1187,13 +1202,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1201,10 +1216,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>4.583333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1215,13 +1230,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.583333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1229,13 +1244,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4.583333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1243,13 +1258,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1257,13 +1272,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>5.083333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1271,13 +1286,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>5.166666666666667</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1285,13 +1300,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>5.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1302,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>5.833333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1316,10 +1331,10 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>5.916666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1330,10 +1345,10 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>6.083333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1351,16 +1366,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1371,13 +1386,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1385,16 +1400,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.416666666666667</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.583333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1402,16 +1417,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>6.416666666666667</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D4">
-        <v>0.416666666666667</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1419,16 +1434,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>6.166666666666667</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D5">
-        <v>2.166666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1439,10 +1454,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>4.916666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D6">
-        <v>-1.083333333333333</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1453,16 +1468,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4.666666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.333333333333333</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1470,16 +1485,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4.5</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1490,13 +1505,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>4.333333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D9">
-        <v>0.333333333333333</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1507,13 +1522,13 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>4.25</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D10">
-        <v>0.25</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1524,13 +1539,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>3.916666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D11">
-        <v>-1.083333333333333</v>
+        <v>-1.75</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1538,16 +1553,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>3.916666666666667</v>
       </c>
       <c r="D12">
-        <v>0.9166666666666665</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1555,16 +1570,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>3.5</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>0.9166666666666665</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1582,46 +1597,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1629,43 +1644,43 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>18.96</v>
+        <v>17.17</v>
       </c>
       <c r="C2">
-        <v>12.08</v>
+        <v>16.31</v>
       </c>
       <c r="D2">
-        <v>15.68</v>
+        <v>3.8</v>
       </c>
       <c r="E2">
-        <v>16.14</v>
+        <v>5.3</v>
       </c>
       <c r="F2">
-        <v>5.27</v>
+        <v>17.87</v>
       </c>
       <c r="G2">
-        <v>2.01</v>
+        <v>16.26</v>
       </c>
       <c r="H2">
-        <v>7.779999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="I2">
-        <v>10.5</v>
+        <v>0.42</v>
       </c>
       <c r="J2">
-        <v>4.08</v>
+        <v>3.19</v>
       </c>
       <c r="K2">
-        <v>1.66</v>
+        <v>7.68</v>
       </c>
       <c r="L2">
-        <v>3.23</v>
+        <v>5.34</v>
       </c>
       <c r="M2">
-        <v>2.61</v>
+        <v>3.06</v>
       </c>
       <c r="N2">
-        <v>88.42</v>
+        <v>80.72999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1673,43 +1688,43 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>18.29</v>
+        <v>15.61</v>
       </c>
       <c r="C3">
-        <v>11.28</v>
+        <v>7.920000000000001</v>
       </c>
       <c r="D3">
-        <v>17.13</v>
+        <v>2.24</v>
       </c>
       <c r="E3">
-        <v>11.34</v>
+        <v>11.05</v>
       </c>
       <c r="F3">
-        <v>2.73</v>
+        <v>20.12</v>
       </c>
       <c r="G3">
-        <v>3.17</v>
+        <v>10.05</v>
       </c>
       <c r="H3">
-        <v>11.25</v>
+        <v>0.98</v>
       </c>
       <c r="I3">
-        <v>11.15</v>
+        <v>1.18</v>
       </c>
       <c r="J3">
-        <v>3.29</v>
+        <v>6.72</v>
       </c>
       <c r="K3">
-        <v>2.32</v>
+        <v>11.16</v>
       </c>
       <c r="L3">
-        <v>4.45</v>
+        <v>6.619999999999999</v>
       </c>
       <c r="M3">
-        <v>3.6</v>
+        <v>6.35</v>
       </c>
       <c r="N3">
-        <v>86.34</v>
+        <v>69.15000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1717,87 +1732,87 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>16.85</v>
+        <v>11.91</v>
       </c>
       <c r="C4">
-        <v>15.01</v>
+        <v>20.35</v>
       </c>
       <c r="D4">
-        <v>13.22</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="E4">
-        <v>18.34</v>
+        <v>3.09</v>
       </c>
       <c r="F4">
-        <v>9.32</v>
+        <v>12.58</v>
       </c>
       <c r="G4">
+        <v>19.61</v>
+      </c>
+      <c r="H4">
+        <v>7.85</v>
+      </c>
+      <c r="I4">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="J4">
         <v>2.24</v>
       </c>
-      <c r="H4">
-        <v>4.97</v>
-      </c>
-      <c r="I4">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
       <c r="K4">
-        <v>1.53</v>
+        <v>5.93</v>
       </c>
       <c r="L4">
-        <v>2.32</v>
+        <v>4.64</v>
       </c>
       <c r="M4">
-        <v>1.81</v>
+        <v>2.18</v>
       </c>
       <c r="N4">
-        <v>89.34</v>
+        <v>85.00999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>9.81</v>
+        <v>9.67</v>
       </c>
       <c r="C5">
-        <v>13.87</v>
+        <v>2.44</v>
       </c>
       <c r="D5">
-        <v>10.85</v>
+        <v>7.290000000000001</v>
       </c>
       <c r="E5">
-        <v>17.2</v>
+        <v>16.17</v>
       </c>
       <c r="F5">
-        <v>15.81</v>
+        <v>10.46</v>
       </c>
       <c r="G5">
-        <v>4.15</v>
+        <v>1.82</v>
       </c>
       <c r="H5">
-        <v>4.9</v>
+        <v>0.63</v>
       </c>
       <c r="I5">
-        <v>9.229999999999999</v>
+        <v>6.34</v>
       </c>
       <c r="J5">
-        <v>6.67</v>
+        <v>16.15</v>
       </c>
       <c r="K5">
-        <v>2.32</v>
+        <v>12.73</v>
       </c>
       <c r="L5">
-        <v>2.86</v>
+        <v>4.65</v>
       </c>
       <c r="M5">
-        <v>2.33</v>
+        <v>11.65</v>
       </c>
       <c r="N5">
-        <v>85.81999999999999</v>
+        <v>54.82</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1805,219 +1820,219 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>6.25</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C6">
-        <v>8.33</v>
+        <v>3.2</v>
       </c>
       <c r="D6">
-        <v>8.92</v>
+        <v>3.93</v>
       </c>
       <c r="E6">
-        <v>3.38</v>
+        <v>14.84</v>
       </c>
       <c r="F6">
-        <v>2.57</v>
+        <v>15.67</v>
       </c>
       <c r="G6">
-        <v>11.65</v>
+        <v>4.05</v>
       </c>
       <c r="H6">
-        <v>16.61</v>
+        <v>0.36</v>
       </c>
       <c r="I6">
-        <v>5.79</v>
+        <v>2.87</v>
       </c>
       <c r="J6">
-        <v>2.93</v>
+        <v>12.19</v>
       </c>
       <c r="K6">
-        <v>9.98</v>
+        <v>15.64</v>
       </c>
       <c r="L6">
-        <v>12.14</v>
+        <v>5.99</v>
       </c>
       <c r="M6">
-        <v>11.45</v>
+        <v>11.81</v>
       </c>
       <c r="N6">
-        <v>63.5</v>
+        <v>54.37</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>5.57</v>
+        <v>7.23</v>
       </c>
       <c r="C7">
-        <v>7.090000000000001</v>
+        <v>4.07</v>
       </c>
       <c r="D7">
-        <v>9.24</v>
+        <v>11.38</v>
       </c>
       <c r="E7">
-        <v>4.6</v>
+        <v>12.22</v>
       </c>
       <c r="F7">
-        <v>1.64</v>
+        <v>3.45</v>
       </c>
       <c r="G7">
-        <v>7.870000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="H7">
-        <v>16.85</v>
+        <v>4.91</v>
       </c>
       <c r="I7">
-        <v>10.7</v>
+        <v>17.03</v>
       </c>
       <c r="J7">
-        <v>2.73</v>
+        <v>15.53</v>
       </c>
       <c r="K7">
-        <v>7.41</v>
+        <v>4.569999999999999</v>
       </c>
       <c r="L7">
-        <v>12.95</v>
+        <v>7.1</v>
       </c>
       <c r="M7">
-        <v>13.35</v>
+        <v>12</v>
       </c>
       <c r="N7">
-        <v>63.56</v>
+        <v>60.80000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>4.61</v>
+        <v>6.67</v>
       </c>
       <c r="C8">
-        <v>6.460000000000001</v>
+        <v>2.94</v>
       </c>
       <c r="D8">
-        <v>4.94</v>
+        <v>9.75</v>
       </c>
       <c r="E8">
-        <v>2.46</v>
+        <v>12.69</v>
       </c>
       <c r="F8">
-        <v>7.95</v>
+        <v>6.01</v>
       </c>
       <c r="G8">
-        <v>15.45</v>
+        <v>0.64</v>
       </c>
       <c r="H8">
-        <v>8.57</v>
+        <v>1.95</v>
       </c>
       <c r="I8">
-        <v>2.84</v>
+        <v>11.4</v>
       </c>
       <c r="J8">
-        <v>8.75</v>
+        <v>19.37</v>
       </c>
       <c r="K8">
-        <v>15.67</v>
+        <v>8.559999999999999</v>
       </c>
       <c r="L8">
-        <v>10.92</v>
+        <v>5.34</v>
       </c>
       <c r="M8">
-        <v>11.38</v>
+        <v>14.68</v>
       </c>
       <c r="N8">
-        <v>53.28</v>
+        <v>52.05</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>4.6</v>
+        <v>6.13</v>
       </c>
       <c r="C9">
-        <v>5.87</v>
+        <v>21.2</v>
       </c>
       <c r="D9">
-        <v>4.01</v>
+        <v>16.71</v>
       </c>
       <c r="E9">
-        <v>4.8</v>
+        <v>4.42</v>
       </c>
       <c r="F9">
-        <v>13.58</v>
+        <v>6.81</v>
       </c>
       <c r="G9">
-        <v>11.99</v>
+        <v>17.97</v>
       </c>
       <c r="H9">
-        <v>3.14</v>
+        <v>12.7</v>
       </c>
       <c r="I9">
-        <v>6.76</v>
+        <v>2.19</v>
       </c>
       <c r="J9">
-        <v>15.62</v>
+        <v>1.49</v>
       </c>
       <c r="K9">
-        <v>12.41</v>
+        <v>4.48</v>
       </c>
       <c r="L9">
-        <v>8.19</v>
+        <v>3.92</v>
       </c>
       <c r="M9">
-        <v>9.030000000000001</v>
+        <v>1.98</v>
       </c>
       <c r="N9">
-        <v>54.75</v>
+        <v>88.13</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>4.37</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="C10">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="D10">
-        <v>5.25</v>
+        <v>7.88</v>
       </c>
       <c r="E10">
-        <v>2.02</v>
+        <v>2.93</v>
       </c>
       <c r="F10">
-        <v>4.91</v>
+        <v>2.98</v>
       </c>
       <c r="G10">
-        <v>15.23</v>
+        <v>15.66</v>
       </c>
       <c r="H10">
-        <v>11.99</v>
+        <v>19.44</v>
       </c>
       <c r="I10">
-        <v>3.34</v>
+        <v>6.710000000000001</v>
       </c>
       <c r="J10">
-        <v>5.52</v>
+        <v>3.330000000000001</v>
       </c>
       <c r="K10">
-        <v>14.44</v>
+        <v>11.6</v>
       </c>
       <c r="L10">
-        <v>13.46</v>
+        <v>13.95</v>
       </c>
       <c r="M10">
-        <v>13.77</v>
+        <v>4.54</v>
       </c>
       <c r="N10">
-        <v>52.81</v>
+        <v>66.57999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2025,43 +2040,43 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>4.34</v>
+        <v>4.16</v>
       </c>
       <c r="C11">
-        <v>5.71</v>
+        <v>6.22</v>
       </c>
       <c r="D11">
-        <v>4.390000000000001</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="E11">
-        <v>3.48</v>
+        <v>4.43</v>
       </c>
       <c r="F11">
-        <v>10.96</v>
+        <v>1.28</v>
       </c>
       <c r="G11">
-        <v>13.38</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="H11">
-        <v>5.48</v>
+        <v>20.83</v>
       </c>
       <c r="I11">
-        <v>3.6</v>
+        <v>11.85</v>
       </c>
       <c r="J11">
-        <v>13.36</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>14.94</v>
+        <v>8</v>
       </c>
       <c r="L11">
-        <v>9.359999999999999</v>
+        <v>15.23</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>6.65</v>
       </c>
       <c r="N11">
-        <v>51.34</v>
+        <v>67.12</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2069,43 +2084,43 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>3.4</v>
+        <v>3.94</v>
       </c>
       <c r="C12">
-        <v>5.23</v>
+        <v>4.03</v>
       </c>
       <c r="D12">
-        <v>3.18</v>
+        <v>9.34</v>
       </c>
       <c r="E12">
-        <v>7.57</v>
+        <v>7.32</v>
       </c>
       <c r="F12">
-        <v>13.98</v>
+        <v>1.7</v>
       </c>
       <c r="G12">
-        <v>7.430000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="H12">
-        <v>3.22</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I12">
-        <v>11.07</v>
+        <v>20.63</v>
       </c>
       <c r="J12">
-        <v>16.66</v>
+        <v>11.2</v>
       </c>
       <c r="K12">
-        <v>9.629999999999999</v>
+        <v>3.94</v>
       </c>
       <c r="L12">
-        <v>8.790000000000001</v>
+        <v>12.23</v>
       </c>
       <c r="M12">
-        <v>9.84</v>
+        <v>14.33</v>
       </c>
       <c r="N12">
-        <v>55.08</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2113,43 +2128,43 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>2.95</v>
+        <v>3.78</v>
       </c>
       <c r="C13">
-        <v>3.37</v>
+        <v>4.62</v>
       </c>
       <c r="D13">
-        <v>3.19</v>
+        <v>9.25</v>
       </c>
       <c r="E13">
-        <v>8.67</v>
+        <v>5.54</v>
       </c>
       <c r="F13">
-        <v>11.28</v>
+        <v>1.07</v>
       </c>
       <c r="G13">
-        <v>5.43</v>
+        <v>3.42</v>
       </c>
       <c r="H13">
-        <v>5.24</v>
+        <v>16.78</v>
       </c>
       <c r="I13">
-        <v>15.63</v>
+        <v>18.48</v>
       </c>
       <c r="J13">
-        <v>15.39</v>
+        <v>5.59</v>
       </c>
       <c r="K13">
-        <v>7.69</v>
+        <v>5.71</v>
       </c>
       <c r="L13">
-        <v>11.33</v>
+        <v>14.99</v>
       </c>
       <c r="M13">
-        <v>9.83</v>
+        <v>10.77</v>
       </c>
       <c r="N13">
-        <v>55.76</v>
+        <v>62.94</v>
       </c>
     </row>
   </sheetData>
@@ -2167,19 +2182,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2190,16 +2205,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2210,16 +2225,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2227,19 +2242,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2247,19 +2262,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2270,16 +2285,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2290,16 +2305,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2310,16 +2325,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2330,16 +2345,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2347,19 +2362,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>-12</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2367,19 +2382,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2387,19 +2402,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>-17</v>
+        <v>-25</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2410,16 +2425,16 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>-26</v>
+        <v>-31</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2429,48 +2444,51 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>74</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2504,11 +2522,14 @@
       <c r="K2">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2542,87 +2563,96 @@
       <c r="K3">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
         <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>14</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
       </c>
       <c r="J4">
         <v>16</v>
       </c>
       <c r="K4">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>13</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
         <v>16</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
       </c>
       <c r="J5">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>15</v>
-      </c>
-      <c r="L5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2656,11 +2686,14 @@
       <c r="K6">
         <v>11</v>
       </c>
-      <c r="L6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2694,11 +2727,14 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2732,11 +2768,14 @@
       <c r="K8">
         <v>-9</v>
       </c>
-      <c r="L8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8">
+        <v>-3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2770,125 +2809,137 @@
       <c r="K9">
         <v>-11</v>
       </c>
-      <c r="L9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9">
+        <v>-3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
+        <v>-7</v>
+      </c>
+      <c r="C10">
+        <v>-6</v>
+      </c>
+      <c r="D10">
         <v>-2</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
       <c r="E10">
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="F10">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="G10">
         <v>-14</v>
       </c>
       <c r="H10">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="I10">
         <v>-12</v>
       </c>
       <c r="J10">
+        <v>-17</v>
+      </c>
+      <c r="K10">
+        <v>-17</v>
+      </c>
+      <c r="L10">
+        <v>-12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>-4</v>
+      </c>
+      <c r="F11">
+        <v>-7</v>
+      </c>
+      <c r="G11">
+        <v>-14</v>
+      </c>
+      <c r="H11">
+        <v>-9</v>
+      </c>
+      <c r="I11">
+        <v>-12</v>
+      </c>
+      <c r="J11">
         <v>-10</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-12</v>
       </c>
-      <c r="L10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
+      <c r="L11">
+        <v>-18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>-5</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>-2</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>-8</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>-9</v>
-      </c>
-      <c r="F11">
-        <v>-8</v>
-      </c>
-      <c r="G11">
-        <v>-5</v>
-      </c>
-      <c r="H11">
-        <v>-14</v>
-      </c>
-      <c r="I11">
-        <v>-13</v>
-      </c>
-      <c r="J11">
-        <v>-16</v>
-      </c>
-      <c r="K11">
-        <v>-17</v>
-      </c>
-      <c r="L11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>-7</v>
-      </c>
-      <c r="C12">
-        <v>-6</v>
-      </c>
-      <c r="D12">
-        <v>-2</v>
-      </c>
-      <c r="E12">
-        <v>-11</v>
       </c>
       <c r="F12">
         <v>-8</v>
       </c>
       <c r="G12">
+        <v>-5</v>
+      </c>
+      <c r="H12">
         <v>-14</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-13</v>
       </c>
-      <c r="I12">
-        <v>-12</v>
-      </c>
       <c r="J12">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="K12">
         <v>-17</v>
       </c>
-      <c r="L12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12">
+        <v>-25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2922,8 +2973,11 @@
       <c r="K13">
         <v>-26</v>
       </c>
-      <c r="L13" t="s">
-        <v>59</v>
+      <c r="L13">
+        <v>-31</v>
+      </c>
+      <c r="M13" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2933,7 +2987,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2941,25 +2995,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2967,25 +3021,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>-31</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2993,25 +3047,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>-3</v>
       </c>
       <c r="F3">
-        <v>-10</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3019,25 +3073,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3045,25 +3099,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>-14</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>-10</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3071,25 +3125,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="F6">
-        <v>-23</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3097,25 +3151,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3126,22 +3180,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>-23</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3149,22 +3203,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>-12</v>
       </c>
       <c r="F9">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
         <v>1</v>
@@ -3175,25 +3229,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3201,25 +3255,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3227,25 +3281,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3253,25 +3307,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3279,25 +3333,25 @@
         <v>12</v>
       </c>
       <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>11</v>
-      </c>
       <c r="F14">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
         <v>10</v>
-      </c>
-      <c r="H14" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3305,25 +3359,77 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="83">
   <si>
     <t>PAI India Division Manager</t>
   </si>
@@ -58,31 +58,34 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>1-11-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -166,15 +169,15 @@
     <t>Lake George</t>
   </si>
   <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
     <t>Marvin Ta</t>
   </si>
   <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
     <t>Chris Carbone</t>
   </si>
   <si>
@@ -187,16 +190,7 @@
     <t>Henry Morris</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↑2</t>
   </si>
   <si>
     <t>↓6</t>
@@ -205,13 +199,19 @@
     <t>↑3</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>↑5</t>
   </si>
   <si>
     <t>↓8</t>
   </si>
   <si>
-    <t>↓5</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -675,34 +678,34 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -719,25 +722,25 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -746,7 +749,7 @@
         <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -772,13 +775,13 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -798,37 +801,37 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -839,34 +842,34 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
         <v>12</v>
@@ -877,37 +880,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
@@ -918,13 +921,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -933,16 +936,16 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
@@ -951,7 +954,7 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -962,28 +965,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
@@ -1000,37 +1003,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
         <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -1047,31 +1050,31 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
         <v>13</v>
       </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -1082,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -1094,22 +1097,22 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
         <v>15</v>
@@ -1126,16 +1129,16 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -1144,7 +1147,7 @@
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
@@ -1153,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -1174,13 +1177,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1191,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3.916666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1202,13 +1205,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1216,13 +1219,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>4.833333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1230,13 +1233,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>4.916666666666667</v>
+        <v>5.75</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1244,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5.166666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1258,13 +1261,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5.416666666666667</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1272,13 +1275,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>5.75</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1286,10 +1289,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1300,13 +1303,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1314,13 +1317,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>6.083333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1328,13 +1331,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>6.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1345,10 +1348,10 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>6.833333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1366,16 +1369,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1386,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7.666666666666667</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D2">
-        <v>-0.333333333333333</v>
+        <v>-0.3333333333333339</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1400,16 +1403,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>7.166666666666667</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D3">
-        <v>2.166666666666667</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1417,16 +1420,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>6.916666666666667</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D4">
-        <v>-1.083333333333333</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1437,13 +1440,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>6.583333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D5">
-        <v>0.583333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1454,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>5.833333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D6">
-        <v>-1.166666666666667</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1468,13 +1471,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5.333333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D7">
-        <v>-0.666666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -1485,13 +1488,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>5.166666666666667</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D8">
-        <v>0.166666666666667</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1502,16 +1505,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>4.916666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D9">
-        <v>0.916666666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1519,16 +1522,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>4.333333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="D10">
-        <v>0.333333333333333</v>
+        <v>-1.25</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1536,16 +1539,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="D11">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1556,10 +1559,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3.916666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D12">
-        <v>-0.08333333333333348</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1573,13 +1576,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>3.916666666666667</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>0.9166666666666665</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1597,178 +1600,178 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>17.17</v>
+        <v>12.12</v>
       </c>
       <c r="C2">
-        <v>16.31</v>
+        <v>14.78</v>
       </c>
       <c r="D2">
-        <v>3.8</v>
+        <v>3.47</v>
       </c>
       <c r="E2">
-        <v>5.3</v>
+        <v>0.3</v>
       </c>
       <c r="F2">
-        <v>17.87</v>
+        <v>0.23</v>
       </c>
       <c r="G2">
-        <v>16.26</v>
+        <v>5.57</v>
       </c>
       <c r="H2">
-        <v>3.6</v>
+        <v>22.54</v>
       </c>
       <c r="I2">
-        <v>0.42</v>
+        <v>19.01</v>
       </c>
       <c r="J2">
-        <v>3.19</v>
+        <v>1.89</v>
       </c>
       <c r="K2">
-        <v>7.68</v>
+        <v>0.14</v>
       </c>
       <c r="L2">
-        <v>5.34</v>
+        <v>3.76</v>
       </c>
       <c r="M2">
-        <v>3.06</v>
+        <v>16.19</v>
       </c>
       <c r="N2">
-        <v>80.72999999999999</v>
+        <v>78.02</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>15.61</v>
+        <v>12.11</v>
       </c>
       <c r="C3">
-        <v>7.920000000000001</v>
+        <v>8.459999999999999</v>
       </c>
       <c r="D3">
-        <v>2.24</v>
+        <v>1.34</v>
       </c>
       <c r="E3">
-        <v>11.05</v>
+        <v>0.03</v>
       </c>
       <c r="F3">
-        <v>20.12</v>
+        <v>1.24</v>
       </c>
       <c r="G3">
-        <v>10.05</v>
+        <v>14.63</v>
       </c>
       <c r="H3">
-        <v>0.98</v>
+        <v>26.38</v>
       </c>
       <c r="I3">
-        <v>1.18</v>
+        <v>7.24</v>
       </c>
       <c r="J3">
-        <v>6.72</v>
+        <v>0.32</v>
       </c>
       <c r="K3">
-        <v>11.16</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L3">
-        <v>6.619999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="M3">
-        <v>6.35</v>
+        <v>18.3</v>
       </c>
       <c r="N3">
-        <v>69.15000000000001</v>
+        <v>71.42999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>11.91</v>
+        <v>11.94</v>
       </c>
       <c r="C4">
-        <v>20.35</v>
+        <v>3.9</v>
       </c>
       <c r="D4">
-        <v>8.720000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="E4">
-        <v>3.09</v>
+        <v>1.31</v>
       </c>
       <c r="F4">
-        <v>12.58</v>
+        <v>15.11</v>
       </c>
       <c r="G4">
-        <v>19.61</v>
+        <v>22.99</v>
       </c>
       <c r="H4">
-        <v>7.85</v>
+        <v>7.73</v>
       </c>
       <c r="I4">
-        <v>0.8999999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="J4">
-        <v>2.24</v>
+        <v>0.47</v>
       </c>
       <c r="K4">
-        <v>5.93</v>
+        <v>6.81</v>
       </c>
       <c r="L4">
-        <v>4.64</v>
+        <v>18.76</v>
       </c>
       <c r="M4">
-        <v>2.18</v>
+        <v>10.35</v>
       </c>
       <c r="N4">
-        <v>85.00999999999999</v>
+        <v>63.61</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1776,219 +1779,219 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.67</v>
+        <v>11.43</v>
       </c>
       <c r="C5">
-        <v>2.44</v>
+        <v>5.2</v>
       </c>
       <c r="D5">
-        <v>7.290000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="E5">
-        <v>16.17</v>
+        <v>0.11</v>
       </c>
       <c r="F5">
-        <v>10.46</v>
+        <v>5.82</v>
       </c>
       <c r="G5">
-        <v>1.82</v>
+        <v>24.04</v>
       </c>
       <c r="H5">
-        <v>0.63</v>
+        <v>16.41</v>
       </c>
       <c r="I5">
-        <v>6.34</v>
+        <v>2.1</v>
       </c>
       <c r="J5">
-        <v>16.15</v>
+        <v>0.13</v>
       </c>
       <c r="K5">
-        <v>12.73</v>
+        <v>3.19</v>
       </c>
       <c r="L5">
-        <v>4.65</v>
+        <v>14.95</v>
       </c>
       <c r="M5">
-        <v>11.65</v>
+        <v>16.22</v>
       </c>
       <c r="N5">
-        <v>54.82</v>
+        <v>65.51000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>9.449999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="C6">
-        <v>3.2</v>
+        <v>1.87</v>
       </c>
       <c r="D6">
-        <v>3.93</v>
+        <v>0.17</v>
       </c>
       <c r="E6">
-        <v>14.84</v>
+        <v>5.92</v>
       </c>
       <c r="F6">
-        <v>15.67</v>
+        <v>21.2</v>
       </c>
       <c r="G6">
-        <v>4.05</v>
+        <v>16.52</v>
       </c>
       <c r="H6">
-        <v>0.36</v>
+        <v>2.71</v>
       </c>
       <c r="I6">
-        <v>2.87</v>
+        <v>0.1</v>
       </c>
       <c r="J6">
-        <v>12.19</v>
+        <v>2.52</v>
       </c>
       <c r="K6">
-        <v>15.64</v>
+        <v>12.49</v>
       </c>
       <c r="L6">
-        <v>5.99</v>
+        <v>19.15</v>
       </c>
       <c r="M6">
-        <v>11.81</v>
+        <v>6.75</v>
       </c>
       <c r="N6">
-        <v>54.37</v>
+        <v>59.09</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>7.23</v>
+        <v>9.59</v>
       </c>
       <c r="C7">
-        <v>4.07</v>
+        <v>20.06</v>
       </c>
       <c r="D7">
-        <v>11.38</v>
+        <v>9.01</v>
       </c>
       <c r="E7">
-        <v>12.22</v>
+        <v>1.02</v>
       </c>
       <c r="F7">
-        <v>3.45</v>
+        <v>0.03</v>
       </c>
       <c r="G7">
-        <v>0.51</v>
+        <v>1.62</v>
       </c>
       <c r="H7">
-        <v>4.91</v>
+        <v>13.37</v>
       </c>
       <c r="I7">
-        <v>17.03</v>
+        <v>23.25</v>
       </c>
       <c r="J7">
-        <v>15.53</v>
+        <v>8.74</v>
       </c>
       <c r="K7">
-        <v>4.569999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="L7">
-        <v>7.1</v>
+        <v>1.3</v>
       </c>
       <c r="M7">
-        <v>12</v>
+        <v>11.81</v>
       </c>
       <c r="N7">
-        <v>60.80000000000001</v>
+        <v>77.95</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>6.67</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>2.94</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="D8">
-        <v>9.75</v>
+        <v>1.37</v>
       </c>
       <c r="E8">
-        <v>12.69</v>
+        <v>12.43</v>
       </c>
       <c r="F8">
-        <v>6.01</v>
+        <v>19.87</v>
       </c>
       <c r="G8">
-        <v>0.64</v>
+        <v>8.34</v>
       </c>
       <c r="H8">
-        <v>1.95</v>
+        <v>0.88</v>
       </c>
       <c r="I8">
-        <v>11.4</v>
+        <v>0.47</v>
       </c>
       <c r="J8">
-        <v>19.37</v>
+        <v>6.34</v>
       </c>
       <c r="K8">
-        <v>8.559999999999999</v>
+        <v>20.78</v>
       </c>
       <c r="L8">
-        <v>5.34</v>
+        <v>16.18</v>
       </c>
       <c r="M8">
-        <v>14.68</v>
+        <v>3.41</v>
       </c>
       <c r="N8">
-        <v>52.05</v>
+        <v>53.29</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>6.13</v>
+        <v>8.24</v>
       </c>
       <c r="C9">
-        <v>21.2</v>
+        <v>0.43</v>
       </c>
       <c r="D9">
-        <v>16.71</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="E9">
-        <v>4.42</v>
+        <v>15.93</v>
       </c>
       <c r="F9">
-        <v>6.81</v>
+        <v>16.18</v>
       </c>
       <c r="G9">
-        <v>17.97</v>
+        <v>4.07</v>
       </c>
       <c r="H9">
-        <v>12.7</v>
+        <v>0.13</v>
       </c>
       <c r="I9">
-        <v>2.19</v>
+        <v>2.11</v>
       </c>
       <c r="J9">
-        <v>1.49</v>
+        <v>14.23</v>
       </c>
       <c r="K9">
-        <v>4.48</v>
+        <v>22.65</v>
       </c>
       <c r="L9">
-        <v>3.92</v>
+        <v>10.94</v>
       </c>
       <c r="M9">
-        <v>1.98</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="N9">
-        <v>88.13</v>
+        <v>51.19</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1996,175 +1999,175 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>4.279999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="C10">
-        <v>6.7</v>
+        <v>0.8</v>
       </c>
       <c r="D10">
-        <v>7.88</v>
+        <v>8.1</v>
       </c>
       <c r="E10">
-        <v>2.93</v>
+        <v>17.3</v>
       </c>
       <c r="F10">
-        <v>2.98</v>
+        <v>10.38</v>
       </c>
       <c r="G10">
-        <v>15.66</v>
+        <v>1.35</v>
       </c>
       <c r="H10">
-        <v>19.44</v>
+        <v>0.39</v>
       </c>
       <c r="I10">
-        <v>6.710000000000001</v>
+        <v>7.31</v>
       </c>
       <c r="J10">
-        <v>3.330000000000001</v>
+        <v>23.31</v>
       </c>
       <c r="K10">
-        <v>11.6</v>
+        <v>19.55</v>
       </c>
       <c r="L10">
-        <v>13.95</v>
+        <v>4.21</v>
       </c>
       <c r="M10">
-        <v>4.54</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>66.57999999999998</v>
+        <v>52.73</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>4.16</v>
+        <v>6.16</v>
       </c>
       <c r="C11">
-        <v>6.22</v>
+        <v>24.73</v>
       </c>
       <c r="D11">
-        <v>9.710000000000001</v>
+        <v>22.3</v>
       </c>
       <c r="E11">
-        <v>4.43</v>
+        <v>5.17</v>
       </c>
       <c r="F11">
-        <v>1.28</v>
+        <v>0.28</v>
       </c>
       <c r="G11">
-        <v>8.640000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="H11">
-        <v>20.83</v>
+        <v>5.58</v>
       </c>
       <c r="I11">
-        <v>11.85</v>
+        <v>15.98</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>11.93</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>1.94</v>
       </c>
       <c r="L11">
-        <v>15.23</v>
+        <v>0.36</v>
       </c>
       <c r="M11">
-        <v>6.65</v>
+        <v>5.21</v>
       </c>
       <c r="N11">
-        <v>67.12</v>
+        <v>80.56</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>3.94</v>
+        <v>1.51</v>
       </c>
       <c r="C12">
-        <v>4.03</v>
+        <v>14.06</v>
       </c>
       <c r="D12">
-        <v>9.34</v>
+        <v>29.1</v>
       </c>
       <c r="E12">
-        <v>7.32</v>
+        <v>16.21</v>
       </c>
       <c r="F12">
-        <v>1.7</v>
+        <v>2.34</v>
       </c>
       <c r="G12">
-        <v>1.37</v>
+        <v>0.08</v>
       </c>
       <c r="H12">
-        <v>9.969999999999999</v>
+        <v>2.62</v>
       </c>
       <c r="I12">
-        <v>20.63</v>
+        <v>11.96</v>
       </c>
       <c r="J12">
-        <v>11.2</v>
+        <v>13.28</v>
       </c>
       <c r="K12">
-        <v>3.94</v>
+        <v>4.17</v>
       </c>
       <c r="L12">
-        <v>12.23</v>
+        <v>0.33</v>
       </c>
       <c r="M12">
-        <v>14.33</v>
+        <v>4.34</v>
       </c>
       <c r="N12">
-        <v>58.3</v>
+        <v>77.88</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>3.78</v>
+        <v>0.2</v>
       </c>
       <c r="C13">
-        <v>4.62</v>
+        <v>4.78</v>
       </c>
       <c r="D13">
-        <v>9.25</v>
+        <v>20.47</v>
       </c>
       <c r="E13">
-        <v>5.54</v>
+        <v>24.27</v>
       </c>
       <c r="F13">
-        <v>1.07</v>
+        <v>7.32</v>
       </c>
       <c r="G13">
-        <v>3.42</v>
+        <v>0.43</v>
       </c>
       <c r="H13">
-        <v>16.78</v>
+        <v>1.26</v>
       </c>
       <c r="I13">
-        <v>18.48</v>
+        <v>10.01</v>
       </c>
       <c r="J13">
-        <v>5.59</v>
+        <v>16.84</v>
       </c>
       <c r="K13">
-        <v>5.71</v>
+        <v>7.380000000000001</v>
       </c>
       <c r="L13">
-        <v>14.99</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="M13">
-        <v>10.77</v>
+        <v>6.23</v>
       </c>
       <c r="N13">
-        <v>62.94</v>
+        <v>68.73999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2182,19 +2185,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2205,16 +2208,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2225,16 +2228,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2245,16 +2248,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2265,16 +2268,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2285,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2302,16 +2305,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -2325,16 +2328,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>-3</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2342,19 +2345,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2365,16 +2368,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2385,16 +2388,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2405,16 +2408,16 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>-25</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2425,16 +2428,16 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>-31</v>
+        <v>-28</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2444,13 +2447,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
@@ -2485,10 +2488,13 @@
         <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>75</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2525,11 +2531,14 @@
       <c r="L2">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2566,11 +2575,14 @@
       <c r="L3">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2607,11 +2619,14 @@
       <c r="L4">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2648,11 +2663,14 @@
       <c r="L5">
         <v>10</v>
       </c>
-      <c r="M5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2689,52 +2707,58 @@
       <c r="L6">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="C7">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="D7">
+        <v>-5</v>
+      </c>
+      <c r="E7">
+        <v>-5</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
         <v>-12</v>
       </c>
-      <c r="E7">
+      <c r="H7">
+        <v>-12</v>
+      </c>
+      <c r="I7">
+        <v>-13</v>
+      </c>
+      <c r="J7">
         <v>-11</v>
       </c>
-      <c r="F7">
-        <v>-10</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7">
-        <v>-2</v>
-      </c>
       <c r="K7">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7" t="s">
+        <v>-3</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2771,52 +2795,58 @@
       <c r="L8">
         <v>-3</v>
       </c>
-      <c r="M8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8">
+        <v>-3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>-9</v>
+      </c>
+      <c r="D9">
+        <v>-12</v>
+      </c>
+      <c r="E9">
+        <v>-11</v>
+      </c>
+      <c r="F9">
+        <v>-10</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>-5</v>
-      </c>
-      <c r="C9">
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
         <v>-2</v>
       </c>
-      <c r="D9">
-        <v>-5</v>
-      </c>
-      <c r="E9">
-        <v>-5</v>
-      </c>
-      <c r="F9">
-        <v>-6</v>
-      </c>
-      <c r="G9">
-        <v>-12</v>
-      </c>
-      <c r="H9">
-        <v>-12</v>
-      </c>
-      <c r="I9">
-        <v>-13</v>
-      </c>
-      <c r="J9">
-        <v>-11</v>
-      </c>
       <c r="K9">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>-3</v>
-      </c>
-      <c r="M9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>-4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2853,11 +2883,14 @@
       <c r="L10">
         <v>-12</v>
       </c>
-      <c r="M10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>-11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2894,11 +2927,14 @@
       <c r="L11">
         <v>-18</v>
       </c>
-      <c r="M11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11">
+        <v>-20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2935,11 +2971,14 @@
       <c r="L12">
         <v>-25</v>
       </c>
-      <c r="M12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12">
+        <v>-25</v>
+      </c>
+      <c r="N12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2976,8 +3015,11 @@
       <c r="L13">
         <v>-31</v>
       </c>
-      <c r="M13" t="s">
-        <v>63</v>
+      <c r="M13">
+        <v>-28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2987,7 +3029,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2995,25 +3037,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3352,84 +3394,6 @@
       </c>
       <c r="H14" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>-8</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>16</v>
-      </c>
-      <c r="F16">
-        <v>26</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>11</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="88">
   <si>
     <t>PAI India Division Manager</t>
   </si>
@@ -58,34 +58,37 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>1-11-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>1-12-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -157,30 +160,30 @@
     <t>Michael  Celoni</t>
   </si>
   <si>
+    <t>Eli Brinker</t>
+  </si>
+  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
     <t>nick coughlin</t>
   </si>
   <si>
-    <t>Eli Brinker</t>
+    <t>Louis Rodriguez</t>
   </si>
   <si>
     <t>Lake George</t>
   </si>
   <si>
+    <t>Chris Carbone</t>
+  </si>
+  <si>
     <t>Anthony Rizzo</t>
   </si>
   <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
     <t>Marvin Ta</t>
   </si>
   <si>
-    <t>Chris Carbone</t>
-  </si>
-  <si>
     <t>Chris Holloway</t>
   </si>
   <si>
@@ -190,30 +193,39 @@
     <t>Henry Morris</t>
   </si>
   <si>
-    <t>↑2</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
     <t>↓8</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -248,6 +260,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -681,34 +696,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
         <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -722,28 +737,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -763,28 +778,28 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
@@ -801,37 +816,37 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -842,34 +857,34 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
         <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
       </c>
       <c r="M6" t="s">
         <v>12</v>
@@ -883,37 +898,37 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -924,10 +939,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -939,10 +954,10 @@
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -965,34 +980,34 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s">
         <v>15</v>
@@ -1003,34 +1018,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
         <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -1056,13 +1071,13 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -1071,10 +1086,10 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -1085,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -1094,31 +1109,31 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1132,19 +1147,19 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -1153,10 +1168,10 @@
         <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -1177,13 +1192,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1194,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4.333333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1205,13 +1220,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>5.5</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1219,13 +1234,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5.583333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1236,10 +1251,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5.75</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1247,10 +1262,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5.833333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1261,10 +1276,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>5.916666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1275,13 +1290,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>6.083333333333333</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1289,13 +1304,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>6.25</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1303,13 +1318,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1317,13 +1332,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>6.5</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1334,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>6.666666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1348,7 +1363,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>7.083333333333333</v>
+        <v>7.75</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1369,16 +1384,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1389,13 +1404,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>8.666666666666666</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="D2">
-        <v>-0.3333333333333339</v>
+        <v>0.3333333333333339</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1406,10 +1421,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>7.833333333333333</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D3">
-        <v>-1.166666666666667</v>
+        <v>-1.666666666666666</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1420,16 +1435,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>7.583333333333333</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D4">
-        <v>1.583333333333333</v>
+        <v>1.083333333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1437,16 +1452,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.25</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1457,10 +1472,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>6.666666666666667</v>
+        <v>7.25</v>
       </c>
       <c r="D6">
-        <v>-1.333333333333333</v>
+        <v>-1.75</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1471,13 +1486,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5.666666666666667</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D7">
-        <v>0.666666666666667</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -1488,13 +1503,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5.583333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D8">
-        <v>-0.416666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1508,13 +1523,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>5.166666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D9">
-        <v>0.166666666666667</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1522,16 +1537,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>4.75</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D10">
-        <v>-1.25</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1539,16 +1554,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>4.75</v>
       </c>
       <c r="D11">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1556,16 +1571,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>4.083333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D12">
-        <v>0.08333333333333304</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1573,16 +1588,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1600,442 +1615,442 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>12.12</v>
+        <v>24.35</v>
       </c>
       <c r="C2">
-        <v>14.78</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5.57</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>22.54</v>
+        <v>75.64999999999999</v>
       </c>
       <c r="I2">
-        <v>19.01</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>16.19</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>78.02</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>12.11</v>
+        <v>22.1</v>
       </c>
       <c r="C3">
-        <v>8.459999999999999</v>
+        <v>4.05</v>
       </c>
       <c r="D3">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.63</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>26.38</v>
+        <v>20.3</v>
       </c>
       <c r="I3">
-        <v>7.24</v>
+        <v>53.55</v>
       </c>
       <c r="J3">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>9.25</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>18.3</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>71.42999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>11.94</v>
+        <v>17.95</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>8.959999999999999</v>
       </c>
       <c r="D4">
-        <v>0.17</v>
+        <v>0.44</v>
       </c>
       <c r="E4">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>15.11</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>22.99</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.73</v>
+        <v>3.61</v>
       </c>
       <c r="I4">
-        <v>0.46</v>
+        <v>33.44</v>
       </c>
       <c r="J4">
-        <v>0.47</v>
+        <v>35.6</v>
       </c>
       <c r="K4">
-        <v>6.81</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>18.76</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>10.35</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>63.61</v>
+        <v>64.39999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>11.43</v>
+        <v>14.26</v>
       </c>
       <c r="C5">
-        <v>5.2</v>
+        <v>13.7</v>
       </c>
       <c r="D5">
+        <v>1.88</v>
+      </c>
+      <c r="E5">
+        <v>0.04</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0.4</v>
       </c>
-      <c r="E5">
-        <v>0.11</v>
-      </c>
-      <c r="F5">
-        <v>5.82</v>
-      </c>
-      <c r="G5">
-        <v>24.04</v>
-      </c>
-      <c r="H5">
-        <v>16.41</v>
-      </c>
       <c r="I5">
-        <v>2.1</v>
+        <v>10.69</v>
       </c>
       <c r="J5">
-        <v>0.13</v>
+        <v>37.69</v>
       </c>
       <c r="K5">
-        <v>3.19</v>
+        <v>21.34</v>
       </c>
       <c r="L5">
-        <v>14.95</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>16.22</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>65.51000000000001</v>
+        <v>40.97</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>10.6</v>
+        <v>12.64</v>
       </c>
       <c r="C6">
-        <v>1.87</v>
+        <v>22.83</v>
       </c>
       <c r="D6">
-        <v>0.17</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="E6">
-        <v>5.92</v>
+        <v>0.31</v>
       </c>
       <c r="F6">
-        <v>21.2</v>
+        <v>0.01</v>
       </c>
       <c r="G6">
-        <v>16.52</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2.71</v>
+        <v>0.03</v>
       </c>
       <c r="I6">
-        <v>0.1</v>
+        <v>1.97</v>
       </c>
       <c r="J6">
-        <v>2.52</v>
+        <v>17.59</v>
       </c>
       <c r="K6">
-        <v>12.49</v>
+        <v>29.12</v>
       </c>
       <c r="L6">
-        <v>19.15</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M6">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>59.09</v>
+        <v>44.59</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>9.59</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="C7">
-        <v>20.06</v>
+        <v>23.87</v>
       </c>
       <c r="D7">
-        <v>9.01</v>
+        <v>15.68</v>
       </c>
       <c r="E7">
-        <v>1.02</v>
+        <v>2.13</v>
       </c>
       <c r="F7">
         <v>0.03</v>
       </c>
       <c r="G7">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>13.37</v>
+        <v>0.01</v>
       </c>
       <c r="I7">
-        <v>23.25</v>
+        <v>0.31</v>
       </c>
       <c r="J7">
-        <v>8.74</v>
+        <v>6.64</v>
       </c>
       <c r="K7">
-        <v>0.2</v>
+        <v>24.74</v>
       </c>
       <c r="L7">
-        <v>1.3</v>
+        <v>17.89</v>
       </c>
       <c r="M7">
-        <v>11.81</v>
+        <v>1.85</v>
       </c>
       <c r="N7">
-        <v>77.95</v>
+        <v>48.88</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="C8">
-        <v>0.9299999999999999</v>
+        <v>17.68</v>
       </c>
       <c r="D8">
-        <v>1.37</v>
+        <v>22.18</v>
       </c>
       <c r="E8">
-        <v>12.43</v>
+        <v>6.15</v>
       </c>
       <c r="F8">
-        <v>19.87</v>
+        <v>0.26</v>
       </c>
       <c r="G8">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.47</v>
+        <v>0.04</v>
       </c>
       <c r="J8">
-        <v>6.34</v>
+        <v>2.18</v>
       </c>
       <c r="K8">
-        <v>20.78</v>
+        <v>16.17</v>
       </c>
       <c r="L8">
-        <v>16.18</v>
+        <v>26.43</v>
       </c>
       <c r="M8">
-        <v>3.41</v>
+        <v>7.06</v>
       </c>
       <c r="N8">
-        <v>53.29</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.43</v>
+        <v>8.91</v>
       </c>
       <c r="D9">
-        <v>4.100000000000001</v>
+        <v>29.01</v>
       </c>
       <c r="E9">
-        <v>15.93</v>
+        <v>15.4</v>
       </c>
       <c r="F9">
-        <v>16.18</v>
+        <v>1.66</v>
       </c>
       <c r="G9">
-        <v>4.07</v>
+        <v>0.03</v>
       </c>
       <c r="H9">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>14.23</v>
+        <v>0.27</v>
       </c>
       <c r="K9">
-        <v>22.65</v>
+        <v>6.67</v>
       </c>
       <c r="L9">
-        <v>10.94</v>
+        <v>22.95</v>
       </c>
       <c r="M9">
-        <v>0.9900000000000001</v>
+        <v>15.1</v>
       </c>
       <c r="N9">
-        <v>51.19</v>
+        <v>55.01000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>8.1</v>
+        <v>24.01</v>
       </c>
       <c r="E10">
-        <v>17.3</v>
+        <v>35.95</v>
       </c>
       <c r="F10">
-        <v>10.38</v>
+        <v>9.56</v>
       </c>
       <c r="G10">
-        <v>1.35</v>
+        <v>0.45</v>
       </c>
       <c r="H10">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>7.31</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>23.31</v>
+        <v>0.03</v>
       </c>
       <c r="K10">
-        <v>19.55</v>
+        <v>1.48</v>
       </c>
       <c r="L10">
-        <v>4.21</v>
+        <v>12.51</v>
       </c>
       <c r="M10">
-        <v>0.2</v>
+        <v>16.01</v>
       </c>
       <c r="N10">
-        <v>52.73</v>
+        <v>69.97</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2043,131 +2058,131 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>6.16</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>24.73</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>22.3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>5.17</v>
+        <v>40.02</v>
       </c>
       <c r="F11">
-        <v>0.28</v>
+        <v>33.39</v>
       </c>
       <c r="G11">
-        <v>0.36</v>
+        <v>3.67</v>
       </c>
       <c r="H11">
-        <v>5.58</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>15.98</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>11.93</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.94</v>
+        <v>0.48</v>
       </c>
       <c r="L11">
-        <v>0.36</v>
+        <v>7.37</v>
       </c>
       <c r="M11">
-        <v>5.21</v>
+        <v>15.07</v>
       </c>
       <c r="N11">
-        <v>80.56</v>
+        <v>77.08000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>14.06</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>29.1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>16.21</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>2.34</v>
+        <v>55.09</v>
       </c>
       <c r="G12">
-        <v>0.08</v>
+        <v>18.5</v>
       </c>
       <c r="H12">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>11.96</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>13.28</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>4.17</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.33</v>
+        <v>4.15</v>
       </c>
       <c r="M12">
-        <v>4.34</v>
+        <v>22.26</v>
       </c>
       <c r="N12">
-        <v>77.88</v>
+        <v>73.59</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>4.78</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>20.47</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>24.27</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>7.32</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.43</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="H13">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>10.01</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>16.84</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>7.380000000000001</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8099999999999999</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>6.23</v>
+        <v>22.65</v>
       </c>
       <c r="N13">
-        <v>68.73999999999999</v>
+        <v>77.34999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2185,19 +2200,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2208,16 +2223,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2225,19 +2240,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2245,19 +2260,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2265,19 +2280,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2285,19 +2300,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2305,19 +2320,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2325,19 +2340,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2345,19 +2360,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2365,19 +2380,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2388,16 +2403,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2408,16 +2423,16 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>-25</v>
+        <v>-31</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2428,16 +2443,16 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13">
-        <v>-28</v>
+        <v>-36</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2447,54 +2462,57 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>80</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2534,363 +2552,390 @@
       <c r="M2">
         <v>37</v>
       </c>
-      <c r="N2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>-7</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>-2</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>18</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>18</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>18</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>19</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>27</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>21</v>
       </c>
-      <c r="N3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+      <c r="N4">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>16</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>9</v>
-      </c>
-      <c r="J4">
-        <v>16</v>
-      </c>
-      <c r="K4">
-        <v>15</v>
-      </c>
-      <c r="L4">
-        <v>11</v>
-      </c>
-      <c r="M4">
-        <v>14</v>
-      </c>
-      <c r="N4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>14</v>
-      </c>
-      <c r="I5">
-        <v>16</v>
       </c>
       <c r="J5">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <v>-7</v>
+      </c>
+      <c r="E6">
+        <v>-3</v>
+      </c>
+      <c r="F6">
+        <v>-4</v>
+      </c>
+      <c r="G6">
+        <v>-9</v>
+      </c>
+      <c r="H6">
+        <v>-8</v>
+      </c>
+      <c r="I6">
+        <v>-11</v>
+      </c>
+      <c r="J6">
+        <v>-7</v>
+      </c>
+      <c r="K6">
+        <v>-9</v>
+      </c>
+      <c r="L6">
+        <v>-3</v>
+      </c>
+      <c r="M6">
+        <v>-3</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="M5">
-        <v>12</v>
-      </c>
-      <c r="N5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-7</v>
+      </c>
+      <c r="C8">
+        <v>-6</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8">
+        <v>-11</v>
+      </c>
+      <c r="F8">
+        <v>-8</v>
+      </c>
+      <c r="G8">
+        <v>-14</v>
+      </c>
+      <c r="H8">
+        <v>-13</v>
+      </c>
+      <c r="I8">
+        <v>-12</v>
+      </c>
+      <c r="J8">
+        <v>-17</v>
+      </c>
+      <c r="K8">
+        <v>-17</v>
+      </c>
+      <c r="L8">
+        <v>-12</v>
+      </c>
+      <c r="M8">
+        <v>-11</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>-5</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <v>-5</v>
+      </c>
+      <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9">
+        <v>-6</v>
+      </c>
+      <c r="G9">
+        <v>-12</v>
+      </c>
+      <c r="H9">
+        <v>-12</v>
+      </c>
+      <c r="I9">
+        <v>-13</v>
+      </c>
+      <c r="J9">
+        <v>-11</v>
+      </c>
+      <c r="K9">
+        <v>-11</v>
+      </c>
+      <c r="L9">
+        <v>-3</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>-1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6">
-        <v>11</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>-5</v>
-      </c>
-      <c r="C7">
-        <v>-2</v>
-      </c>
-      <c r="D7">
-        <v>-5</v>
-      </c>
-      <c r="E7">
-        <v>-5</v>
-      </c>
-      <c r="F7">
-        <v>-6</v>
-      </c>
-      <c r="G7">
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-9</v>
+      </c>
+      <c r="D10">
         <v>-12</v>
-      </c>
-      <c r="H7">
-        <v>-12</v>
-      </c>
-      <c r="I7">
-        <v>-13</v>
-      </c>
-      <c r="J7">
-        <v>-11</v>
-      </c>
-      <c r="K7">
-        <v>-11</v>
-      </c>
-      <c r="L7">
-        <v>-3</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>-2</v>
-      </c>
-      <c r="D8">
-        <v>-7</v>
-      </c>
-      <c r="E8">
-        <v>-3</v>
-      </c>
-      <c r="F8">
-        <v>-4</v>
-      </c>
-      <c r="G8">
-        <v>-9</v>
-      </c>
-      <c r="H8">
-        <v>-8</v>
-      </c>
-      <c r="I8">
-        <v>-11</v>
-      </c>
-      <c r="J8">
-        <v>-7</v>
-      </c>
-      <c r="K8">
-        <v>-9</v>
-      </c>
-      <c r="L8">
-        <v>-3</v>
-      </c>
-      <c r="M8">
-        <v>-3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9">
-        <v>-9</v>
-      </c>
-      <c r="D9">
-        <v>-12</v>
-      </c>
-      <c r="E9">
-        <v>-11</v>
-      </c>
-      <c r="F9">
-        <v>-10</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-      <c r="J9">
-        <v>-2</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>-4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>-7</v>
-      </c>
-      <c r="C10">
-        <v>-6</v>
-      </c>
-      <c r="D10">
-        <v>-2</v>
       </c>
       <c r="E10">
         <v>-11</v>
       </c>
       <c r="F10">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="G10">
-        <v>-14</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>-17</v>
+        <v>-2</v>
       </c>
       <c r="K10">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>-12</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>-11</v>
-      </c>
-      <c r="N10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>-4</v>
+      </c>
+      <c r="N10">
+        <v>-5</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2930,11 +2975,14 @@
       <c r="M11">
         <v>-20</v>
       </c>
-      <c r="N11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="N11">
+        <v>-23</v>
+      </c>
+      <c r="O11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2974,11 +3022,14 @@
       <c r="M12">
         <v>-25</v>
       </c>
-      <c r="N12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12">
+        <v>-31</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -3018,8 +3069,11 @@
       <c r="M13">
         <v>-28</v>
       </c>
-      <c r="N13" t="s">
-        <v>58</v>
+      <c r="N13">
+        <v>-36</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3029,7 +3083,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3037,25 +3091,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3115,25 +3169,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>-11</v>
+        <v>42</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3144,22 +3198,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>-11</v>
       </c>
       <c r="F5">
-        <v>-10</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3167,25 +3221,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>-8</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>-10</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3193,25 +3247,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3219,25 +3273,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>-14</v>
+      </c>
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="E8">
-        <v>-2</v>
-      </c>
-      <c r="F8">
-        <v>-23</v>
-      </c>
       <c r="G8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3245,25 +3299,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>-23</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3271,25 +3325,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
       <c r="E10">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3297,25 +3351,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>-12</v>
       </c>
       <c r="F11">
-        <v>-12</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3323,25 +3377,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>-7</v>
       </c>
       <c r="F12">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3349,51 +3403,25 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
       <c r="E13">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="G13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>-9</v>
-      </c>
-      <c r="G14">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="88">
   <si>
     <t>PAI India Division Manager</t>
   </si>
@@ -58,37 +58,40 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
-  </si>
-  <si>
-    <t>1-12-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -160,10 +163,13 @@
     <t>Michael  Celoni</t>
   </si>
   <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
     <t>Eli Brinker</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
+    <t>Chris Carbone</t>
   </si>
   <si>
     <t>nick coughlin</t>
@@ -172,15 +178,12 @@
     <t>Louis Rodriguez</t>
   </si>
   <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
     <t>Lake George</t>
   </si>
   <si>
-    <t>Chris Carbone</t>
-  </si>
-  <si>
-    <t>Anthony Rizzo</t>
-  </si>
-  <si>
     <t>Marvin Ta</t>
   </si>
   <si>
@@ -193,39 +196,33 @@
     <t>Henry Morris</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑7</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓9</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -263,6 +260,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -693,37 +693,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -737,34 +737,34 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -775,37 +775,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -837,7 +837,7 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
@@ -863,19 +863,19 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -884,10 +884,10 @@
         <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -904,19 +904,19 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
@@ -925,7 +925,7 @@
         <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
         <v>18</v>
@@ -936,22 +936,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
@@ -960,16 +960,16 @@
         <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -977,40 +977,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1024,34 +1024,34 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1062,34 +1062,34 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -1109,10 +1109,10 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1121,7 +1121,7 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
@@ -1130,10 +1130,10 @@
         <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1144,34 +1144,34 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -1192,13 +1192,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1209,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4.833333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1223,10 +1223,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5.833333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1234,10 +1234,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>6.166666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1248,13 +1248,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>6.166666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>6.25</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>6.333333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>6.416666666666667</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>6.583333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>7.333333333333333</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>7.333333333333333</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>7.75</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1384,16 +1384,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1404,13 +1404,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>9.333333333333334</v>
+        <v>10.25</v>
       </c>
       <c r="D2">
-        <v>0.3333333333333339</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1421,10 +1421,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>8.333333333333334</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D3">
-        <v>-1.666666666666666</v>
+        <v>-2.416666666666666</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1438,13 +1438,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>8.083333333333334</v>
+        <v>8.5</v>
       </c>
       <c r="D4">
-        <v>1.083333333333334</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.833333333333333</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="D5">
-        <v>1.833333333333333</v>
+        <v>2.416666666666666</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1469,16 +1469,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>7.25</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D6">
-        <v>-1.75</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1486,16 +1486,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>6.583333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D7">
-        <v>-0.416666666666667</v>
+        <v>-1.75</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1506,13 +1506,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>6.5</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1523,10 +1523,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>5.833333333333333</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.166666666666667</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1537,16 +1537,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>4.833333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D10">
-        <v>0.833333333333333</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1554,16 +1554,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>4.75</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D11">
-        <v>-1.25</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1571,16 +1571,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>4.416666666666667</v>
+        <v>5.25</v>
       </c>
       <c r="D12">
-        <v>0.416666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1591,13 +1591,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="D13">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1615,54 +1615,54 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>24.35</v>
+        <v>24.54</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>75.64999999999999</v>
+        <v>75.46000000000001</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1698,21 +1698,21 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>22.1</v>
+        <v>19.99</v>
       </c>
       <c r="C3">
-        <v>4.05</v>
+        <v>9.74</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1724,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>20.3</v>
+        <v>3.48</v>
       </c>
       <c r="I3">
-        <v>53.55</v>
+        <v>30.2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>36.18</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>63.81999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1750,13 +1750,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>17.95</v>
+        <v>19.29</v>
       </c>
       <c r="C4">
-        <v>8.959999999999999</v>
+        <v>3.89</v>
       </c>
       <c r="D4">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.61</v>
+        <v>20.65</v>
       </c>
       <c r="I4">
-        <v>33.44</v>
+        <v>56.16999999999999</v>
       </c>
       <c r="J4">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>64.39999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1794,16 +1794,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>14.26</v>
+        <v>15.88</v>
       </c>
       <c r="C5">
-        <v>13.7</v>
+        <v>14.65</v>
       </c>
       <c r="D5">
-        <v>1.88</v>
+        <v>2.22</v>
       </c>
       <c r="E5">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="I5">
-        <v>10.69</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>37.69</v>
+        <v>35.54</v>
       </c>
       <c r="K5">
-        <v>21.34</v>
+        <v>20.3</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>40.97</v>
+        <v>44.16</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1838,16 +1838,16 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>12.64</v>
+        <v>11.71</v>
       </c>
       <c r="C6">
-        <v>22.83</v>
+        <v>20.36</v>
       </c>
       <c r="D6">
-        <v>6.800000000000001</v>
+        <v>6.460000000000001</v>
       </c>
       <c r="E6">
-        <v>0.31</v>
+        <v>0.44</v>
       </c>
       <c r="F6">
         <v>0.01</v>
@@ -1856,45 +1856,45 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I6">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="J6">
-        <v>17.59</v>
+        <v>19.19</v>
       </c>
       <c r="K6">
-        <v>29.12</v>
+        <v>31.06</v>
       </c>
       <c r="L6">
-        <v>8.699999999999999</v>
+        <v>8.59</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>44.59</v>
+        <v>41.16</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>6.850000000000001</v>
+        <v>6.87</v>
       </c>
       <c r="C7">
-        <v>23.87</v>
+        <v>24.7</v>
       </c>
       <c r="D7">
-        <v>15.68</v>
+        <v>16.49</v>
       </c>
       <c r="E7">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="F7">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>0.01</v>
       </c>
       <c r="I7">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
       <c r="J7">
-        <v>6.64</v>
+        <v>6.48</v>
       </c>
       <c r="K7">
-        <v>24.74</v>
+        <v>23.06</v>
       </c>
       <c r="L7">
-        <v>17.89</v>
+        <v>18.07</v>
       </c>
       <c r="M7">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="N7">
-        <v>48.88</v>
+        <v>50.67</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1926,19 +1926,19 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="C8">
-        <v>17.68</v>
+        <v>17.94</v>
       </c>
       <c r="D8">
-        <v>22.18</v>
+        <v>22.97</v>
       </c>
       <c r="E8">
-        <v>6.15</v>
+        <v>6.72</v>
       </c>
       <c r="F8">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1947,45 +1947,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J8">
-        <v>2.18</v>
+        <v>2.33</v>
       </c>
       <c r="K8">
-        <v>16.17</v>
+        <v>16.25</v>
       </c>
       <c r="L8">
-        <v>26.43</v>
+        <v>24.79</v>
       </c>
       <c r="M8">
-        <v>7.06</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="N8">
-        <v>48.16</v>
+        <v>49.63</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.91</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="D9">
-        <v>29.01</v>
+        <v>27.25</v>
       </c>
       <c r="E9">
-        <v>15.4</v>
+        <v>14.35</v>
       </c>
       <c r="F9">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="G9">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1997,16 +1997,16 @@
         <v>0.27</v>
       </c>
       <c r="K9">
-        <v>6.67</v>
+        <v>7.59</v>
       </c>
       <c r="L9">
-        <v>22.95</v>
+        <v>24.87</v>
       </c>
       <c r="M9">
-        <v>15.1</v>
+        <v>15.48</v>
       </c>
       <c r="N9">
-        <v>55.01000000000001</v>
+        <v>51.79</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2020,16 +2020,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>24.01</v>
+        <v>24.2</v>
       </c>
       <c r="E10">
-        <v>35.95</v>
+        <v>36.48</v>
       </c>
       <c r="F10">
-        <v>9.56</v>
+        <v>9.33</v>
       </c>
       <c r="G10">
-        <v>0.45</v>
+        <v>0.28</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2038,24 +2038,24 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="K10">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="L10">
-        <v>12.51</v>
+        <v>12.61</v>
       </c>
       <c r="M10">
-        <v>16.01</v>
+        <v>15.64</v>
       </c>
       <c r="N10">
-        <v>69.97</v>
+        <v>70.29000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2067,13 +2067,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.02</v>
+        <v>39.84</v>
       </c>
       <c r="F11">
-        <v>33.39</v>
+        <v>30.82</v>
       </c>
       <c r="G11">
-        <v>3.67</v>
+        <v>3.01</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2085,21 +2085,21 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.48</v>
+        <v>0.29</v>
       </c>
       <c r="L11">
-        <v>7.37</v>
+        <v>7.77</v>
       </c>
       <c r="M11">
-        <v>15.07</v>
+        <v>18.27</v>
       </c>
       <c r="N11">
-        <v>77.08000000000001</v>
+        <v>73.66999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>55.09</v>
+        <v>58.10999999999999</v>
       </c>
       <c r="G12">
-        <v>18.5</v>
+        <v>21.18</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2132,18 +2132,18 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.15</v>
+        <v>3.3</v>
       </c>
       <c r="M12">
-        <v>22.26</v>
+        <v>17.41</v>
       </c>
       <c r="N12">
-        <v>73.59</v>
+        <v>79.28999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>77.34999999999999</v>
+        <v>75.52</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2179,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.65</v>
+        <v>24.48</v>
       </c>
       <c r="N13">
-        <v>77.34999999999999</v>
+        <v>75.52</v>
       </c>
     </row>
   </sheetData>
@@ -2200,19 +2200,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2223,16 +2223,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2240,19 +2240,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2260,19 +2260,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2280,19 +2280,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2300,19 +2300,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2320,19 +2320,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2340,19 +2340,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2360,16 +2360,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -2383,10 +2383,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-14</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -2403,16 +2403,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11">
-        <v>-23</v>
+        <v>-28</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2423,16 +2423,16 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12">
-        <v>-31</v>
+        <v>-30</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2443,16 +2443,16 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13">
-        <v>-36</v>
+        <v>-30</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2462,57 +2462,60 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2555,340 +2558,364 @@
       <c r="N2">
         <v>42</v>
       </c>
-      <c r="O2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-7</v>
+      </c>
+      <c r="C3">
+        <v>-2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="L3">
+        <v>27</v>
+      </c>
+      <c r="M3">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>17</v>
+      </c>
+      <c r="O3">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>11</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>14</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>16</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>16</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>17</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>10</v>
       </c>
-      <c r="M3">
-        <v>12</v>
-      </c>
-      <c r="N3">
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4">
         <v>21</v>
       </c>
-      <c r="O3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>-7</v>
       </c>
-      <c r="C4">
+      <c r="C5">
+        <v>-6</v>
+      </c>
+      <c r="D5">
         <v>-2</v>
       </c>
-      <c r="D4">
+      <c r="E5">
+        <v>-11</v>
+      </c>
+      <c r="F5">
+        <v>-8</v>
+      </c>
+      <c r="G5">
+        <v>-14</v>
+      </c>
+      <c r="H5">
+        <v>-13</v>
+      </c>
+      <c r="I5">
+        <v>-12</v>
+      </c>
+      <c r="J5">
+        <v>-17</v>
+      </c>
+      <c r="K5">
+        <v>-17</v>
+      </c>
+      <c r="L5">
+        <v>-12</v>
+      </c>
+      <c r="M5">
+        <v>-11</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>14</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>-2</v>
+      </c>
+      <c r="D7">
+        <v>-7</v>
+      </c>
+      <c r="E7">
+        <v>-3</v>
+      </c>
+      <c r="F7">
+        <v>-4</v>
+      </c>
+      <c r="G7">
+        <v>-9</v>
+      </c>
+      <c r="H7">
+        <v>-8</v>
+      </c>
+      <c r="I7">
+        <v>-11</v>
+      </c>
+      <c r="J7">
+        <v>-7</v>
+      </c>
+      <c r="K7">
+        <v>-9</v>
+      </c>
+      <c r="L7">
+        <v>-3</v>
+      </c>
+      <c r="M7">
+        <v>-3</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>-5</v>
+      </c>
+      <c r="C8">
+        <v>-2</v>
+      </c>
+      <c r="D8">
+        <v>-5</v>
+      </c>
+      <c r="E8">
+        <v>-5</v>
+      </c>
+      <c r="F8">
+        <v>-6</v>
+      </c>
+      <c r="G8">
+        <v>-12</v>
+      </c>
+      <c r="H8">
+        <v>-12</v>
+      </c>
+      <c r="I8">
+        <v>-13</v>
+      </c>
+      <c r="J8">
+        <v>-11</v>
+      </c>
+      <c r="K8">
+        <v>-11</v>
+      </c>
+      <c r="L8">
+        <v>-3</v>
+      </c>
+      <c r="M8">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="N8">
+        <v>-1</v>
+      </c>
+      <c r="O8">
+        <v>-2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>18</v>
-      </c>
-      <c r="I4">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>18</v>
-      </c>
-      <c r="K4">
-        <v>19</v>
-      </c>
-      <c r="L4">
-        <v>27</v>
-      </c>
-      <c r="M4">
-        <v>21</v>
-      </c>
-      <c r="N4">
-        <v>17</v>
-      </c>
-      <c r="O4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
-      </c>
-      <c r="J5">
-        <v>16</v>
-      </c>
-      <c r="K5">
-        <v>15</v>
-      </c>
-      <c r="L5">
-        <v>11</v>
-      </c>
-      <c r="M5">
-        <v>14</v>
-      </c>
-      <c r="N5">
-        <v>12</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
+      <c r="M9">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>-2</v>
-      </c>
-      <c r="D6">
-        <v>-7</v>
-      </c>
-      <c r="E6">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>-3</v>
       </c>
-      <c r="F6">
-        <v>-4</v>
-      </c>
-      <c r="G6">
-        <v>-9</v>
-      </c>
-      <c r="H6">
-        <v>-8</v>
-      </c>
-      <c r="I6">
-        <v>-11</v>
-      </c>
-      <c r="J6">
-        <v>-7</v>
-      </c>
-      <c r="K6">
-        <v>-9</v>
-      </c>
-      <c r="L6">
-        <v>-3</v>
-      </c>
-      <c r="M6">
-        <v>-3</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>8</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>11</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>-7</v>
-      </c>
-      <c r="C8">
-        <v>-6</v>
-      </c>
-      <c r="D8">
-        <v>-2</v>
-      </c>
-      <c r="E8">
-        <v>-11</v>
-      </c>
-      <c r="F8">
-        <v>-8</v>
-      </c>
-      <c r="G8">
-        <v>-14</v>
-      </c>
-      <c r="H8">
-        <v>-13</v>
-      </c>
-      <c r="I8">
-        <v>-12</v>
-      </c>
-      <c r="J8">
-        <v>-17</v>
-      </c>
-      <c r="K8">
-        <v>-17</v>
-      </c>
-      <c r="L8">
-        <v>-12</v>
-      </c>
-      <c r="M8">
-        <v>-11</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>-5</v>
-      </c>
-      <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9">
-        <v>-5</v>
-      </c>
-      <c r="E9">
-        <v>-5</v>
-      </c>
-      <c r="F9">
-        <v>-6</v>
-      </c>
-      <c r="G9">
-        <v>-12</v>
-      </c>
-      <c r="H9">
-        <v>-12</v>
-      </c>
-      <c r="I9">
-        <v>-13</v>
-      </c>
-      <c r="J9">
-        <v>-11</v>
-      </c>
-      <c r="K9">
-        <v>-11</v>
-      </c>
-      <c r="L9">
-        <v>-3</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>-1</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2931,11 +2958,14 @@
       <c r="N10">
         <v>-5</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10">
+        <v>-14</v>
+      </c>
+      <c r="P10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2978,11 +3008,14 @@
       <c r="N11">
         <v>-23</v>
       </c>
-      <c r="O11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>-28</v>
+      </c>
+      <c r="P11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -3025,11 +3058,14 @@
       <c r="N12">
         <v>-31</v>
       </c>
-      <c r="O12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>-30</v>
+      </c>
+      <c r="P12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -3072,8 +3108,11 @@
       <c r="N13">
         <v>-36</v>
       </c>
-      <c r="O13" t="s">
-        <v>67</v>
+      <c r="O13">
+        <v>-30</v>
+      </c>
+      <c r="P13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3221,25 +3260,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>-30</v>
       </c>
       <c r="F6">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3247,25 +3286,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>-8</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>-10</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3273,25 +3312,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3299,25 +3338,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>-14</v>
+      </c>
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="E9">
-        <v>-2</v>
-      </c>
-      <c r="F9">
-        <v>-23</v>
-      </c>
       <c r="G9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3325,25 +3364,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>-23</v>
       </c>
       <c r="G10">
         <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3351,25 +3390,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3377,25 +3416,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3403,25 +3442,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="F13">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="90">
   <si>
     <t>PAI India Division Manager</t>
   </si>
@@ -58,40 +58,40 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>1-13-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>2-13-0</t>
+  </si>
+  <si>
+    <t>13-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -190,10 +190,13 @@
     <t>Chris Holloway</t>
   </si>
   <si>
+    <t>Henry Morris</t>
+  </si>
+  <si>
     <t>PJ Murphy</t>
   </si>
   <si>
-    <t>Henry Morris</t>
+    <t>↑10</t>
   </si>
   <si>
     <t>↑8</t>
@@ -202,27 +205,27 @@
     <t>↑4</t>
   </si>
   <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
     <t>↓5</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -263,6 +266,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -693,34 +699,34 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
       <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
@@ -734,7 +740,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -746,25 +752,25 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -784,10 +790,10 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -799,7 +805,7 @@
         <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
@@ -834,16 +840,16 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
         <v>12</v>
@@ -916,19 +922,19 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
         <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -939,7 +945,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -951,25 +957,25 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -980,7 +986,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1007,7 +1013,7 @@
         <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -1030,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -1039,19 +1045,19 @@
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1065,31 +1071,31 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
         <v>18</v>
       </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -1103,7 +1109,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1115,25 +1121,25 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
       </c>
       <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
         <v>20</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>15</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>12</v>
-      </c>
-      <c r="L12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1144,22 +1150,22 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
@@ -1168,10 +1174,10 @@
         <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -1209,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>5.5</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1223,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>6.083333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -1237,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.666666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1248,13 +1254,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>6.666666666666667</v>
+        <v>7.25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1262,10 +1268,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>6.833333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1276,13 +1282,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>6.833333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1290,13 +1296,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>6.916666666666667</v>
+        <v>7.25</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1304,13 +1310,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>7.083333333333333</v>
+        <v>7.75</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1321,10 +1327,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>7.416666666666667</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1335,7 +1341,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>7.916666666666667</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1349,10 +1355,10 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>7.916666666666667</v>
+        <v>8.75</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1363,7 +1369,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>8.166666666666666</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1404,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="D2">
         <v>0.25</v>
@@ -1421,10 +1427,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>8.583333333333334</v>
+        <v>9.5</v>
       </c>
       <c r="D3">
-        <v>-2.416666666666666</v>
+        <v>-2.5</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1438,13 +1444,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="D4">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1455,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.416666666666666</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="D5">
-        <v>2.416666666666666</v>
+        <v>3.166666666666666</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1472,13 +1478,13 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>7.416666666666667</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.583333333333333</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1489,13 +1495,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
       <c r="D7">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1506,10 +1512,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>7.083333333333333</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D8">
-        <v>0.08333333333333304</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1523,10 +1529,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>5.916666666666667</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D9">
-        <v>-0.08333333333333304</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1540,13 +1546,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.416666666666667</v>
+        <v>5.75</v>
       </c>
       <c r="D10">
-        <v>-0.583333333333333</v>
+        <v>-1.25</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1557,10 +1563,10 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>5.416666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="D11">
-        <v>0.416666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -1591,13 +1597,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>4.5</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +1668,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>24.54</v>
+        <v>25.15</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1680,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>75.46000000000001</v>
+        <v>74.85000000000001</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1703,16 +1709,16 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>19.99</v>
+        <v>19.24</v>
       </c>
       <c r="C3">
-        <v>9.74</v>
+        <v>4.12</v>
       </c>
       <c r="D3">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1724,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.48</v>
+        <v>21.03</v>
       </c>
       <c r="I3">
-        <v>30.2</v>
+        <v>55.61000000000001</v>
       </c>
       <c r="J3">
-        <v>36.18</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1742,21 +1748,21 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>63.81999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>19.29</v>
+        <v>18.76</v>
       </c>
       <c r="C4">
-        <v>3.89</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1768,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>20.65</v>
+        <v>3.52</v>
       </c>
       <c r="I4">
-        <v>56.16999999999999</v>
+        <v>30.75</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>36.85</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1786,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>63.15000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1794,16 +1800,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>15.88</v>
+        <v>16.16</v>
       </c>
       <c r="C5">
-        <v>14.65</v>
+        <v>14.25</v>
       </c>
       <c r="D5">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="E5">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1812,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.36</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="I5">
-        <v>11</v>
+        <v>10.93</v>
       </c>
       <c r="J5">
-        <v>35.54</v>
+        <v>35.26000000000001</v>
       </c>
       <c r="K5">
-        <v>20.3</v>
+        <v>20.69</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1830,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>44.16</v>
+        <v>44.05</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1838,16 +1844,16 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>11.71</v>
+        <v>11.84</v>
       </c>
       <c r="C6">
-        <v>20.36</v>
+        <v>20.07</v>
       </c>
       <c r="D6">
-        <v>6.460000000000001</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="E6">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="F6">
         <v>0.01</v>
@@ -1856,25 +1862,25 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I6">
-        <v>2.14</v>
+        <v>2.31</v>
       </c>
       <c r="J6">
-        <v>19.19</v>
+        <v>19.23</v>
       </c>
       <c r="K6">
-        <v>31.06</v>
+        <v>31.35</v>
       </c>
       <c r="L6">
-        <v>8.59</v>
+        <v>8.85</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>41.16</v>
+        <v>40.57</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1882,19 +1888,19 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>6.87</v>
+        <v>7.03</v>
       </c>
       <c r="C7">
-        <v>24.7</v>
+        <v>25.18</v>
       </c>
       <c r="D7">
-        <v>16.49</v>
+        <v>15.17</v>
       </c>
       <c r="E7">
-        <v>2.12</v>
+        <v>1.72</v>
       </c>
       <c r="F7">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1903,22 +1909,22 @@
         <v>0.01</v>
       </c>
       <c r="I7">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
       <c r="J7">
-        <v>6.48</v>
+        <v>6.54</v>
       </c>
       <c r="K7">
-        <v>23.06</v>
+        <v>24.13</v>
       </c>
       <c r="L7">
-        <v>18.07</v>
+        <v>18.01</v>
       </c>
       <c r="M7">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="N7">
-        <v>50.67</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1926,16 +1932,16 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="C8">
-        <v>17.94</v>
+        <v>18.1</v>
       </c>
       <c r="D8">
-        <v>22.97</v>
+        <v>23.08</v>
       </c>
       <c r="E8">
-        <v>6.72</v>
+        <v>6.329999999999999</v>
       </c>
       <c r="F8">
         <v>0.25</v>
@@ -1947,22 +1953,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J8">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="K8">
-        <v>16.25</v>
+        <v>15.38</v>
       </c>
       <c r="L8">
-        <v>24.79</v>
+        <v>26.23</v>
       </c>
       <c r="M8">
-        <v>7.000000000000001</v>
+        <v>6.94</v>
       </c>
       <c r="N8">
-        <v>49.63</v>
+        <v>49.62</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1973,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.720000000000001</v>
+        <v>8.76</v>
       </c>
       <c r="D9">
-        <v>27.25</v>
+        <v>28.32</v>
       </c>
       <c r="E9">
-        <v>14.35</v>
+        <v>12.94</v>
       </c>
       <c r="F9">
         <v>1.46</v>
@@ -1994,19 +2000,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="K9">
-        <v>7.59</v>
+        <v>6.7</v>
       </c>
       <c r="L9">
-        <v>24.87</v>
+        <v>25.52</v>
       </c>
       <c r="M9">
-        <v>15.48</v>
+        <v>16.01</v>
       </c>
       <c r="N9">
-        <v>51.79</v>
+        <v>51.48999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2020,16 +2026,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>24.2</v>
+        <v>24.77</v>
       </c>
       <c r="E10">
-        <v>36.48</v>
+        <v>37.49</v>
       </c>
       <c r="F10">
-        <v>9.33</v>
+        <v>8.09</v>
       </c>
       <c r="G10">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2041,16 +2047,16 @@
         <v>0.01</v>
       </c>
       <c r="K10">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="L10">
-        <v>12.61</v>
+        <v>11.55</v>
       </c>
       <c r="M10">
-        <v>15.64</v>
+        <v>16.35</v>
       </c>
       <c r="N10">
-        <v>70.29000000000001</v>
+        <v>70.68000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2067,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.84</v>
+        <v>41.12</v>
       </c>
       <c r="F11">
-        <v>30.82</v>
+        <v>30.23</v>
       </c>
       <c r="G11">
-        <v>3.01</v>
+        <v>2.48</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2085,16 +2091,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="L11">
-        <v>7.77</v>
+        <v>7.02</v>
       </c>
       <c r="M11">
-        <v>18.27</v>
+        <v>18.81</v>
       </c>
       <c r="N11">
-        <v>73.66999999999999</v>
+        <v>73.83000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2114,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>58.10999999999999</v>
+        <v>59.93000000000001</v>
       </c>
       <c r="G12">
-        <v>21.18</v>
+        <v>20.89</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2132,13 +2138,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="M12">
-        <v>17.41</v>
+        <v>16.36</v>
       </c>
       <c r="N12">
-        <v>79.28999999999999</v>
+        <v>80.82000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2161,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>75.52</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2179,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.48</v>
+        <v>23.71</v>
       </c>
       <c r="N13">
-        <v>75.52</v>
+        <v>76.29000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2226,7 +2232,7 @@
         <v>46</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -2246,7 +2252,7 @@
         <v>47</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -2266,10 +2272,10 @@
         <v>48</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>60</v>
@@ -2286,10 +2292,10 @@
         <v>49</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>61</v>
@@ -2306,13 +2312,13 @@
         <v>50</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2326,13 +2332,13 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2346,13 +2352,13 @@
         <v>52</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2366,7 +2372,7 @@
         <v>53</v>
       </c>
       <c r="D9">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -2406,13 +2412,13 @@
         <v>55</v>
       </c>
       <c r="D11">
-        <v>-28</v>
+        <v>-31</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2420,19 +2426,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>56</v>
       </c>
       <c r="D12">
-        <v>-30</v>
+        <v>-36</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2440,19 +2446,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
       </c>
       <c r="D13">
-        <v>-30</v>
+        <v>-38</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2462,60 +2468,63 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2561,11 +2570,14 @@
       <c r="O2">
         <v>50</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2">
+        <v>60</v>
+      </c>
+      <c r="Q2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2611,11 +2623,14 @@
       <c r="O3">
         <v>21</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2661,11 +2676,14 @@
       <c r="O4">
         <v>20</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2711,11 +2729,14 @@
       <c r="O5">
         <v>6</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2761,11 +2782,14 @@
       <c r="O6">
         <v>5</v>
       </c>
-      <c r="P6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2811,11 +2835,14 @@
       <c r="O7">
         <v>5</v>
       </c>
-      <c r="P7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2861,11 +2888,14 @@
       <c r="O8">
         <v>-2</v>
       </c>
-      <c r="P8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2911,11 +2941,14 @@
       <c r="O9">
         <v>-3</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9">
+        <v>-8</v>
+      </c>
+      <c r="Q9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2961,11 +2994,14 @@
       <c r="O10">
         <v>-14</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10">
+        <v>-14</v>
+      </c>
+      <c r="Q10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3011,108 +3047,117 @@
       <c r="O11">
         <v>-28</v>
       </c>
-      <c r="P11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11">
+        <v>-31</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="G12">
         <v>-5</v>
       </c>
       <c r="H12">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="I12">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="J12">
-        <v>-16</v>
+        <v>-23</v>
       </c>
       <c r="K12">
-        <v>-17</v>
+        <v>-26</v>
       </c>
       <c r="L12">
-        <v>-25</v>
+        <v>-31</v>
       </c>
       <c r="M12">
-        <v>-25</v>
+        <v>-28</v>
       </c>
       <c r="N12">
-        <v>-31</v>
+        <v>-36</v>
       </c>
       <c r="O12">
         <v>-30</v>
       </c>
-      <c r="P12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12">
+        <v>-36</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="G13">
         <v>-5</v>
       </c>
       <c r="H13">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="I13">
+        <v>-13</v>
+      </c>
+      <c r="J13">
+        <v>-16</v>
+      </c>
+      <c r="K13">
         <v>-17</v>
       </c>
-      <c r="J13">
-        <v>-23</v>
-      </c>
-      <c r="K13">
-        <v>-26</v>
-      </c>
       <c r="L13">
+        <v>-25</v>
+      </c>
+      <c r="M13">
+        <v>-25</v>
+      </c>
+      <c r="N13">
         <v>-31</v>
-      </c>
-      <c r="M13">
-        <v>-28</v>
-      </c>
-      <c r="N13">
-        <v>-36</v>
       </c>
       <c r="O13">
         <v>-30</v>
       </c>
-      <c r="P13" t="s">
-        <v>61</v>
+      <c r="P13">
+        <v>-38</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3122,7 +3167,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3130,25 +3175,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3338,25 +3383,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>-31</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3364,25 +3409,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>-14</v>
+      </c>
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>-2</v>
-      </c>
-      <c r="F10">
-        <v>-23</v>
-      </c>
       <c r="G10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3390,25 +3435,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F11">
-        <v>21</v>
+        <v>-23</v>
       </c>
       <c r="G11">
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3416,51 +3461,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G12">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>-7</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2023.xlsx
+++ b/Pennoni Younglings 2023.xlsx
@@ -4218,7 +4218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4249,30 +4249,50 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Team 1 LPI</t>
+          <t>LPI 1</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
+          <t>Total Points 1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Record 1</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
           <t>Team 2</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Seed 2</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Score 2</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Team 2 LPI</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>LPI 2</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Total Points 2</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Record 2</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Winner</t>
         </is>
@@ -4298,21 +4318,37 @@
       <c r="E2" t="n">
         <v>7</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>1629.68</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11-3-0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>I'd_Tap_ That</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>8</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>91.48</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>-14</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="n">
+        <v>1436.46</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>6-8-0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Team Cogs</t>
         </is>
@@ -4338,21 +4374,37 @@
       <c r="E3" t="n">
         <v>60</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>1661.48</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10-4-0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>PAI India Division Manager</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>7</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>120.14</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>29</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>1661.92</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>6-8-0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>19th St Halal Cart</t>
         </is>
@@ -4378,21 +4430,37 @@
       <c r="E4" t="n">
         <v>-3</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>1494.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Golden Receivers</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>97.42</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>1497.52</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Book of MoreMoms</t>
         </is>
@@ -4418,21 +4486,37 @@
       <c r="E5" t="n">
         <v>8</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>1511.42</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bli Erinker</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>116.56</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>24</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>1606.66</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>Bli Erinker</t>
         </is>
@@ -4458,21 +4542,37 @@
       <c r="E6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>1629.68</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>11-3-0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bli Erinker</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>96.81999999999999</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>21</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>1606.66</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Bli Erinker</t>
         </is>
@@ -4498,21 +4598,37 @@
       <c r="E7" t="n">
         <v>58</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>1661.48</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10-4-0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Book of MoreMoms</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>114.42</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>-3</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>1494.1</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Book of MoreMoms</t>
         </is>
@@ -4538,21 +4654,37 @@
       <c r="E8" t="n">
         <v>24</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>1606.66</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Book of MoreMoms</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>139.8</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>2</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>1494.1</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>Book of MoreMoms</t>
         </is>
